--- a/Seed Generator/SPSA Depth = 1/SPSA Code/static seeds 2.xlsx
+++ b/Seed Generator/SPSA Depth = 1/SPSA Code/static seeds 2.xlsx
@@ -1881,7 +1881,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J2">
-        <v>11.82339191436768</v>
+        <v>13.82024097442627</v>
       </c>
       <c r="K2">
         <v>-12</v>
@@ -1922,7 +1922,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J3">
-        <v>11.51058292388916</v>
+        <v>21.54987096786499</v>
       </c>
       <c r="K3">
         <v>-12</v>
@@ -1963,7 +1963,7 @@
         <v>-6</v>
       </c>
       <c r="J4">
-        <v>13.66475105285645</v>
+        <v>52.56909799575806</v>
       </c>
       <c r="K4">
         <v>-12</v>
@@ -2004,7 +2004,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J5">
-        <v>14.61956310272217</v>
+        <v>67.31471705436707</v>
       </c>
       <c r="K5">
         <v>-11.99999999999999</v>
@@ -2045,7 +2045,7 @@
         <v>-6</v>
       </c>
       <c r="J6">
-        <v>15.0897798538208</v>
+        <v>76.367192029953</v>
       </c>
       <c r="K6">
         <v>-12</v>
@@ -2086,7 +2086,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J7">
-        <v>15.17431807518005</v>
+        <v>63.18223786354065</v>
       </c>
       <c r="K7">
         <v>-12</v>
@@ -2127,7 +2127,7 @@
         <v>-6</v>
       </c>
       <c r="J8">
-        <v>16.77255201339722</v>
+        <v>76.92814779281616</v>
       </c>
       <c r="K8">
         <v>-12</v>
@@ -2168,7 +2168,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J9">
-        <v>20.08367514610291</v>
+        <v>81.99523019790649</v>
       </c>
       <c r="K9">
         <v>-12</v>
@@ -2209,7 +2209,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J10">
-        <v>18.81545209884644</v>
+        <v>81.49378776550293</v>
       </c>
       <c r="K10">
         <v>-12</v>
@@ -2250,7 +2250,7 @@
         <v>-6</v>
       </c>
       <c r="J11">
-        <v>19.32621598243713</v>
+        <v>84.34532403945923</v>
       </c>
       <c r="K11">
         <v>-12</v>
@@ -2291,7 +2291,7 @@
         <v>-2.99999969949226</v>
       </c>
       <c r="J12">
-        <v>21.4331681728363</v>
+        <v>79.82079100608826</v>
       </c>
       <c r="K12">
         <v>-8.99999969949226</v>
@@ -2332,7 +2332,7 @@
         <v>-2.999988828670261</v>
       </c>
       <c r="J13">
-        <v>21.3024799823761</v>
+        <v>64.25847911834717</v>
       </c>
       <c r="K13">
         <v>-8.999988828670261</v>
@@ -2373,7 +2373,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J14">
-        <v>25.14483618736267</v>
+        <v>56.50039410591125</v>
       </c>
       <c r="K14">
         <v>-11.99999999999999</v>
@@ -2414,7 +2414,7 @@
         <v>-2.999999869286</v>
       </c>
       <c r="J15">
-        <v>20.17194294929504</v>
+        <v>50.82342195510864</v>
       </c>
       <c r="K15">
         <v>-8.999999869286</v>
@@ -2455,7 +2455,7 @@
         <v>-2.99999984153942</v>
       </c>
       <c r="J16">
-        <v>20.63712882995605</v>
+        <v>71.20582318305969</v>
       </c>
       <c r="K16">
         <v>-8.99999984153942</v>
@@ -2496,7 +2496,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J17">
-        <v>20.23216319084167</v>
+        <v>59.98784518241882</v>
       </c>
       <c r="K17">
         <v>-12</v>
@@ -2537,7 +2537,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J18">
-        <v>19.85934805870056</v>
+        <v>76.28745412826538</v>
       </c>
       <c r="K18">
         <v>-12.00000000000001</v>
@@ -2578,7 +2578,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J19">
-        <v>20.40987992286682</v>
+        <v>75.38248109817505</v>
       </c>
       <c r="K19">
         <v>-11.99999999999999</v>
@@ -2619,7 +2619,7 @@
         <v>-6</v>
       </c>
       <c r="J20">
-        <v>20.34604501724243</v>
+        <v>63.14711499214172</v>
       </c>
       <c r="K20">
         <v>-12</v>
@@ -2660,7 +2660,7 @@
         <v>-6</v>
       </c>
       <c r="J21">
-        <v>19.86911010742188</v>
+        <v>63.25260901451111</v>
       </c>
       <c r="K21">
         <v>-12</v>
@@ -2701,7 +2701,7 @@
         <v>-6</v>
       </c>
       <c r="J22">
-        <v>19.08794808387756</v>
+        <v>69.98352003097534</v>
       </c>
       <c r="K22">
         <v>-12</v>
@@ -2742,7 +2742,7 @@
         <v>-6</v>
       </c>
       <c r="J23">
-        <v>18.62163686752319</v>
+        <v>46.88587784767151</v>
       </c>
       <c r="K23">
         <v>-12</v>
@@ -2783,7 +2783,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J24">
-        <v>18.650151014328</v>
+        <v>55.38947892189026</v>
       </c>
       <c r="K24">
         <v>-12</v>
@@ -2824,7 +2824,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J25">
-        <v>18.54736518859863</v>
+        <v>52.83401608467102</v>
       </c>
       <c r="K25">
         <v>-12</v>
@@ -2865,7 +2865,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J26">
-        <v>18.70453071594238</v>
+        <v>78.78624987602234</v>
       </c>
       <c r="K26">
         <v>-12</v>
@@ -2906,7 +2906,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J27">
-        <v>18.42419981956482</v>
+        <v>77.04804921150208</v>
       </c>
       <c r="K27">
         <v>-12</v>
@@ -2947,7 +2947,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J28">
-        <v>19.99383592605591</v>
+        <v>59.59759306907654</v>
       </c>
       <c r="K28">
         <v>-12</v>
@@ -2988,7 +2988,7 @@
         <v>-6</v>
       </c>
       <c r="J29">
-        <v>19.20904088020325</v>
+        <v>52.03026103973389</v>
       </c>
       <c r="K29">
         <v>-12</v>
@@ -3029,7 +3029,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J30">
-        <v>18.88501191139221</v>
+        <v>45.74311923980713</v>
       </c>
       <c r="K30">
         <v>-12</v>
@@ -3070,7 +3070,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J31">
-        <v>18.95590996742249</v>
+        <v>61.54575800895691</v>
       </c>
       <c r="K31">
         <v>-12</v>
@@ -3111,7 +3111,7 @@
         <v>-6</v>
       </c>
       <c r="J32">
-        <v>18.66650700569153</v>
+        <v>49.47247529029846</v>
       </c>
       <c r="K32">
         <v>-12</v>
@@ -3152,7 +3152,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J33">
-        <v>18.78176498413086</v>
+        <v>58.79859614372253</v>
       </c>
       <c r="K33">
         <v>-12</v>
@@ -3193,7 +3193,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J34">
-        <v>18.75688195228577</v>
+        <v>85.77207493782043</v>
       </c>
       <c r="K34">
         <v>-12</v>
@@ -3234,7 +3234,7 @@
         <v>-2.99999992090739</v>
       </c>
       <c r="J35">
-        <v>18.8868420124054</v>
+        <v>85.35998106002808</v>
       </c>
       <c r="K35">
         <v>-8.99999992090739</v>
@@ -3275,7 +3275,7 @@
         <v>-2.999998676112722</v>
       </c>
       <c r="J36">
-        <v>19.12789916992188</v>
+        <v>82.79316902160645</v>
       </c>
       <c r="K36">
         <v>-8.999998676112721</v>
@@ -3316,7 +3316,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J37">
-        <v>18.7336220741272</v>
+        <v>44.04428696632385</v>
       </c>
       <c r="K37">
         <v>-12</v>
@@ -3357,7 +3357,7 @@
         <v>-5.999999999999973</v>
       </c>
       <c r="J38">
-        <v>19.00806593894958</v>
+        <v>46.75984311103821</v>
       </c>
       <c r="K38">
         <v>-11.99999999999997</v>
@@ -3398,7 +3398,7 @@
         <v>-6</v>
       </c>
       <c r="J39">
-        <v>18.81062293052673</v>
+        <v>52.29262781143188</v>
       </c>
       <c r="K39">
         <v>-12</v>
@@ -3439,7 +3439,7 @@
         <v>-6</v>
       </c>
       <c r="J40">
-        <v>18.81627702713013</v>
+        <v>64.02714109420776</v>
       </c>
       <c r="K40">
         <v>-12</v>
@@ -3480,7 +3480,7 @@
         <v>-6</v>
       </c>
       <c r="J41">
-        <v>18.72769522666931</v>
+        <v>62.1806468963623</v>
       </c>
       <c r="K41">
         <v>-12</v>
@@ -3521,7 +3521,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J42">
-        <v>18.7470977306366</v>
+        <v>55.70175790786743</v>
       </c>
       <c r="K42">
         <v>-12</v>
@@ -3562,7 +3562,7 @@
         <v>-6</v>
       </c>
       <c r="J43">
-        <v>18.8569769859314</v>
+        <v>43.24505400657654</v>
       </c>
       <c r="K43">
         <v>-12</v>
@@ -3603,7 +3603,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J44">
-        <v>19.15929508209229</v>
+        <v>81.04564905166626</v>
       </c>
       <c r="K44">
         <v>-12</v>
@@ -3644,7 +3644,7 @@
         <v>-6</v>
       </c>
       <c r="J45">
-        <v>19.05184102058411</v>
+        <v>53.46839213371277</v>
       </c>
       <c r="K45">
         <v>-12</v>
@@ -3685,7 +3685,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J46">
-        <v>19.43595099449158</v>
+        <v>44.90909290313721</v>
       </c>
       <c r="K46">
         <v>-12</v>
@@ -3726,7 +3726,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J47">
-        <v>18.88803005218506</v>
+        <v>49.51637983322144</v>
       </c>
       <c r="K47">
         <v>-12</v>
@@ -3767,7 +3767,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J48">
-        <v>18.85357117652893</v>
+        <v>65.31627535820007</v>
       </c>
       <c r="K48">
         <v>-12</v>
@@ -3808,7 +3808,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J49">
-        <v>18.96354818344116</v>
+        <v>66.85864806175232</v>
       </c>
       <c r="K49">
         <v>-12</v>
@@ -3849,7 +3849,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J50">
-        <v>18.74526786804199</v>
+        <v>69.64605498313904</v>
       </c>
       <c r="K50">
         <v>-12</v>
@@ -3890,7 +3890,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J51">
-        <v>19.0947699546814</v>
+        <v>67.7685911655426</v>
       </c>
       <c r="K51">
         <v>-12</v>
@@ -3931,7 +3931,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J52">
-        <v>18.95591020584106</v>
+        <v>40.81214284896851</v>
       </c>
       <c r="K52">
         <v>-12</v>
@@ -3972,7 +3972,7 @@
         <v>-6</v>
       </c>
       <c r="J53">
-        <v>18.89619398117065</v>
+        <v>53.62563991546631</v>
       </c>
       <c r="K53">
         <v>-12</v>
@@ -4013,7 +4013,7 @@
         <v>-6</v>
       </c>
       <c r="J54">
-        <v>18.35981321334839</v>
+        <v>47.29077696800232</v>
       </c>
       <c r="K54">
         <v>-12</v>
@@ -4054,7 +4054,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J55">
-        <v>18.74239587783813</v>
+        <v>59.88702201843262</v>
       </c>
       <c r="K55">
         <v>-12</v>
@@ -4095,7 +4095,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J56">
-        <v>19.15996026992798</v>
+        <v>64.86532020568848</v>
       </c>
       <c r="K56">
         <v>-12</v>
@@ -4136,7 +4136,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J57">
-        <v>19.11877489089966</v>
+        <v>49.51549196243286</v>
       </c>
       <c r="K57">
         <v>-12</v>
@@ -4177,7 +4177,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J58">
-        <v>19.22777605056763</v>
+        <v>55.45934891700745</v>
       </c>
       <c r="K58">
         <v>-12</v>
@@ -4218,7 +4218,7 @@
         <v>-6</v>
       </c>
       <c r="J59">
-        <v>18.94320893287659</v>
+        <v>47.25185298919678</v>
       </c>
       <c r="K59">
         <v>-12</v>
@@ -4259,7 +4259,7 @@
         <v>-6</v>
       </c>
       <c r="J60">
-        <v>20.11257886886597</v>
+        <v>61.57945990562439</v>
       </c>
       <c r="K60">
         <v>-12</v>
@@ -4300,7 +4300,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J61">
-        <v>19.45889282226562</v>
+        <v>45.08266973495483</v>
       </c>
       <c r="K61">
         <v>-11.99999999999999</v>
@@ -4341,7 +4341,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J62">
-        <v>19.05150103569031</v>
+        <v>42.37725806236267</v>
       </c>
       <c r="K62">
         <v>-12</v>
@@ -4382,7 +4382,7 @@
         <v>-2.999998502034304</v>
       </c>
       <c r="J63">
-        <v>19.26548314094543</v>
+        <v>47.58961701393127</v>
       </c>
       <c r="K63">
         <v>-8.999998502034304</v>
@@ -4423,7 +4423,7 @@
         <v>-6</v>
       </c>
       <c r="J64">
-        <v>19.38626313209534</v>
+        <v>44.63716197013855</v>
       </c>
       <c r="K64">
         <v>-12</v>
@@ -4464,7 +4464,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J65">
-        <v>19.55911302566528</v>
+        <v>58.40048813819885</v>
       </c>
       <c r="K65">
         <v>-12</v>
@@ -4505,7 +4505,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J66">
-        <v>19.7987642288208</v>
+        <v>46.93681383132935</v>
       </c>
       <c r="K66">
         <v>-12</v>
@@ -4546,7 +4546,7 @@
         <v>-2.999999976945365</v>
       </c>
       <c r="J67">
-        <v>19.55748414993286</v>
+        <v>70.47011876106262</v>
       </c>
       <c r="K67">
         <v>-8.999999976945364</v>
@@ -4587,7 +4587,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J68">
-        <v>19.8145546913147</v>
+        <v>52.95388889312744</v>
       </c>
       <c r="K68">
         <v>-12</v>
@@ -4628,7 +4628,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J69">
-        <v>18.91108798980713</v>
+        <v>80.73189401626587</v>
       </c>
       <c r="K69">
         <v>-12</v>
@@ -4669,7 +4669,7 @@
         <v>-2.999999994085707</v>
       </c>
       <c r="J70">
-        <v>18.9334499835968</v>
+        <v>47.77015805244446</v>
       </c>
       <c r="K70">
         <v>-8.999999994085707</v>
@@ -4710,7 +4710,7 @@
         <v>-6</v>
       </c>
       <c r="J71">
-        <v>19.41965889930725</v>
+        <v>51.53129887580872</v>
       </c>
       <c r="K71">
         <v>-12</v>
@@ -4751,7 +4751,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J72">
-        <v>19.34172701835632</v>
+        <v>72.66939806938171</v>
       </c>
       <c r="K72">
         <v>-12</v>
@@ -4792,7 +4792,7 @@
         <v>-2.999999463048917</v>
       </c>
       <c r="J73">
-        <v>19.14105319976807</v>
+        <v>56.82626008987427</v>
       </c>
       <c r="K73">
         <v>-8.999999463048917</v>
@@ -4833,7 +4833,7 @@
         <v>-6</v>
       </c>
       <c r="J74">
-        <v>19.03923773765564</v>
+        <v>77.58356499671936</v>
       </c>
       <c r="K74">
         <v>-12</v>
@@ -4874,7 +4874,7 @@
         <v>-6</v>
       </c>
       <c r="J75">
-        <v>19.55783605575562</v>
+        <v>50.02763414382935</v>
       </c>
       <c r="K75">
         <v>-12</v>
@@ -4915,7 +4915,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J76">
-        <v>19.35408401489258</v>
+        <v>49.92273116111755</v>
       </c>
       <c r="K76">
         <v>-12</v>
@@ -4956,7 +4956,7 @@
         <v>-6</v>
       </c>
       <c r="J77">
-        <v>19.16338896751404</v>
+        <v>47.3669102191925</v>
       </c>
       <c r="K77">
         <v>-12</v>
@@ -4997,7 +4997,7 @@
         <v>-2.999999968324843</v>
       </c>
       <c r="J78">
-        <v>19.60660815238953</v>
+        <v>53.32058191299438</v>
       </c>
       <c r="K78">
         <v>-8.999999968324843</v>
@@ -5038,7 +5038,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J79">
-        <v>18.91084289550781</v>
+        <v>50.29184484481812</v>
       </c>
       <c r="K79">
         <v>-12</v>
@@ -5079,7 +5079,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J80">
-        <v>19.02364587783813</v>
+        <v>79.22560000419617</v>
       </c>
       <c r="K80">
         <v>-12</v>
@@ -5120,7 +5120,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J81">
-        <v>19.1336498260498</v>
+        <v>81.93181800842285</v>
       </c>
       <c r="K81">
         <v>-12</v>
@@ -5161,7 +5161,7 @@
         <v>-6</v>
       </c>
       <c r="J82">
-        <v>19.18208694458008</v>
+        <v>74.19750118255615</v>
       </c>
       <c r="K82">
         <v>-12</v>
@@ -5202,7 +5202,7 @@
         <v>-6</v>
       </c>
       <c r="J83">
-        <v>19.34731388092041</v>
+        <v>89.16650080680847</v>
       </c>
       <c r="K83">
         <v>-12</v>
@@ -5243,7 +5243,7 @@
         <v>-6</v>
       </c>
       <c r="J84">
-        <v>25.69659519195557</v>
+        <v>72.99959921836853</v>
       </c>
       <c r="K84">
         <v>-12</v>
@@ -5284,7 +5284,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J85">
-        <v>29.1422290802002</v>
+        <v>59.59277391433716</v>
       </c>
       <c r="K85">
         <v>-12</v>
@@ -5325,7 +5325,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J86">
-        <v>33.10427403450012</v>
+        <v>56.92466402053833</v>
       </c>
       <c r="K86">
         <v>-12</v>
@@ -5366,7 +5366,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J87">
-        <v>31.17757201194763</v>
+        <v>41.56234121322632</v>
       </c>
       <c r="K87">
         <v>-12</v>
@@ -5407,7 +5407,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J88">
-        <v>28.85955715179443</v>
+        <v>64.00688409805298</v>
       </c>
       <c r="K88">
         <v>-12</v>
@@ -5448,7 +5448,7 @@
         <v>-6</v>
       </c>
       <c r="J89">
-        <v>18.05152773857117</v>
+        <v>44.68737268447876</v>
       </c>
       <c r="K89">
         <v>-12</v>
@@ -5489,7 +5489,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J90">
-        <v>18.57302689552307</v>
+        <v>57.53595185279846</v>
       </c>
       <c r="K90">
         <v>-12</v>
@@ -5530,7 +5530,7 @@
         <v>-2.999989314795301</v>
       </c>
       <c r="J91">
-        <v>18.45432901382446</v>
+        <v>47.45449304580688</v>
       </c>
       <c r="K91">
         <v>-8.9999893147953</v>
@@ -5571,7 +5571,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J92">
-        <v>18.61972784996033</v>
+        <v>51.66933870315552</v>
       </c>
       <c r="K92">
         <v>-12</v>
@@ -5612,7 +5612,7 @@
         <v>-2.99999983136189</v>
       </c>
       <c r="J93">
-        <v>18.62536692619324</v>
+        <v>46.53737187385559</v>
       </c>
       <c r="K93">
         <v>-8.99999983136189</v>
@@ -5653,7 +5653,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J94">
-        <v>18.90478682518005</v>
+        <v>43.14826416969299</v>
       </c>
       <c r="K94">
         <v>-12</v>
@@ -5694,7 +5694,7 @@
         <v>-6</v>
       </c>
       <c r="J95">
-        <v>19.95979809761047</v>
+        <v>50.94656085968018</v>
       </c>
       <c r="K95">
         <v>-12</v>
@@ -5735,7 +5735,7 @@
         <v>-6</v>
       </c>
       <c r="J96">
-        <v>19.10106325149536</v>
+        <v>52.57075786590576</v>
       </c>
       <c r="K96">
         <v>-12</v>
@@ -5776,7 +5776,7 @@
         <v>-6</v>
       </c>
       <c r="J97">
-        <v>18.73680186271667</v>
+        <v>48.45046806335449</v>
       </c>
       <c r="K97">
         <v>-12</v>
@@ -5817,7 +5817,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J98">
-        <v>18.70025014877319</v>
+        <v>45.93860411643982</v>
       </c>
       <c r="K98">
         <v>-11.99999999999999</v>
@@ -5858,7 +5858,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J99">
-        <v>18.67553687095642</v>
+        <v>44.71503591537476</v>
       </c>
       <c r="K99">
         <v>-12</v>
@@ -5899,7 +5899,7 @@
         <v>-6</v>
       </c>
       <c r="J100">
-        <v>18.69714379310608</v>
+        <v>56.16571497917175</v>
       </c>
       <c r="K100">
         <v>-12</v>
@@ -5940,7 +5940,7 @@
         <v>-6</v>
       </c>
       <c r="J101">
-        <v>18.83947110176086</v>
+        <v>50.88947796821594</v>
       </c>
       <c r="K101">
         <v>-12</v>
@@ -5981,7 +5981,7 @@
         <v>-2.999999984591934</v>
       </c>
       <c r="J102">
-        <v>19.06967496871948</v>
+        <v>44.20142889022827</v>
       </c>
       <c r="K102">
         <v>-8.999999984591934</v>
@@ -6022,7 +6022,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J103">
-        <v>18.92046213150024</v>
+        <v>43.50007700920105</v>
       </c>
       <c r="K103">
         <v>-12</v>
@@ -6063,7 +6063,7 @@
         <v>-2.999992125372115</v>
       </c>
       <c r="J104">
-        <v>18.78752303123474</v>
+        <v>51.18299579620361</v>
       </c>
       <c r="K104">
         <v>-8.999992125372115</v>
@@ -6104,7 +6104,7 @@
         <v>-3.000066440489572</v>
       </c>
       <c r="J105">
-        <v>18.86897611618042</v>
+        <v>54.73292016983032</v>
       </c>
       <c r="K105">
         <v>-9.000066440489572</v>
@@ -6145,7 +6145,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J106">
-        <v>20.31859397888184</v>
+        <v>44.86266708374023</v>
       </c>
       <c r="K106">
         <v>-11.99999999999999</v>
@@ -6186,7 +6186,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J107">
-        <v>18.8968300819397</v>
+        <v>45.36706519126892</v>
       </c>
       <c r="K107">
         <v>-12</v>
@@ -6227,7 +6227,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J108">
-        <v>19.30528426170349</v>
+        <v>47.31547021865845</v>
       </c>
       <c r="K108">
         <v>-12</v>
@@ -6268,7 +6268,7 @@
         <v>-6</v>
       </c>
       <c r="J109">
-        <v>19.21174311637878</v>
+        <v>68.73192095756531</v>
       </c>
       <c r="K109">
         <v>-12</v>
@@ -6309,7 +6309,7 @@
         <v>-6</v>
       </c>
       <c r="J110">
-        <v>19.29491710662842</v>
+        <v>55.2175669670105</v>
       </c>
       <c r="K110">
         <v>-12</v>
@@ -6350,7 +6350,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J111">
-        <v>19.32524704933167</v>
+        <v>61.96872186660767</v>
       </c>
       <c r="K111">
         <v>-12</v>
@@ -6391,7 +6391,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J112">
-        <v>18.77261304855347</v>
+        <v>49.03498125076294</v>
       </c>
       <c r="K112">
         <v>-12</v>
@@ -6432,7 +6432,7 @@
         <v>-6</v>
       </c>
       <c r="J113">
-        <v>19.02790999412537</v>
+        <v>69.3029317855835</v>
       </c>
       <c r="K113">
         <v>-12</v>
@@ -6473,7 +6473,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J114">
-        <v>19.29489612579346</v>
+        <v>66.22798204421997</v>
       </c>
       <c r="K114">
         <v>-12</v>
@@ -6514,7 +6514,7 @@
         <v>-3.391381419922572</v>
       </c>
       <c r="J115">
-        <v>19.15644121170044</v>
+        <v>50.77250099182129</v>
       </c>
       <c r="K115">
         <v>-9.391381419922572</v>
@@ -6555,7 +6555,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J116">
-        <v>19.05203485488892</v>
+        <v>69.34352588653564</v>
       </c>
       <c r="K116">
         <v>-12</v>
@@ -6596,7 +6596,7 @@
         <v>-6</v>
       </c>
       <c r="J117">
-        <v>19.35208582878113</v>
+        <v>51.46526074409485</v>
       </c>
       <c r="K117">
         <v>-12</v>
@@ -6637,7 +6637,7 @@
         <v>-6</v>
       </c>
       <c r="J118">
-        <v>19.09504103660583</v>
+        <v>53.46845531463623</v>
       </c>
       <c r="K118">
         <v>-12</v>
@@ -6678,7 +6678,7 @@
         <v>-6</v>
       </c>
       <c r="J119">
-        <v>18.61739921569824</v>
+        <v>53.26166915893555</v>
       </c>
       <c r="K119">
         <v>-12</v>
@@ -6719,7 +6719,7 @@
         <v>-1.99999967708545</v>
       </c>
       <c r="J120">
-        <v>19.15834903717041</v>
+        <v>52.3167507648468</v>
       </c>
       <c r="K120">
         <v>-7.99999967708545</v>
@@ -6760,7 +6760,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J121">
-        <v>17.77460289001465</v>
+        <v>45.65436697006226</v>
       </c>
       <c r="K121">
         <v>-12</v>
@@ -6801,7 +6801,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J122">
-        <v>19.84653806686401</v>
+        <v>52.1272828578949</v>
       </c>
       <c r="K122">
         <v>-12</v>
@@ -6842,7 +6842,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J123">
-        <v>19.46117568016052</v>
+        <v>45.49392795562744</v>
       </c>
       <c r="K123">
         <v>-12</v>
@@ -6883,7 +6883,7 @@
         <v>-6</v>
       </c>
       <c r="J124">
-        <v>19.24516201019287</v>
+        <v>49.02204513549805</v>
       </c>
       <c r="K124">
         <v>-12</v>
@@ -6924,7 +6924,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J125">
-        <v>19.87158226966858</v>
+        <v>44.41995024681091</v>
       </c>
       <c r="K125">
         <v>-11.99999999999999</v>
@@ -6965,7 +6965,7 @@
         <v>-6</v>
       </c>
       <c r="J126">
-        <v>19.12713122367859</v>
+        <v>51.27250003814697</v>
       </c>
       <c r="K126">
         <v>-12</v>
@@ -7006,7 +7006,7 @@
         <v>-2.999999841316617</v>
       </c>
       <c r="J127">
-        <v>18.90198087692261</v>
+        <v>46.07589793205261</v>
       </c>
       <c r="K127">
         <v>-8.999999841316617</v>
@@ -7047,7 +7047,7 @@
         <v>-1.99999185017989</v>
       </c>
       <c r="J128">
-        <v>18.8960599899292</v>
+        <v>43.89081692695618</v>
       </c>
       <c r="K128">
         <v>-7.999991850179891</v>
@@ -7088,7 +7088,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J129">
-        <v>19.15578603744507</v>
+        <v>48.23045611381531</v>
       </c>
       <c r="K129">
         <v>-12</v>
@@ -7129,7 +7129,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J130">
-        <v>18.96829295158386</v>
+        <v>51.40443396568298</v>
       </c>
       <c r="K130">
         <v>-12</v>
@@ -7170,7 +7170,7 @@
         <v>-6</v>
       </c>
       <c r="J131">
-        <v>19.08603405952454</v>
+        <v>41.36355304718018</v>
       </c>
       <c r="K131">
         <v>-12</v>
@@ -7211,7 +7211,7 @@
         <v>-6</v>
       </c>
       <c r="J132">
-        <v>19.10249614715576</v>
+        <v>65.92775106430054</v>
       </c>
       <c r="K132">
         <v>-12</v>
@@ -7252,7 +7252,7 @@
         <v>-2.999998388856262</v>
       </c>
       <c r="J133">
-        <v>19.14231824874878</v>
+        <v>83.48260712623596</v>
       </c>
       <c r="K133">
         <v>-8.999998388856262</v>
@@ -7293,7 +7293,7 @@
         <v>-6</v>
       </c>
       <c r="J134">
-        <v>18.93280005455017</v>
+        <v>74.77340006828308</v>
       </c>
       <c r="K134">
         <v>-12</v>
@@ -7334,7 +7334,7 @@
         <v>-6</v>
       </c>
       <c r="J135">
-        <v>19.14983987808228</v>
+        <v>82.959064245224</v>
       </c>
       <c r="K135">
         <v>-12</v>
@@ -7375,7 +7375,7 @@
         <v>-6</v>
       </c>
       <c r="J136">
-        <v>18.90551710128784</v>
+        <v>84.09391498565674</v>
       </c>
       <c r="K136">
         <v>-12</v>
@@ -7416,7 +7416,7 @@
         <v>-1.999995026223148</v>
       </c>
       <c r="J137">
-        <v>19.26591086387634</v>
+        <v>72.14459490776062</v>
       </c>
       <c r="K137">
         <v>-7.999995026223148</v>
@@ -7457,7 +7457,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J138">
-        <v>20.84300398826599</v>
+        <v>54.71394491195679</v>
       </c>
       <c r="K138">
         <v>-12</v>
@@ -7498,7 +7498,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J139">
-        <v>19.35442519187927</v>
+        <v>44.40170311927795</v>
       </c>
       <c r="K139">
         <v>-12</v>
@@ -7539,7 +7539,7 @@
         <v>-2.999999843313903</v>
       </c>
       <c r="J140">
-        <v>19.06763291358948</v>
+        <v>53.85792589187622</v>
       </c>
       <c r="K140">
         <v>-8.999999843313903</v>
@@ -7580,7 +7580,7 @@
         <v>-5.999999999993337</v>
       </c>
       <c r="J141">
-        <v>19.09425806999207</v>
+        <v>44.96080279350281</v>
       </c>
       <c r="K141">
         <v>-11.99999999999334</v>
@@ -7621,7 +7621,7 @@
         <v>-6</v>
       </c>
       <c r="J142">
-        <v>18.91468286514282</v>
+        <v>83.18655896186829</v>
       </c>
       <c r="K142">
         <v>-12</v>
@@ -7662,7 +7662,7 @@
         <v>-6</v>
       </c>
       <c r="J143">
-        <v>18.99271702766418</v>
+        <v>65.81936597824097</v>
       </c>
       <c r="K143">
         <v>-12</v>
@@ -7703,7 +7703,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J144">
-        <v>19.05675721168518</v>
+        <v>61.48229718208313</v>
       </c>
       <c r="K144">
         <v>-12</v>
@@ -7744,7 +7744,7 @@
         <v>-6</v>
       </c>
       <c r="J145">
-        <v>19.06596422195435</v>
+        <v>66.21839904785156</v>
       </c>
       <c r="K145">
         <v>-12</v>
@@ -7785,7 +7785,7 @@
         <v>-6</v>
       </c>
       <c r="J146">
-        <v>19.15483903884888</v>
+        <v>70.36299920082092</v>
       </c>
       <c r="K146">
         <v>-12</v>
@@ -7826,7 +7826,7 @@
         <v>-2.9999995533136</v>
       </c>
       <c r="J147">
-        <v>18.99068903923035</v>
+        <v>42.58958220481873</v>
       </c>
       <c r="K147">
         <v>-8.9999995533136</v>
@@ -7867,7 +7867,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J148">
-        <v>19.11321115493774</v>
+        <v>68.99324178695679</v>
       </c>
       <c r="K148">
         <v>-12</v>
@@ -7908,7 +7908,7 @@
         <v>-2.999999749807588</v>
       </c>
       <c r="J149">
-        <v>19.10913395881653</v>
+        <v>61.03411102294922</v>
       </c>
       <c r="K149">
         <v>-8.999999749807587</v>
@@ -7949,7 +7949,7 @@
         <v>-6</v>
       </c>
       <c r="J150">
-        <v>18.97143602371216</v>
+        <v>71.20101690292358</v>
       </c>
       <c r="K150">
         <v>-12</v>
@@ -7990,7 +7990,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J151">
-        <v>20.46345710754395</v>
+        <v>83.8396360874176</v>
       </c>
       <c r="K151">
         <v>-12</v>
@@ -8031,7 +8031,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J152">
-        <v>19.36213803291321</v>
+        <v>82.31596207618713</v>
       </c>
       <c r="K152">
         <v>-12</v>
@@ -8072,7 +8072,7 @@
         <v>-6</v>
       </c>
       <c r="J153">
-        <v>19.26151895523071</v>
+        <v>60.25175189971924</v>
       </c>
       <c r="K153">
         <v>-12</v>
@@ -8113,7 +8113,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J154">
-        <v>19.93042421340942</v>
+        <v>82.71786499023438</v>
       </c>
       <c r="K154">
         <v>-12</v>
@@ -8154,7 +8154,7 @@
         <v>-6</v>
       </c>
       <c r="J155">
-        <v>20.79513788223267</v>
+        <v>62.69465899467468</v>
       </c>
       <c r="K155">
         <v>-12</v>
@@ -8195,7 +8195,7 @@
         <v>-6</v>
       </c>
       <c r="J156">
-        <v>24.53855991363525</v>
+        <v>79.80786895751953</v>
       </c>
       <c r="K156">
         <v>-12</v>
@@ -8236,7 +8236,7 @@
         <v>-6</v>
       </c>
       <c r="J157">
-        <v>20.0249011516571</v>
+        <v>73.08520197868347</v>
       </c>
       <c r="K157">
         <v>-12</v>
@@ -8277,7 +8277,7 @@
         <v>-6</v>
       </c>
       <c r="J158">
-        <v>19.26893401145935</v>
+        <v>75.18704795837402</v>
       </c>
       <c r="K158">
         <v>-12</v>
@@ -8318,7 +8318,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J159">
-        <v>21.78825211524963</v>
+        <v>82.55102324485779</v>
       </c>
       <c r="K159">
         <v>-12</v>
@@ -8359,7 +8359,7 @@
         <v>-6</v>
       </c>
       <c r="J160">
-        <v>21.56086993217468</v>
+        <v>66.05838704109192</v>
       </c>
       <c r="K160">
         <v>-12</v>
@@ -8400,7 +8400,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J161">
-        <v>19.13760805130005</v>
+        <v>73.02063989639282</v>
       </c>
       <c r="K161">
         <v>-12</v>
@@ -8441,7 +8441,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J162">
-        <v>19.2590708732605</v>
+        <v>75.93871808052063</v>
       </c>
       <c r="K162">
         <v>-12</v>
@@ -8482,7 +8482,7 @@
         <v>-2.999998556900187</v>
       </c>
       <c r="J163">
-        <v>19.14827084541321</v>
+        <v>81.44490480422974</v>
       </c>
       <c r="K163">
         <v>-8.999998556900188</v>
@@ -8523,7 +8523,7 @@
         <v>-6</v>
       </c>
       <c r="J164">
-        <v>20.71200394630432</v>
+        <v>81.68896007537842</v>
       </c>
       <c r="K164">
         <v>-12</v>
@@ -8564,7 +8564,7 @@
         <v>-6</v>
       </c>
       <c r="J165">
-        <v>18.89710521697998</v>
+        <v>78.36719512939453</v>
       </c>
       <c r="K165">
         <v>-12</v>
@@ -8605,7 +8605,7 @@
         <v>-2.99999999063307</v>
       </c>
       <c r="J166">
-        <v>19.15758085250854</v>
+        <v>79.06769108772278</v>
       </c>
       <c r="K166">
         <v>-8.99999999063307</v>
@@ -8646,7 +8646,7 @@
         <v>-2.999999467326608</v>
       </c>
       <c r="J167">
-        <v>18.75872015953064</v>
+        <v>81.18346285820007</v>
       </c>
       <c r="K167">
         <v>-8.999999467326608</v>
@@ -8687,7 +8687,7 @@
         <v>-6</v>
       </c>
       <c r="J168">
-        <v>18.85483908653259</v>
+        <v>77.9730441570282</v>
       </c>
       <c r="K168">
         <v>-12</v>
@@ -8728,7 +8728,7 @@
         <v>-6</v>
       </c>
       <c r="J169">
-        <v>19.67168498039246</v>
+        <v>74.7763671875</v>
       </c>
       <c r="K169">
         <v>-12</v>
@@ -8769,7 +8769,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J170">
-        <v>19.02713394165039</v>
+        <v>77.77188682556152</v>
       </c>
       <c r="K170">
         <v>-12</v>
@@ -8810,7 +8810,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J171">
-        <v>19.00102233886719</v>
+        <v>81.79059028625488</v>
       </c>
       <c r="K171">
         <v>-12</v>
@@ -8851,7 +8851,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J172">
-        <v>19.04039001464844</v>
+        <v>75.11934185028076</v>
       </c>
       <c r="K172">
         <v>-12</v>
@@ -8892,7 +8892,7 @@
         <v>-6</v>
       </c>
       <c r="J173">
-        <v>19.36766219139099</v>
+        <v>75.76590991020203</v>
       </c>
       <c r="K173">
         <v>-12</v>
@@ -8933,7 +8933,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J174">
-        <v>19.28806900978088</v>
+        <v>69.34403085708618</v>
       </c>
       <c r="K174">
         <v>-12</v>
@@ -8974,7 +8974,7 @@
         <v>-1.99999829864625</v>
       </c>
       <c r="J175">
-        <v>19.24412798881531</v>
+        <v>87.15644121170044</v>
       </c>
       <c r="K175">
         <v>-7.99999829864625</v>
@@ -9015,7 +9015,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J176">
-        <v>18.90407204627991</v>
+        <v>79.78994727134705</v>
       </c>
       <c r="K176">
         <v>-12</v>
@@ -9056,7 +9056,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J177">
-        <v>18.88960266113281</v>
+        <v>84.61226511001587</v>
       </c>
       <c r="K177">
         <v>-12</v>
@@ -9097,7 +9097,7 @@
         <v>-6</v>
       </c>
       <c r="J178">
-        <v>18.98755788803101</v>
+        <v>84.4396059513092</v>
       </c>
       <c r="K178">
         <v>-12</v>
@@ -9138,7 +9138,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J179">
-        <v>18.89230108261108</v>
+        <v>80.95754599571228</v>
       </c>
       <c r="K179">
         <v>-12</v>
@@ -9179,7 +9179,7 @@
         <v>-6</v>
       </c>
       <c r="J180">
-        <v>19.00579810142517</v>
+        <v>75.59129977226257</v>
       </c>
       <c r="K180">
         <v>-12</v>
@@ -9220,7 +9220,7 @@
         <v>-6</v>
       </c>
       <c r="J181">
-        <v>20.74347901344299</v>
+        <v>71.3656530380249</v>
       </c>
       <c r="K181">
         <v>-12</v>
@@ -9261,7 +9261,7 @@
         <v>-6</v>
       </c>
       <c r="J182">
-        <v>20.07114481925964</v>
+        <v>84.954176902771</v>
       </c>
       <c r="K182">
         <v>-12</v>
@@ -9302,7 +9302,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J183">
-        <v>19.15972924232483</v>
+        <v>83.03328371047974</v>
       </c>
       <c r="K183">
         <v>-12</v>
@@ -9343,7 +9343,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J184">
-        <v>18.98362016677856</v>
+        <v>84.4834349155426</v>
       </c>
       <c r="K184">
         <v>-12</v>
@@ -9384,7 +9384,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J185">
-        <v>19.03504705429077</v>
+        <v>82.11102390289307</v>
       </c>
       <c r="K185">
         <v>-12</v>
@@ -9425,7 +9425,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J186">
-        <v>19.39180994033813</v>
+        <v>82.40821719169617</v>
       </c>
       <c r="K186">
         <v>-11.99999999999999</v>
@@ -9466,7 +9466,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J187">
-        <v>19.09885692596436</v>
+        <v>77.9193902015686</v>
       </c>
       <c r="K187">
         <v>-12</v>
@@ -9507,7 +9507,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J188">
-        <v>18.38309979438782</v>
+        <v>76.11080598831177</v>
       </c>
       <c r="K188">
         <v>-11.99999999999999</v>
@@ -9548,7 +9548,7 @@
         <v>-6</v>
       </c>
       <c r="J189">
-        <v>18.34916305541992</v>
+        <v>77.50000190734863</v>
       </c>
       <c r="K189">
         <v>-12</v>
@@ -9589,7 +9589,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J190">
-        <v>19.03667116165161</v>
+        <v>80.36858892440796</v>
       </c>
       <c r="K190">
         <v>-12</v>
@@ -9630,7 +9630,7 @@
         <v>-6</v>
       </c>
       <c r="J191">
-        <v>20.13838005065918</v>
+        <v>77.86714100837708</v>
       </c>
       <c r="K191">
         <v>-12</v>
@@ -9671,7 +9671,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J192">
-        <v>20.19584918022156</v>
+        <v>76.4452338218689</v>
       </c>
       <c r="K192">
         <v>-12</v>
@@ -9712,7 +9712,7 @@
         <v>-6</v>
       </c>
       <c r="J193">
-        <v>19.55245018005371</v>
+        <v>81.04998397827148</v>
       </c>
       <c r="K193">
         <v>-12</v>
@@ -9753,7 +9753,7 @@
         <v>-1.999998799972079</v>
       </c>
       <c r="J194">
-        <v>19.24923992156982</v>
+        <v>75.9216902256012</v>
       </c>
       <c r="K194">
         <v>-7.999998799972079</v>
@@ -9794,7 +9794,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J195">
-        <v>19.19589996337891</v>
+        <v>81.83487725257874</v>
       </c>
       <c r="K195">
         <v>-11.99999999999999</v>
@@ -9835,7 +9835,7 @@
         <v>-6</v>
       </c>
       <c r="J196">
-        <v>19.27680325508118</v>
+        <v>79.77906799316406</v>
       </c>
       <c r="K196">
         <v>-12</v>
@@ -9876,7 +9876,7 @@
         <v>-6</v>
       </c>
       <c r="J197">
-        <v>19.43221497535706</v>
+        <v>86.31273102760315</v>
       </c>
       <c r="K197">
         <v>-12</v>
@@ -9917,7 +9917,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J198">
-        <v>20.88581395149231</v>
+        <v>85.07463479042053</v>
       </c>
       <c r="K198">
         <v>-12</v>
@@ -9958,7 +9958,7 @@
         <v>-6</v>
       </c>
       <c r="J199">
-        <v>19.00890207290649</v>
+        <v>87.38889694213867</v>
       </c>
       <c r="K199">
         <v>-12</v>
@@ -9999,7 +9999,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J200">
-        <v>18.82052898406982</v>
+        <v>88.0090651512146</v>
       </c>
       <c r="K200">
         <v>-11.99999999999999</v>
@@ -10040,7 +10040,7 @@
         <v>-2.999999994977952</v>
       </c>
       <c r="J201">
-        <v>19.12846374511719</v>
+        <v>70.27586388587952</v>
       </c>
       <c r="K201">
         <v>-8.999999994977951</v>
@@ -10081,7 +10081,7 @@
         <v>-6</v>
       </c>
       <c r="J202">
-        <v>19.95283889770508</v>
+        <v>88.32715106010437</v>
       </c>
       <c r="K202">
         <v>-12</v>
@@ -10122,7 +10122,7 @@
         <v>-6</v>
       </c>
       <c r="J203">
-        <v>19.12790679931641</v>
+        <v>80.39958071708679</v>
       </c>
       <c r="K203">
         <v>-12</v>
@@ -10163,7 +10163,7 @@
         <v>-2.999999941867975</v>
       </c>
       <c r="J204">
-        <v>19.28999400138855</v>
+        <v>76.91025924682617</v>
       </c>
       <c r="K204">
         <v>-8.999999941867975</v>
@@ -10204,7 +10204,7 @@
         <v>-6</v>
       </c>
       <c r="J205">
-        <v>19.08470797538757</v>
+        <v>78.65861773490906</v>
       </c>
       <c r="K205">
         <v>-12</v>
@@ -10245,7 +10245,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J206">
-        <v>19.20636796951294</v>
+        <v>80.20418310165405</v>
       </c>
       <c r="K206">
         <v>-12</v>
@@ -10286,7 +10286,7 @@
         <v>-6</v>
       </c>
       <c r="J207">
-        <v>19.39733099937439</v>
+        <v>79.64575409889221</v>
       </c>
       <c r="K207">
         <v>-12</v>
@@ -10327,7 +10327,7 @@
         <v>-1.99999929500679</v>
       </c>
       <c r="J208">
-        <v>19.18701601028442</v>
+        <v>69.47825002670288</v>
       </c>
       <c r="K208">
         <v>-7.99999929500679</v>
@@ -10368,7 +10368,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J209">
-        <v>19.22160935401917</v>
+        <v>76.01193594932556</v>
       </c>
       <c r="K209">
         <v>-12</v>
@@ -10409,7 +10409,7 @@
         <v>-6</v>
       </c>
       <c r="J210">
-        <v>19.18193697929382</v>
+        <v>77.63971781730652</v>
       </c>
       <c r="K210">
         <v>-12</v>
@@ -10450,7 +10450,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J211">
-        <v>19.07358169555664</v>
+        <v>83.01906824111938</v>
       </c>
       <c r="K211">
         <v>-12</v>
@@ -10491,7 +10491,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J212">
-        <v>20.91300368309021</v>
+        <v>83.51055288314819</v>
       </c>
       <c r="K212">
         <v>-12</v>
@@ -10532,7 +10532,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J213">
-        <v>19.87928295135498</v>
+        <v>83.01711773872375</v>
       </c>
       <c r="K213">
         <v>-12</v>
@@ -10573,7 +10573,7 @@
         <v>-6</v>
       </c>
       <c r="J214">
-        <v>19.22874283790588</v>
+        <v>83.41692638397217</v>
       </c>
       <c r="K214">
         <v>-12</v>
@@ -10614,7 +10614,7 @@
         <v>-6</v>
       </c>
       <c r="J215">
-        <v>18.91060900688171</v>
+        <v>83.03340911865234</v>
       </c>
       <c r="K215">
         <v>-12</v>
@@ -10655,7 +10655,7 @@
         <v>-6</v>
       </c>
       <c r="J216">
-        <v>19.60431003570557</v>
+        <v>69.31462502479553</v>
       </c>
       <c r="K216">
         <v>-12</v>
@@ -10696,7 +10696,7 @@
         <v>-2.999999826603035</v>
       </c>
       <c r="J217">
-        <v>19.66272616386414</v>
+        <v>81.03621912002563</v>
       </c>
       <c r="K217">
         <v>-8.999999826603036</v>
@@ -10737,7 +10737,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J218">
-        <v>19.02755689620972</v>
+        <v>85.39315986633301</v>
       </c>
       <c r="K218">
         <v>-12</v>
@@ -10778,7 +10778,7 @@
         <v>-2.999999795512889</v>
       </c>
       <c r="J219">
-        <v>19.13872909545898</v>
+        <v>76.04190826416016</v>
       </c>
       <c r="K219">
         <v>-8.999999795512888</v>
@@ -10819,7 +10819,7 @@
         <v>-6</v>
       </c>
       <c r="J220">
-        <v>19.17764806747437</v>
+        <v>87.27770519256592</v>
       </c>
       <c r="K220">
         <v>-12</v>
@@ -10860,7 +10860,7 @@
         <v>-6</v>
       </c>
       <c r="J221">
-        <v>18.98414468765259</v>
+        <v>87.78715181350708</v>
       </c>
       <c r="K221">
         <v>-12</v>
@@ -10901,7 +10901,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J222">
-        <v>18.97737121582031</v>
+        <v>71.97819590568542</v>
       </c>
       <c r="K222">
         <v>-12</v>
@@ -10942,7 +10942,7 @@
         <v>-1.99999881487011</v>
       </c>
       <c r="J223">
-        <v>20.02031993865967</v>
+        <v>81.02605700492859</v>
       </c>
       <c r="K223">
         <v>-7.99999881487011</v>
@@ -10983,7 +10983,7 @@
         <v>-6</v>
       </c>
       <c r="J224">
-        <v>20.36349368095398</v>
+        <v>87.34215569496155</v>
       </c>
       <c r="K224">
         <v>-12</v>
@@ -11024,7 +11024,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J225">
-        <v>19.96391892433167</v>
+        <v>83.35547995567322</v>
       </c>
       <c r="K225">
         <v>-12</v>
@@ -11065,7 +11065,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J226">
-        <v>19.37492036819458</v>
+        <v>76.35120701789856</v>
       </c>
       <c r="K226">
         <v>-12</v>
@@ -11106,7 +11106,7 @@
         <v>-6</v>
       </c>
       <c r="J227">
-        <v>19.84513783454895</v>
+        <v>68.79639768600464</v>
       </c>
       <c r="K227">
         <v>-12</v>
@@ -11147,7 +11147,7 @@
         <v>-2.999999833192598</v>
       </c>
       <c r="J228">
-        <v>19.83955597877502</v>
+        <v>65.29841208457947</v>
       </c>
       <c r="K228">
         <v>-8.999999833192598</v>
@@ -11188,7 +11188,7 @@
         <v>-6</v>
       </c>
       <c r="J229">
-        <v>19.31013083457947</v>
+        <v>57.81685209274292</v>
       </c>
       <c r="K229">
         <v>-12</v>
@@ -11229,7 +11229,7 @@
         <v>-1.999999841042392</v>
       </c>
       <c r="J230">
-        <v>19.85545802116394</v>
+        <v>62.19370198249817</v>
       </c>
       <c r="K230">
         <v>-7.999999841042392</v>
@@ -11270,7 +11270,7 @@
         <v>-6</v>
       </c>
       <c r="J231">
-        <v>19.53111386299133</v>
+        <v>59.34869194030762</v>
       </c>
       <c r="K231">
         <v>-12</v>
@@ -11311,7 +11311,7 @@
         <v>-1.999997728262755</v>
       </c>
       <c r="J232">
-        <v>19.05808901786804</v>
+        <v>57.06339478492737</v>
       </c>
       <c r="K232">
         <v>-7.999997728262755</v>
@@ -11352,7 +11352,7 @@
         <v>-6</v>
       </c>
       <c r="J233">
-        <v>19.19752287864685</v>
+        <v>44.14859008789062</v>
       </c>
       <c r="K233">
         <v>-12</v>
@@ -11393,7 +11393,7 @@
         <v>-6</v>
       </c>
       <c r="J234">
-        <v>19.14002704620361</v>
+        <v>51.4159779548645</v>
       </c>
       <c r="K234">
         <v>-12</v>
@@ -11434,7 +11434,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J235">
-        <v>18.87041902542114</v>
+        <v>72.74873185157776</v>
       </c>
       <c r="K235">
         <v>-12</v>
@@ -11475,7 +11475,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J236">
-        <v>19.51598501205444</v>
+        <v>73.11561489105225</v>
       </c>
       <c r="K236">
         <v>-12</v>
@@ -11516,7 +11516,7 @@
         <v>-6</v>
       </c>
       <c r="J237">
-        <v>19.13057589530945</v>
+        <v>77.42357516288757</v>
       </c>
       <c r="K237">
         <v>-12</v>
@@ -11557,7 +11557,7 @@
         <v>-6</v>
       </c>
       <c r="J238">
-        <v>19.13382911682129</v>
+        <v>71.23966717720032</v>
       </c>
       <c r="K238">
         <v>-12</v>
@@ -11598,7 +11598,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J239">
-        <v>19.02666687965393</v>
+        <v>73.1675488948822</v>
       </c>
       <c r="K239">
         <v>-12</v>
@@ -11639,7 +11639,7 @@
         <v>-2.999998680923542</v>
       </c>
       <c r="J240">
-        <v>19.9863338470459</v>
+        <v>58.15211987495422</v>
       </c>
       <c r="K240">
         <v>-8.999998680923543</v>
@@ -11680,7 +11680,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J241">
-        <v>19.02513909339905</v>
+        <v>52.83248996734619</v>
       </c>
       <c r="K241">
         <v>-12</v>
@@ -11721,7 +11721,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J242">
-        <v>17.60689091682434</v>
+        <v>68.4671790599823</v>
       </c>
       <c r="K242">
         <v>-12</v>
@@ -11762,7 +11762,7 @@
         <v>-6</v>
       </c>
       <c r="J243">
-        <v>19.27051377296448</v>
+        <v>80.11601686477661</v>
       </c>
       <c r="K243">
         <v>-12</v>
@@ -11803,7 +11803,7 @@
         <v>-6</v>
       </c>
       <c r="J244">
-        <v>19.22294998168945</v>
+        <v>82.19683313369751</v>
       </c>
       <c r="K244">
         <v>-12</v>
@@ -11844,7 +11844,7 @@
         <v>-6</v>
       </c>
       <c r="J245">
-        <v>19.1632080078125</v>
+        <v>75.41873097419739</v>
       </c>
       <c r="K245">
         <v>-12</v>
@@ -11885,7 +11885,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J246">
-        <v>19.31949520111084</v>
+        <v>81.45128965377808</v>
       </c>
       <c r="K246">
         <v>-12</v>
@@ -11926,7 +11926,7 @@
         <v>-2.999999480073905</v>
       </c>
       <c r="J247">
-        <v>19.30998706817627</v>
+        <v>68.38673901557922</v>
       </c>
       <c r="K247">
         <v>-8.999999480073905</v>
@@ -11967,7 +11967,7 @@
         <v>-6</v>
       </c>
       <c r="J248">
-        <v>20.3574161529541</v>
+        <v>80.6007969379425</v>
       </c>
       <c r="K248">
         <v>-12</v>
@@ -12008,7 +12008,7 @@
         <v>-2.999999848642817</v>
       </c>
       <c r="J249">
-        <v>20.28231406211853</v>
+        <v>61.77971816062927</v>
       </c>
       <c r="K249">
         <v>-8.999999848642817</v>
@@ -12049,7 +12049,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J250">
-        <v>20.60984301567078</v>
+        <v>79.66076397895813</v>
       </c>
       <c r="K250">
         <v>-12</v>
@@ -12090,7 +12090,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J251">
-        <v>20.31178116798401</v>
+        <v>78.69762086868286</v>
       </c>
       <c r="K251">
         <v>-12</v>
@@ -12131,7 +12131,7 @@
         <v>-6</v>
       </c>
       <c r="J252">
-        <v>20.08621597290039</v>
+        <v>57.99481415748596</v>
       </c>
       <c r="K252">
         <v>-12</v>
@@ -12172,7 +12172,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J253">
-        <v>19.3211567401886</v>
+        <v>61.94957280158997</v>
       </c>
       <c r="K253">
         <v>-12</v>
@@ -12213,7 +12213,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J254">
-        <v>20.58573412895203</v>
+        <v>81.70183706283569</v>
       </c>
       <c r="K254">
         <v>-12</v>
@@ -12254,7 +12254,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J255">
-        <v>22.20040583610535</v>
+        <v>79.08299517631531</v>
       </c>
       <c r="K255">
         <v>-12</v>
@@ -12295,7 +12295,7 @@
         <v>-6</v>
       </c>
       <c r="J256">
-        <v>20.31114816665649</v>
+        <v>64.09423398971558</v>
       </c>
       <c r="K256">
         <v>-12</v>
@@ -12336,7 +12336,7 @@
         <v>-2.999999475298848</v>
       </c>
       <c r="J257">
-        <v>20.00742292404175</v>
+        <v>82.16584515571594</v>
       </c>
       <c r="K257">
         <v>-8.999999475298848</v>
@@ -12377,7 +12377,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J258">
-        <v>20.01892828941345</v>
+        <v>78.24461388587952</v>
       </c>
       <c r="K258">
         <v>-12</v>
@@ -12418,7 +12418,7 @@
         <v>-6</v>
       </c>
       <c r="J259">
-        <v>19.77037692070007</v>
+        <v>78.71574997901917</v>
       </c>
       <c r="K259">
         <v>-12</v>
@@ -12459,7 +12459,7 @@
         <v>-2.999995595705688</v>
       </c>
       <c r="J260">
-        <v>19.85185408592224</v>
+        <v>78.60187196731567</v>
       </c>
       <c r="K260">
         <v>-8.999995595705688</v>
@@ -12500,7 +12500,7 @@
         <v>-1.999999923114259</v>
       </c>
       <c r="J261">
-        <v>19.78915309906006</v>
+        <v>66.42587518692017</v>
       </c>
       <c r="K261">
         <v>-7.999999923114259</v>
@@ -12541,7 +12541,7 @@
         <v>-6</v>
       </c>
       <c r="J262">
-        <v>20.06122803688049</v>
+        <v>82.24884295463562</v>
       </c>
       <c r="K262">
         <v>-12</v>
@@ -12582,7 +12582,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J263">
-        <v>19.01746082305908</v>
+        <v>81.88182306289673</v>
       </c>
       <c r="K263">
         <v>-12</v>
@@ -12623,7 +12623,7 @@
         <v>-6</v>
       </c>
       <c r="J264">
-        <v>19.82234907150269</v>
+        <v>69.7261700630188</v>
       </c>
       <c r="K264">
         <v>-12</v>
@@ -12664,7 +12664,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J265">
-        <v>19.71274280548096</v>
+        <v>74.44917106628418</v>
       </c>
       <c r="K265">
         <v>-12</v>
@@ -12705,7 +12705,7 @@
         <v>-6</v>
       </c>
       <c r="J266">
-        <v>19.23186492919922</v>
+        <v>74.48706316947937</v>
       </c>
       <c r="K266">
         <v>-12</v>
@@ -12746,7 +12746,7 @@
         <v>-6</v>
       </c>
       <c r="J267">
-        <v>19.48422503471375</v>
+        <v>84.33342480659485</v>
       </c>
       <c r="K267">
         <v>-12</v>
@@ -12787,7 +12787,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J268">
-        <v>19.29747414588928</v>
+        <v>72.39661002159119</v>
       </c>
       <c r="K268">
         <v>-11.99999999999999</v>
@@ -12828,7 +12828,7 @@
         <v>-6</v>
       </c>
       <c r="J269">
-        <v>19.29034805297852</v>
+        <v>77.04263615608215</v>
       </c>
       <c r="K269">
         <v>-12</v>
@@ -12869,7 +12869,7 @@
         <v>-2.999999496780747</v>
       </c>
       <c r="J270">
-        <v>19.31993103027344</v>
+        <v>75.60852193832397</v>
       </c>
       <c r="K270">
         <v>-8.999999496780747</v>
@@ -12910,7 +12910,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J271">
-        <v>19.21420693397522</v>
+        <v>83.56361293792725</v>
       </c>
       <c r="K271">
         <v>-12</v>
@@ -12951,7 +12951,7 @@
         <v>-6</v>
       </c>
       <c r="J272">
-        <v>19.35040497779846</v>
+        <v>88.89942383766174</v>
       </c>
       <c r="K272">
         <v>-12</v>
@@ -12992,7 +12992,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J273">
-        <v>21.42796277999878</v>
+        <v>61.26374912261963</v>
       </c>
       <c r="K273">
         <v>-12</v>
@@ -13033,7 +13033,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J274">
-        <v>19.96048784255981</v>
+        <v>60.14863395690918</v>
       </c>
       <c r="K274">
         <v>-12</v>
@@ -13074,7 +13074,7 @@
         <v>-2.99999984880685</v>
       </c>
       <c r="J275">
-        <v>19.11515498161316</v>
+        <v>58.26994204521179</v>
       </c>
       <c r="K275">
         <v>-8.99999984880685</v>
@@ -13115,7 +13115,7 @@
         <v>-6</v>
       </c>
       <c r="J276">
-        <v>19.17026996612549</v>
+        <v>62.04593205451965</v>
       </c>
       <c r="K276">
         <v>-12</v>
@@ -13156,7 +13156,7 @@
         <v>-5.999999923394114</v>
       </c>
       <c r="J277">
-        <v>19.62616801261902</v>
+        <v>57.9310519695282</v>
       </c>
       <c r="K277">
         <v>-11.99999992339411</v>
@@ -13197,7 +13197,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J278">
-        <v>19.67370796203613</v>
+        <v>64.50922322273254</v>
       </c>
       <c r="K278">
         <v>-11.99999999999999</v>
@@ -13238,7 +13238,7 @@
         <v>-2.99999988023094</v>
       </c>
       <c r="J279">
-        <v>19.45988202095032</v>
+        <v>62.80994296073914</v>
       </c>
       <c r="K279">
         <v>-8.99999988023094</v>
@@ -13279,7 +13279,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J280">
-        <v>19.22991895675659</v>
+        <v>58.23098206520081</v>
       </c>
       <c r="K280">
         <v>-12</v>
@@ -13320,7 +13320,7 @@
         <v>-6</v>
       </c>
       <c r="J281">
-        <v>21.24975800514221</v>
+        <v>65.69836211204529</v>
       </c>
       <c r="K281">
         <v>-12</v>
@@ -13361,7 +13361,7 @@
         <v>-2.999999710156062</v>
       </c>
       <c r="J282">
-        <v>19.33108425140381</v>
+        <v>64.36759281158447</v>
       </c>
       <c r="K282">
         <v>-8.999999710156061</v>
@@ -13402,7 +13402,7 @@
         <v>-6</v>
       </c>
       <c r="J283">
-        <v>18.98573303222656</v>
+        <v>63.32474493980408</v>
       </c>
       <c r="K283">
         <v>-12</v>
@@ -13443,7 +13443,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J284">
-        <v>24.214430809021</v>
+        <v>64.32172203063965</v>
       </c>
       <c r="K284">
         <v>-12</v>
@@ -13484,7 +13484,7 @@
         <v>-2.999999404336666</v>
       </c>
       <c r="J285">
-        <v>22.49087715148926</v>
+        <v>64.35902810096741</v>
       </c>
       <c r="K285">
         <v>-8.999999404336666</v>
@@ -13525,7 +13525,7 @@
         <v>-6</v>
       </c>
       <c r="J286">
-        <v>20.11386799812317</v>
+        <v>63.71918511390686</v>
       </c>
       <c r="K286">
         <v>-12</v>
@@ -13566,7 +13566,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J287">
-        <v>22.3525128364563</v>
+        <v>64.21953511238098</v>
       </c>
       <c r="K287">
         <v>-12</v>
@@ -13607,7 +13607,7 @@
         <v>-6</v>
       </c>
       <c r="J288">
-        <v>19.45118975639343</v>
+        <v>64.23642635345459</v>
       </c>
       <c r="K288">
         <v>-12</v>
@@ -13648,7 +13648,7 @@
         <v>-6</v>
       </c>
       <c r="J289">
-        <v>19.03941988945007</v>
+        <v>55.42164182662964</v>
       </c>
       <c r="K289">
         <v>-12</v>
@@ -13689,7 +13689,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J290">
-        <v>20.25637316703796</v>
+        <v>64.21336698532104</v>
       </c>
       <c r="K290">
         <v>-12</v>
@@ -13730,7 +13730,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J291">
-        <v>20.02174091339111</v>
+        <v>65.17584705352783</v>
       </c>
       <c r="K291">
         <v>-12</v>
@@ -13771,7 +13771,7 @@
         <v>-2.999999994825235</v>
       </c>
       <c r="J292">
-        <v>19.92827701568604</v>
+        <v>64.40873718261719</v>
       </c>
       <c r="K292">
         <v>-8.999999994825234</v>
@@ -13812,7 +13812,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J293">
-        <v>19.52979397773743</v>
+        <v>64.86583280563354</v>
       </c>
       <c r="K293">
         <v>-12</v>
@@ -13853,7 +13853,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J294">
-        <v>19.30172085762024</v>
+        <v>63.61848115921021</v>
       </c>
       <c r="K294">
         <v>-12.00000000000001</v>
@@ -13894,7 +13894,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J295">
-        <v>18.93895506858826</v>
+        <v>64.39866185188293</v>
       </c>
       <c r="K295">
         <v>-12</v>
@@ -13935,7 +13935,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J296">
-        <v>20.09885907173157</v>
+        <v>61.49997496604919</v>
       </c>
       <c r="K296">
         <v>-11.99999999999999</v>
@@ -13976,7 +13976,7 @@
         <v>-6</v>
       </c>
       <c r="J297">
-        <v>20.34593510627747</v>
+        <v>64.05536890029907</v>
       </c>
       <c r="K297">
         <v>-12</v>
@@ -14017,7 +14017,7 @@
         <v>-6</v>
       </c>
       <c r="J298">
-        <v>19.62545704841614</v>
+        <v>63.39615106582642</v>
       </c>
       <c r="K298">
         <v>-12</v>
@@ -14058,7 +14058,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J299">
-        <v>18.87305998802185</v>
+        <v>62.21022391319275</v>
       </c>
       <c r="K299">
         <v>-12</v>
@@ -14099,7 +14099,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J300">
-        <v>19.57908320426941</v>
+        <v>64.33033299446106</v>
       </c>
       <c r="K300">
         <v>-12</v>
@@ -14140,7 +14140,7 @@
         <v>-2.999999724474535</v>
       </c>
       <c r="J301">
-        <v>19.12558889389038</v>
+        <v>64.18435478210449</v>
       </c>
       <c r="K301">
         <v>-8.999999724474534</v>
@@ -14181,7 +14181,7 @@
         <v>-1.999999889544621</v>
       </c>
       <c r="J302">
-        <v>19.0580358505249</v>
+        <v>57.51599311828613</v>
       </c>
       <c r="K302">
         <v>-7.999999889544621</v>
@@ -14222,7 +14222,7 @@
         <v>-2.999999792109969</v>
       </c>
       <c r="J303">
-        <v>19.7286901473999</v>
+        <v>63.70627903938293</v>
       </c>
       <c r="K303">
         <v>-8.999999792109968</v>
@@ -14263,7 +14263,7 @@
         <v>-6</v>
       </c>
       <c r="J304">
-        <v>19.62327289581299</v>
+        <v>65.16167306900024</v>
       </c>
       <c r="K304">
         <v>-12</v>
@@ -14304,7 +14304,7 @@
         <v>-6</v>
       </c>
       <c r="J305">
-        <v>19.26839280128479</v>
+        <v>65.29158616065979</v>
       </c>
       <c r="K305">
         <v>-12</v>
@@ -14345,7 +14345,7 @@
         <v>-6</v>
       </c>
       <c r="J306">
-        <v>19.36365008354187</v>
+        <v>64.91065907478333</v>
       </c>
       <c r="K306">
         <v>-12</v>
@@ -14386,7 +14386,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J307">
-        <v>19.82594776153564</v>
+        <v>64.99637007713318</v>
       </c>
       <c r="K307">
         <v>-12</v>
@@ -14427,7 +14427,7 @@
         <v>-3.000007682126841</v>
       </c>
       <c r="J308">
-        <v>19.95354390144348</v>
+        <v>63.58235430717468</v>
       </c>
       <c r="K308">
         <v>-9.00000768212684</v>
@@ -14468,7 +14468,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J309">
-        <v>19.27895092964172</v>
+        <v>59.41924929618835</v>
       </c>
       <c r="K309">
         <v>-11.99999999999999</v>
@@ -14509,7 +14509,7 @@
         <v>-6</v>
       </c>
       <c r="J310">
-        <v>19.58898043632507</v>
+        <v>63.43583106994629</v>
       </c>
       <c r="K310">
         <v>-12</v>
@@ -14550,7 +14550,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J311">
-        <v>19.32578873634338</v>
+        <v>64.93053889274597</v>
       </c>
       <c r="K311">
         <v>-12</v>
@@ -14591,7 +14591,7 @@
         <v>-6</v>
       </c>
       <c r="J312">
-        <v>19.190190076828</v>
+        <v>64.65559768676758</v>
       </c>
       <c r="K312">
         <v>-12</v>
@@ -14632,7 +14632,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J313">
-        <v>19.12396311759949</v>
+        <v>61.53940916061401</v>
       </c>
       <c r="K313">
         <v>-12</v>
@@ -14673,7 +14673,7 @@
         <v>-6</v>
       </c>
       <c r="J314">
-        <v>18.98564600944519</v>
+        <v>63.95583605766296</v>
       </c>
       <c r="K314">
         <v>-12</v>
@@ -14714,7 +14714,7 @@
         <v>-6</v>
       </c>
       <c r="J315">
-        <v>19.93252801895142</v>
+        <v>63.91729617118835</v>
       </c>
       <c r="K315">
         <v>-12</v>
@@ -14755,7 +14755,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J316">
-        <v>19.25363492965698</v>
+        <v>64.39246487617493</v>
       </c>
       <c r="K316">
         <v>-12</v>
@@ -14796,7 +14796,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J317">
-        <v>19.31662201881409</v>
+        <v>63.79672312736511</v>
       </c>
       <c r="K317">
         <v>-11.99999999999999</v>
@@ -14837,7 +14837,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J318">
-        <v>19.29646992683411</v>
+        <v>61.44034004211426</v>
       </c>
       <c r="K318">
         <v>-12</v>
@@ -14878,7 +14878,7 @@
         <v>-6</v>
       </c>
       <c r="J319">
-        <v>19.07529616355896</v>
+        <v>62.55928897857666</v>
       </c>
       <c r="K319">
         <v>-12</v>
@@ -14919,7 +14919,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J320">
-        <v>19.19489812850952</v>
+        <v>64.82117104530334</v>
       </c>
       <c r="K320">
         <v>-12</v>
@@ -14960,7 +14960,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J321">
-        <v>20.2394380569458</v>
+        <v>64.92068099975586</v>
       </c>
       <c r="K321">
         <v>-11.99999999999999</v>
@@ -15001,7 +15001,7 @@
         <v>-6</v>
       </c>
       <c r="J322">
-        <v>19.98175525665283</v>
+        <v>63.82104301452637</v>
       </c>
       <c r="K322">
         <v>-12</v>
@@ -15042,7 +15042,7 @@
         <v>-2.999999860051736</v>
       </c>
       <c r="J323">
-        <v>19.22660303115845</v>
+        <v>59.71208119392395</v>
       </c>
       <c r="K323">
         <v>-8.999999860051737</v>
@@ -15083,7 +15083,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J324">
-        <v>19.18838405609131</v>
+        <v>64.38466811180115</v>
       </c>
       <c r="K324">
         <v>-12</v>
@@ -15124,7 +15124,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J325">
-        <v>18.99326705932617</v>
+        <v>60.79595184326172</v>
       </c>
       <c r="K325">
         <v>-12</v>
@@ -15165,7 +15165,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J326">
-        <v>19.54955077171326</v>
+        <v>63.63842916488647</v>
       </c>
       <c r="K326">
         <v>-11.99999999999999</v>
@@ -15206,7 +15206,7 @@
         <v>-6</v>
       </c>
       <c r="J327">
-        <v>19.35137414932251</v>
+        <v>63.43014931678772</v>
       </c>
       <c r="K327">
         <v>-12</v>
@@ -15247,7 +15247,7 @@
         <v>-2.999999864913069</v>
       </c>
       <c r="J328">
-        <v>19.55769085884094</v>
+        <v>63.84647583961487</v>
       </c>
       <c r="K328">
         <v>-8.999999864913068</v>
@@ -15288,7 +15288,7 @@
         <v>-6</v>
       </c>
       <c r="J329">
-        <v>21.55500102043152</v>
+        <v>60.97367906570435</v>
       </c>
       <c r="K329">
         <v>-12</v>
@@ -15329,7 +15329,7 @@
         <v>-1.999999336078427</v>
       </c>
       <c r="J330">
-        <v>19.24100923538208</v>
+        <v>62.90865588188171</v>
       </c>
       <c r="K330">
         <v>-7.999999336078427</v>
@@ -15370,7 +15370,7 @@
         <v>-2.999999991606038</v>
       </c>
       <c r="J331">
-        <v>19.10641002655029</v>
+        <v>63.42986702919006</v>
       </c>
       <c r="K331">
         <v>-8.999999991606039</v>
@@ -15411,7 +15411,7 @@
         <v>-1.999996125631003</v>
       </c>
       <c r="J332">
-        <v>19.67212319374084</v>
+        <v>64.05114912986755</v>
       </c>
       <c r="K332">
         <v>-7.999996125631003</v>
@@ -15452,7 +15452,7 @@
         <v>-6</v>
       </c>
       <c r="J333">
-        <v>19.86288690567017</v>
+        <v>63.01537203788757</v>
       </c>
       <c r="K333">
         <v>-12</v>
@@ -15493,7 +15493,7 @@
         <v>-6</v>
       </c>
       <c r="J334">
-        <v>21.27787518501282</v>
+        <v>63.26767897605896</v>
       </c>
       <c r="K334">
         <v>-12</v>
@@ -15534,7 +15534,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J335">
-        <v>19.35350179672241</v>
+        <v>60.98019027709961</v>
       </c>
       <c r="K335">
         <v>-12</v>
@@ -15575,7 +15575,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J336">
-        <v>19.68936085700989</v>
+        <v>64.57068800926208</v>
       </c>
       <c r="K336">
         <v>-12</v>
@@ -15616,7 +15616,7 @@
         <v>-2.999999993549358</v>
       </c>
       <c r="J337">
-        <v>19.56520509719849</v>
+        <v>63.65842199325562</v>
       </c>
       <c r="K337">
         <v>-8.999999993549357</v>
@@ -15657,7 +15657,7 @@
         <v>-6</v>
       </c>
       <c r="J338">
-        <v>19.35482406616211</v>
+        <v>63.9877827167511</v>
       </c>
       <c r="K338">
         <v>-12</v>
@@ -15698,7 +15698,7 @@
         <v>-6</v>
       </c>
       <c r="J339">
-        <v>18.92818403244019</v>
+        <v>63.20288610458374</v>
       </c>
       <c r="K339">
         <v>-12</v>
@@ -15739,7 +15739,7 @@
         <v>-6</v>
       </c>
       <c r="J340">
-        <v>22.17871308326721</v>
+        <v>64.37488007545471</v>
       </c>
       <c r="K340">
         <v>-12</v>
@@ -15780,7 +15780,7 @@
         <v>-2.999999961036545</v>
       </c>
       <c r="J341">
-        <v>19.6603729724884</v>
+        <v>60.82571077346802</v>
       </c>
       <c r="K341">
         <v>-8.999999961036545</v>
@@ -15821,7 +15821,7 @@
         <v>-6</v>
       </c>
       <c r="J342">
-        <v>19.40601396560669</v>
+        <v>57.74208998680115</v>
       </c>
       <c r="K342">
         <v>-12</v>
@@ -15862,7 +15862,7 @@
         <v>-6</v>
       </c>
       <c r="J343">
-        <v>19.34722304344177</v>
+        <v>64.58800411224365</v>
       </c>
       <c r="K343">
         <v>-12</v>
@@ -15903,7 +15903,7 @@
         <v>-6</v>
       </c>
       <c r="J344">
-        <v>19.44606304168701</v>
+        <v>59.65946793556213</v>
       </c>
       <c r="K344">
         <v>-12</v>
@@ -15944,7 +15944,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J345">
-        <v>19.33014917373657</v>
+        <v>64.55284786224365</v>
       </c>
       <c r="K345">
         <v>-12</v>
@@ -15985,7 +15985,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J346">
-        <v>19.3901219367981</v>
+        <v>63.90556192398071</v>
       </c>
       <c r="K346">
         <v>-12</v>
@@ -16026,7 +16026,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J347">
-        <v>19.25837063789368</v>
+        <v>64.26641893386841</v>
       </c>
       <c r="K347">
         <v>-12</v>
@@ -16067,7 +16067,7 @@
         <v>-6</v>
       </c>
       <c r="J348">
-        <v>19.612957239151</v>
+        <v>62.35760188102722</v>
       </c>
       <c r="K348">
         <v>-12</v>
@@ -16108,7 +16108,7 @@
         <v>-6</v>
       </c>
       <c r="J349">
-        <v>19.46313285827637</v>
+        <v>63.62316131591797</v>
       </c>
       <c r="K349">
         <v>-12</v>
@@ -16149,7 +16149,7 @@
         <v>-6</v>
       </c>
       <c r="J350">
-        <v>19.6347599029541</v>
+        <v>63.86784505844116</v>
       </c>
       <c r="K350">
         <v>-12</v>
@@ -16190,7 +16190,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J351">
-        <v>19.47547483444214</v>
+        <v>61.86875104904175</v>
       </c>
       <c r="K351">
         <v>-11.99999999999999</v>
@@ -16231,7 +16231,7 @@
         <v>-6</v>
       </c>
       <c r="J352">
-        <v>19.04471826553345</v>
+        <v>64.43146324157715</v>
       </c>
       <c r="K352">
         <v>-12</v>
@@ -16272,7 +16272,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J353">
-        <v>19.25812196731567</v>
+        <v>63.93466401100159</v>
       </c>
       <c r="K353">
         <v>-12</v>
@@ -16313,7 +16313,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J354">
-        <v>19.1348819732666</v>
+        <v>54.67219376564026</v>
       </c>
       <c r="K354">
         <v>-11.99999999999999</v>
@@ -16354,7 +16354,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J355">
-        <v>19.36346793174744</v>
+        <v>62.43595695495605</v>
       </c>
       <c r="K355">
         <v>-12</v>
@@ -16395,7 +16395,7 @@
         <v>-1.999999082487558</v>
       </c>
       <c r="J356">
-        <v>19.52599883079529</v>
+        <v>64.72028589248657</v>
       </c>
       <c r="K356">
         <v>-7.999999082487558</v>
@@ -16436,7 +16436,7 @@
         <v>-6</v>
       </c>
       <c r="J357">
-        <v>19.07676696777344</v>
+        <v>58.97320699691772</v>
       </c>
       <c r="K357">
         <v>-12</v>
@@ -16477,7 +16477,7 @@
         <v>-6</v>
       </c>
       <c r="J358">
-        <v>19.11049199104309</v>
+        <v>63.40013313293457</v>
       </c>
       <c r="K358">
         <v>-12</v>
@@ -16518,7 +16518,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J359">
-        <v>18.87612628936768</v>
+        <v>64.23808097839355</v>
       </c>
       <c r="K359">
         <v>-12</v>
@@ -16559,7 +16559,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J360">
-        <v>19.05653500556946</v>
+        <v>60.76390218734741</v>
       </c>
       <c r="K360">
         <v>-12</v>
@@ -16600,7 +16600,7 @@
         <v>-2.999999891301812</v>
       </c>
       <c r="J361">
-        <v>18.92385101318359</v>
+        <v>65.13610696792603</v>
       </c>
       <c r="K361">
         <v>-8.999999891301812</v>
@@ -16641,7 +16641,7 @@
         <v>-2.999999952645242</v>
       </c>
       <c r="J362">
-        <v>18.93520212173462</v>
+        <v>63.71222710609436</v>
       </c>
       <c r="K362">
         <v>-8.999999952645242</v>
@@ -16682,7 +16682,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J363">
-        <v>18.90903902053833</v>
+        <v>57.48887610435486</v>
       </c>
       <c r="K363">
         <v>-12</v>
@@ -16723,7 +16723,7 @@
         <v>-2.999999643813294</v>
       </c>
       <c r="J364">
-        <v>18.75537395477295</v>
+        <v>63.59264302253723</v>
       </c>
       <c r="K364">
         <v>-8.999999643813293</v>
@@ -16764,7 +16764,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J365">
-        <v>21.39024901390076</v>
+        <v>64.66770815849304</v>
       </c>
       <c r="K365">
         <v>-12</v>
@@ -16805,7 +16805,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J366">
-        <v>19.42218017578125</v>
+        <v>62.4702250957489</v>
       </c>
       <c r="K366">
         <v>-12</v>
@@ -16846,7 +16846,7 @@
         <v>-2.999999984106646</v>
       </c>
       <c r="J367">
-        <v>19.49482011795044</v>
+        <v>62.81893086433411</v>
       </c>
       <c r="K367">
         <v>-8.999999984106646</v>
@@ -16887,7 +16887,7 @@
         <v>-6</v>
       </c>
       <c r="J368">
-        <v>18.90997791290283</v>
+        <v>65.13122987747192</v>
       </c>
       <c r="K368">
         <v>-12</v>
@@ -16928,7 +16928,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J369">
-        <v>18.90619802474976</v>
+        <v>63.85562705993652</v>
       </c>
       <c r="K369">
         <v>-12</v>
@@ -16969,7 +16969,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J370">
-        <v>19.17901992797852</v>
+        <v>64.4077160358429</v>
       </c>
       <c r="K370">
         <v>-12</v>
@@ -17010,7 +17010,7 @@
         <v>-2.99999925262214</v>
       </c>
       <c r="J371">
-        <v>18.89583396911621</v>
+        <v>63.35992002487183</v>
       </c>
       <c r="K371">
         <v>-8.999999252622139</v>
@@ -17051,7 +17051,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J372">
-        <v>18.976726770401</v>
+        <v>64.3940417766571</v>
       </c>
       <c r="K372">
         <v>-12</v>
@@ -17092,7 +17092,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J373">
-        <v>19.61322069168091</v>
+        <v>63.64712619781494</v>
       </c>
       <c r="K373">
         <v>-12</v>
@@ -17133,7 +17133,7 @@
         <v>-2.999999411875167</v>
       </c>
       <c r="J374">
-        <v>19.05019092559814</v>
+        <v>60.26824617385864</v>
       </c>
       <c r="K374">
         <v>-8.999999411875168</v>
@@ -17174,7 +17174,7 @@
         <v>-2.999999952905812</v>
       </c>
       <c r="J375">
-        <v>19.11466598510742</v>
+        <v>64.40721201896667</v>
       </c>
       <c r="K375">
         <v>-8.999999952905812</v>
@@ -17215,7 +17215,7 @@
         <v>-6.000000000000001</v>
       </c>
       <c r="J376">
-        <v>18.8879280090332</v>
+        <v>63.64922332763672</v>
       </c>
       <c r="K376">
         <v>-12</v>
@@ -17256,7 +17256,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J377">
-        <v>19.93129205703735</v>
+        <v>64.05805802345276</v>
       </c>
       <c r="K377">
         <v>-12</v>
@@ -17297,7 +17297,7 @@
         <v>-6</v>
       </c>
       <c r="J378">
-        <v>20.0979220867157</v>
+        <v>58.39174222946167</v>
       </c>
       <c r="K378">
         <v>-12</v>
@@ -17338,7 +17338,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J379">
-        <v>20.08235788345337</v>
+        <v>64.35360479354858</v>
       </c>
       <c r="K379">
         <v>-11.99999999999999</v>
@@ -17379,7 +17379,7 @@
         <v>-6</v>
       </c>
       <c r="J380">
-        <v>19.15410375595093</v>
+        <v>63.61827206611633</v>
       </c>
       <c r="K380">
         <v>-12</v>
@@ -17420,7 +17420,7 @@
         <v>-2.99999999815317</v>
       </c>
       <c r="J381">
-        <v>20.51588988304138</v>
+        <v>62.65726089477539</v>
       </c>
       <c r="K381">
         <v>-8.99999999815317</v>
@@ -17461,7 +17461,7 @@
         <v>-6</v>
       </c>
       <c r="J382">
-        <v>19.58915114402771</v>
+        <v>64.04062700271606</v>
       </c>
       <c r="K382">
         <v>-12</v>
@@ -17502,7 +17502,7 @@
         <v>-2.999999828310259</v>
       </c>
       <c r="J383">
-        <v>18.97773599624634</v>
+        <v>64.15190386772156</v>
       </c>
       <c r="K383">
         <v>-8.999999828310258</v>
@@ -17543,7 +17543,7 @@
         <v>-2.999999973644099</v>
       </c>
       <c r="J384">
-        <v>18.99778723716736</v>
+        <v>64.34498810768127</v>
       </c>
       <c r="K384">
         <v>-8.999999973644098</v>
@@ -17584,7 +17584,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J385">
-        <v>20.07608985900879</v>
+        <v>61.60207080841064</v>
       </c>
       <c r="K385">
         <v>-12</v>
@@ -17625,7 +17625,7 @@
         <v>-6</v>
       </c>
       <c r="J386">
-        <v>19.20199799537659</v>
+        <v>64.6774480342865</v>
       </c>
       <c r="K386">
         <v>-12</v>
@@ -17666,7 +17666,7 @@
         <v>-2.999953205369736</v>
       </c>
       <c r="J387">
-        <v>18.94473600387573</v>
+        <v>63.93742203712463</v>
       </c>
       <c r="K387">
         <v>-8.999953205369735</v>
@@ -17707,7 +17707,7 @@
         <v>-2.999999755377569</v>
       </c>
       <c r="J388">
-        <v>19.3430609703064</v>
+        <v>61.85285091400146</v>
       </c>
       <c r="K388">
         <v>-8.999999755377569</v>
@@ -17748,7 +17748,7 @@
         <v>-1.999999618199547</v>
       </c>
       <c r="J389">
-        <v>19.25922179222107</v>
+        <v>64.35938405990601</v>
       </c>
       <c r="K389">
         <v>-7.999999618199547</v>
@@ -17789,7 +17789,7 @@
         <v>-5.999997781386968</v>
       </c>
       <c r="J390">
-        <v>18.9343569278717</v>
+        <v>64.37268614768982</v>
       </c>
       <c r="K390">
         <v>-11.99999778138697</v>
@@ -17830,7 +17830,7 @@
         <v>-2.999997896420731</v>
       </c>
       <c r="J391">
-        <v>18.84156894683838</v>
+        <v>61.45116186141968</v>
       </c>
       <c r="K391">
         <v>-8.99999789642073</v>
@@ -17871,7 +17871,7 @@
         <v>-1.999999370183619</v>
       </c>
       <c r="J392">
-        <v>18.9601788520813</v>
+        <v>63.75873112678528</v>
       </c>
       <c r="K392">
         <v>-7.999999370183619</v>
@@ -17912,7 +17912,7 @@
         <v>-6</v>
       </c>
       <c r="J393">
-        <v>18.97029590606689</v>
+        <v>64.62793183326721</v>
       </c>
       <c r="K393">
         <v>-12</v>
@@ -17953,7 +17953,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J394">
-        <v>18.69873690605164</v>
+        <v>63.76765394210815</v>
       </c>
       <c r="K394">
         <v>-12</v>
@@ -17994,7 +17994,7 @@
         <v>-6</v>
       </c>
       <c r="J395">
-        <v>19.14831495285034</v>
+        <v>64.615807056427</v>
       </c>
       <c r="K395">
         <v>-12</v>
@@ -18035,7 +18035,7 @@
         <v>-2.999999203701237</v>
       </c>
       <c r="J396">
-        <v>20.4491720199585</v>
+        <v>55.97180604934692</v>
       </c>
       <c r="K396">
         <v>-8.999999203701236</v>
@@ -18076,7 +18076,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J397">
-        <v>19.19201993942261</v>
+        <v>58.22847294807434</v>
       </c>
       <c r="K397">
         <v>-12</v>
@@ -18117,7 +18117,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J398">
-        <v>19.03549218177795</v>
+        <v>64.29308271408081</v>
       </c>
       <c r="K398">
         <v>-12</v>
@@ -18158,7 +18158,7 @@
         <v>-2.999976187473248</v>
       </c>
       <c r="J399">
-        <v>18.88199901580811</v>
+        <v>60.33244395256042</v>
       </c>
       <c r="K399">
         <v>-8.999976187473248</v>
@@ -18199,7 +18199,7 @@
         <v>-6</v>
       </c>
       <c r="J400">
-        <v>19.09790110588074</v>
+        <v>64.71779298782349</v>
       </c>
       <c r="K400">
         <v>-12</v>
@@ -18240,7 +18240,7 @@
         <v>-6</v>
       </c>
       <c r="J401">
-        <v>19.05668520927429</v>
+        <v>61.39982414245605</v>
       </c>
       <c r="K401">
         <v>-12</v>
@@ -18281,7 +18281,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J402">
-        <v>18.77751898765564</v>
+        <v>59.40937304496765</v>
       </c>
       <c r="K402">
         <v>-12</v>
@@ -18322,7 +18322,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J403">
-        <v>18.97455406188965</v>
+        <v>63.66687393188477</v>
       </c>
       <c r="K403">
         <v>-11.99999999999999</v>
@@ -18363,7 +18363,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J404">
-        <v>19.09630918502808</v>
+        <v>64.5469229221344</v>
       </c>
       <c r="K404">
         <v>-12</v>
@@ -18404,7 +18404,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J405">
-        <v>19.10889673233032</v>
+        <v>64.02668499946594</v>
       </c>
       <c r="K405">
         <v>-12</v>
@@ -18445,7 +18445,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J406">
-        <v>18.89446187019348</v>
+        <v>64.75369000434875</v>
       </c>
       <c r="K406">
         <v>-12</v>
@@ -18486,7 +18486,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J407">
-        <v>18.96327614784241</v>
+        <v>57.37495613098145</v>
       </c>
       <c r="K407">
         <v>-12.00000000000001</v>
@@ -18527,7 +18527,7 @@
         <v>-2.99999996853543</v>
       </c>
       <c r="J408">
-        <v>18.94732785224915</v>
+        <v>64.04243302345276</v>
       </c>
       <c r="K408">
         <v>-8.99999996853543</v>
@@ -18568,7 +18568,7 @@
         <v>-6</v>
       </c>
       <c r="J409">
-        <v>17.75013875961304</v>
+        <v>64.495934009552</v>
       </c>
       <c r="K409">
         <v>-12</v>
@@ -18609,7 +18609,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J410">
-        <v>17.44834780693054</v>
+        <v>62.0168559551239</v>
       </c>
       <c r="K410">
         <v>-12</v>
@@ -18650,7 +18650,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J411">
-        <v>17.60703420639038</v>
+        <v>65.07602000236511</v>
       </c>
       <c r="K411">
         <v>-12</v>
@@ -18691,7 +18691,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J412">
-        <v>17.47566485404968</v>
+        <v>62.56756711006165</v>
       </c>
       <c r="K412">
         <v>-12</v>
@@ -18732,7 +18732,7 @@
         <v>-6</v>
       </c>
       <c r="J413">
-        <v>17.54443120956421</v>
+        <v>58.67487978935242</v>
       </c>
       <c r="K413">
         <v>-12</v>
@@ -18773,7 +18773,7 @@
         <v>-6</v>
       </c>
       <c r="J414">
-        <v>18.98362302780151</v>
+        <v>63.50138187408447</v>
       </c>
       <c r="K414">
         <v>-12</v>
@@ -18814,7 +18814,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J415">
-        <v>18.81922101974487</v>
+        <v>64.17670202255249</v>
       </c>
       <c r="K415">
         <v>-12</v>
@@ -18855,7 +18855,7 @@
         <v>-6</v>
       </c>
       <c r="J416">
-        <v>18.87971115112305</v>
+        <v>61.55324697494507</v>
       </c>
       <c r="K416">
         <v>-12</v>
@@ -18896,7 +18896,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J417">
-        <v>18.95736002922058</v>
+        <v>63.9802520275116</v>
       </c>
       <c r="K417">
         <v>-12</v>
@@ -18937,7 +18937,7 @@
         <v>-6</v>
       </c>
       <c r="J418">
-        <v>18.87244606018066</v>
+        <v>64.96302795410156</v>
       </c>
       <c r="K418">
         <v>-12</v>
@@ -18978,7 +18978,7 @@
         <v>-1.999999852415048</v>
       </c>
       <c r="J419">
-        <v>18.75716495513916</v>
+        <v>63.12521696090698</v>
       </c>
       <c r="K419">
         <v>-7.999999852415048</v>
@@ -19019,7 +19019,7 @@
         <v>-2.999999828353112</v>
       </c>
       <c r="J420">
-        <v>18.88159584999084</v>
+        <v>62.63038301467896</v>
       </c>
       <c r="K420">
         <v>-8.999999828353111</v>
@@ -19060,7 +19060,7 @@
         <v>-2.999999864538048</v>
       </c>
       <c r="J421">
-        <v>18.94678902626038</v>
+        <v>63.86565494537354</v>
       </c>
       <c r="K421">
         <v>-8.999999864538047</v>
@@ -19101,7 +19101,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J422">
-        <v>18.87986207008362</v>
+        <v>57.89113783836365</v>
       </c>
       <c r="K422">
         <v>-12</v>
@@ -19142,7 +19142,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J423">
-        <v>18.78474020957947</v>
+        <v>64.17560911178589</v>
       </c>
       <c r="K423">
         <v>-12</v>
@@ -19183,7 +19183,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J424">
-        <v>18.79544377326965</v>
+        <v>63.44308924674988</v>
       </c>
       <c r="K424">
         <v>-12</v>
@@ -19224,7 +19224,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J425">
-        <v>19.02128100395203</v>
+        <v>64.69918584823608</v>
       </c>
       <c r="K425">
         <v>-12</v>
@@ -19265,7 +19265,7 @@
         <v>-6</v>
       </c>
       <c r="J426">
-        <v>18.87280988693237</v>
+        <v>61.81902527809143</v>
       </c>
       <c r="K426">
         <v>-12</v>
@@ -19306,7 +19306,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J427">
-        <v>19.65364503860474</v>
+        <v>64.73424291610718</v>
       </c>
       <c r="K427">
         <v>-12</v>
@@ -19347,7 +19347,7 @@
         <v>-2.99999999564805</v>
       </c>
       <c r="J428">
-        <v>19.68088698387146</v>
+        <v>61.59856510162354</v>
       </c>
       <c r="K428">
         <v>-8.99999999564805</v>
@@ -19388,7 +19388,7 @@
         <v>-6</v>
       </c>
       <c r="J429">
-        <v>19.40278768539429</v>
+        <v>64.43058204650879</v>
       </c>
       <c r="K429">
         <v>-12</v>
@@ -19429,7 +19429,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J430">
-        <v>18.79019021987915</v>
+        <v>57.38616418838501</v>
       </c>
       <c r="K430">
         <v>-12</v>
@@ -19470,7 +19470,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J431">
-        <v>19.84072399139404</v>
+        <v>64.09868216514587</v>
       </c>
       <c r="K431">
         <v>-12</v>
@@ -19511,7 +19511,7 @@
         <v>-6</v>
       </c>
       <c r="J432">
-        <v>20.15052103996277</v>
+        <v>64.66309213638306</v>
       </c>
       <c r="K432">
         <v>-12</v>
@@ -19552,7 +19552,7 @@
         <v>-1.999999343643625</v>
       </c>
       <c r="J433">
-        <v>20.11070394515991</v>
+        <v>63.61724805831909</v>
       </c>
       <c r="K433">
         <v>-7.999999343643625</v>
@@ -19593,7 +19593,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J434">
-        <v>18.96623706817627</v>
+        <v>60.62684011459351</v>
       </c>
       <c r="K434">
         <v>-12</v>
@@ -19634,7 +19634,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J435">
-        <v>18.99017286300659</v>
+        <v>63.76801419258118</v>
       </c>
       <c r="K435">
         <v>-12</v>
@@ -19675,7 +19675,7 @@
         <v>-2.999999920901943</v>
       </c>
       <c r="J436">
-        <v>19.05581593513489</v>
+        <v>63.51884269714355</v>
       </c>
       <c r="K436">
         <v>-8.999999920901942</v>
@@ -19716,7 +19716,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J437">
-        <v>19.5926468372345</v>
+        <v>60.85139203071594</v>
       </c>
       <c r="K437">
         <v>-12</v>
@@ -19757,7 +19757,7 @@
         <v>-6</v>
       </c>
       <c r="J438">
-        <v>19.05752491950989</v>
+        <v>64.32958292961121</v>
       </c>
       <c r="K438">
         <v>-12</v>
@@ -19798,7 +19798,7 @@
         <v>-6</v>
       </c>
       <c r="J439">
-        <v>18.9073920249939</v>
+        <v>63.87470316886902</v>
       </c>
       <c r="K439">
         <v>-12</v>
@@ -19839,7 +19839,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J440">
-        <v>19.18812274932861</v>
+        <v>64.6372926235199</v>
       </c>
       <c r="K440">
         <v>-12</v>
@@ -19880,7 +19880,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J441">
-        <v>18.94172501564026</v>
+        <v>64.53629016876221</v>
       </c>
       <c r="K441">
         <v>-12</v>
@@ -19921,7 +19921,7 @@
         <v>-5.999999999997935</v>
       </c>
       <c r="J442">
-        <v>18.89214062690735</v>
+        <v>63.13765215873718</v>
       </c>
       <c r="K442">
         <v>-11.99999999999794</v>
@@ -19962,7 +19962,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J443">
-        <v>20.71403408050537</v>
+        <v>64.79309105873108</v>
       </c>
       <c r="K443">
         <v>-12</v>
@@ -20003,7 +20003,7 @@
         <v>-6</v>
       </c>
       <c r="J444">
-        <v>19.5609610080719</v>
+        <v>62.65929412841797</v>
       </c>
       <c r="K444">
         <v>-12</v>
@@ -20044,7 +20044,7 @@
         <v>-2.999999872124278</v>
       </c>
       <c r="J445">
-        <v>18.8112530708313</v>
+        <v>64.45883083343506</v>
       </c>
       <c r="K445">
         <v>-8.999999872124278</v>
@@ -20085,7 +20085,7 @@
         <v>-6</v>
       </c>
       <c r="J446">
-        <v>18.92531585693359</v>
+        <v>63.76304411888123</v>
       </c>
       <c r="K446">
         <v>-12</v>
@@ -20126,7 +20126,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J447">
-        <v>19.10630297660828</v>
+        <v>64.62786602973938</v>
       </c>
       <c r="K447">
         <v>-12</v>
@@ -20167,7 +20167,7 @@
         <v>-6</v>
       </c>
       <c r="J448">
-        <v>18.92593908309937</v>
+        <v>59.61175775527954</v>
       </c>
       <c r="K448">
         <v>-12</v>
@@ -20208,7 +20208,7 @@
         <v>-6</v>
       </c>
       <c r="J449">
-        <v>18.99098372459412</v>
+        <v>63.71217203140259</v>
       </c>
       <c r="K449">
         <v>-12</v>
@@ -20249,7 +20249,7 @@
         <v>-6</v>
       </c>
       <c r="J450">
-        <v>18.96668601036072</v>
+        <v>64.34812188148499</v>
       </c>
       <c r="K450">
         <v>-12</v>
@@ -20290,7 +20290,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J451">
-        <v>18.71256303787231</v>
+        <v>63.63691902160645</v>
       </c>
       <c r="K451">
         <v>-12</v>
@@ -20331,7 +20331,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J452">
-        <v>18.83122301101685</v>
+        <v>64.38577699661255</v>
       </c>
       <c r="K452">
         <v>-12</v>
@@ -20372,7 +20372,7 @@
         <v>-6</v>
       </c>
       <c r="J453">
-        <v>19.01368021965027</v>
+        <v>61.0254852771759</v>
       </c>
       <c r="K453">
         <v>-12</v>
@@ -20413,7 +20413,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J454">
-        <v>18.98020100593567</v>
+        <v>64.87535119056702</v>
       </c>
       <c r="K454">
         <v>-12</v>
@@ -20454,7 +20454,7 @@
         <v>-1.999996823368626</v>
       </c>
       <c r="J455">
-        <v>18.8906991481781</v>
+        <v>64.50039219856262</v>
       </c>
       <c r="K455">
         <v>-7.999996823368626</v>
@@ -20495,7 +20495,7 @@
         <v>-6</v>
       </c>
       <c r="J456">
-        <v>18.9435510635376</v>
+        <v>61.42706394195557</v>
       </c>
       <c r="K456">
         <v>-12</v>
@@ -20536,7 +20536,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J457">
-        <v>17.58441305160522</v>
+        <v>64.07217168807983</v>
       </c>
       <c r="K457">
         <v>-12</v>
@@ -20577,7 +20577,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J458">
-        <v>16.58429598808289</v>
+        <v>60.36104083061218</v>
       </c>
       <c r="K458">
         <v>-12</v>
@@ -20618,7 +20618,7 @@
         <v>-2.99999931199044</v>
       </c>
       <c r="J459">
-        <v>18.44853568077087</v>
+        <v>64.6168200969696</v>
       </c>
       <c r="K459">
         <v>-8.99999931199044</v>
@@ -20659,7 +20659,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J460">
-        <v>21.15278506278992</v>
+        <v>60.771812915802</v>
       </c>
       <c r="K460">
         <v>-12</v>
@@ -20700,7 +20700,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J461">
-        <v>19.8856348991394</v>
+        <v>60.74171113967896</v>
       </c>
       <c r="K461">
         <v>-12</v>
@@ -20741,7 +20741,7 @@
         <v>-6</v>
       </c>
       <c r="J462">
-        <v>19.3787899017334</v>
+        <v>64.15708684921265</v>
       </c>
       <c r="K462">
         <v>-12</v>
@@ -20782,7 +20782,7 @@
         <v>-2.999999911802305</v>
       </c>
       <c r="J463">
-        <v>19.14197397232056</v>
+        <v>60.6603889465332</v>
       </c>
       <c r="K463">
         <v>-8.999999911802306</v>
@@ -20823,7 +20823,7 @@
         <v>-2.999999691365232</v>
       </c>
       <c r="J464">
-        <v>18.97178506851196</v>
+        <v>64.50154876708984</v>
       </c>
       <c r="K464">
         <v>-8.999999691365232</v>
@@ -20864,7 +20864,7 @@
         <v>-2.999999521388249</v>
       </c>
       <c r="J465">
-        <v>19.0204598903656</v>
+        <v>63.83712577819824</v>
       </c>
       <c r="K465">
         <v>-8.999999521388249</v>
@@ -20905,7 +20905,7 @@
         <v>-6</v>
       </c>
       <c r="J466">
-        <v>18.91272115707397</v>
+        <v>61.59562516212463</v>
       </c>
       <c r="K466">
         <v>-12</v>
@@ -20946,7 +20946,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J467">
-        <v>19.13976812362671</v>
+        <v>63.73584723472595</v>
       </c>
       <c r="K467">
         <v>-12</v>
@@ -20987,7 +20987,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J468">
-        <v>19.10253381729126</v>
+        <v>64.79103088378906</v>
       </c>
       <c r="K468">
         <v>-11.99999999999999</v>
@@ -21028,7 +21028,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J469">
-        <v>19.08309412002563</v>
+        <v>63.82497692108154</v>
       </c>
       <c r="K469">
         <v>-12</v>
@@ -21069,7 +21069,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J470">
-        <v>18.79955101013184</v>
+        <v>64.22652578353882</v>
       </c>
       <c r="K470">
         <v>-12</v>
@@ -21110,7 +21110,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J471">
-        <v>19.00684881210327</v>
+        <v>64.528315782547</v>
       </c>
       <c r="K471">
         <v>-12</v>
@@ -21151,7 +21151,7 @@
         <v>-6</v>
       </c>
       <c r="J472">
-        <v>18.14576315879822</v>
+        <v>65.3856828212738</v>
       </c>
       <c r="K472">
         <v>-12</v>
@@ -21192,7 +21192,7 @@
         <v>-6</v>
       </c>
       <c r="J473">
-        <v>17.77199387550354</v>
+        <v>64.40654373168945</v>
       </c>
       <c r="K473">
         <v>-12</v>
@@ -21233,7 +21233,7 @@
         <v>-1.999998283072741</v>
       </c>
       <c r="J474">
-        <v>18.31775283813477</v>
+        <v>63.7202250957489</v>
       </c>
       <c r="K474">
         <v>-7.99999828307274</v>
@@ -21274,7 +21274,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J475">
-        <v>19.0914318561554</v>
+        <v>59.40450000762939</v>
       </c>
       <c r="K475">
         <v>-12</v>
@@ -21315,7 +21315,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J476">
-        <v>19.04014301300049</v>
+        <v>57.97862720489502</v>
       </c>
       <c r="K476">
         <v>-12</v>
@@ -21356,7 +21356,7 @@
         <v>-6</v>
       </c>
       <c r="J477">
-        <v>20.55547523498535</v>
+        <v>64.57008671760559</v>
       </c>
       <c r="K477">
         <v>-12</v>
@@ -21397,7 +21397,7 @@
         <v>-1.999998505834096</v>
       </c>
       <c r="J478">
-        <v>19.7058699131012</v>
+        <v>61.86533689498901</v>
       </c>
       <c r="K478">
         <v>-7.999998505834096</v>
@@ -21438,7 +21438,7 @@
         <v>-6</v>
       </c>
       <c r="J479">
-        <v>19.17238783836365</v>
+        <v>64.20191788673401</v>
       </c>
       <c r="K479">
         <v>-12</v>
@@ -21479,7 +21479,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J480">
-        <v>18.86535215377808</v>
+        <v>64.64010715484619</v>
       </c>
       <c r="K480">
         <v>-12</v>
@@ -21520,7 +21520,7 @@
         <v>-2.999999836283848</v>
       </c>
       <c r="J481">
-        <v>18.93872904777527</v>
+        <v>63.87380719184875</v>
       </c>
       <c r="K481">
         <v>-8.999999836283848</v>
@@ -21561,7 +21561,7 @@
         <v>-2.999999849050937</v>
       </c>
       <c r="J482">
-        <v>19.01395797729492</v>
+        <v>62.00743508338928</v>
       </c>
       <c r="K482">
         <v>-8.999999849050937</v>
@@ -21602,7 +21602,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J483">
-        <v>19.1087372303009</v>
+        <v>59.40558815002441</v>
       </c>
       <c r="K483">
         <v>-12</v>
@@ -21643,7 +21643,7 @@
         <v>-6</v>
       </c>
       <c r="J484">
-        <v>18.91216993331909</v>
+        <v>63.66324210166931</v>
       </c>
       <c r="K484">
         <v>-12</v>
@@ -21684,7 +21684,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J485">
-        <v>19.19958925247192</v>
+        <v>61.48174905776978</v>
       </c>
       <c r="K485">
         <v>-12</v>
@@ -21725,7 +21725,7 @@
         <v>-2.999999873006548</v>
       </c>
       <c r="J486">
-        <v>18.80422401428223</v>
+        <v>64.49585008621216</v>
       </c>
       <c r="K486">
         <v>-8.999999873006548</v>
@@ -21766,7 +21766,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J487">
-        <v>18.94419097900391</v>
+        <v>62.23191905021667</v>
       </c>
       <c r="K487">
         <v>-11.99999999999999</v>
@@ -21807,7 +21807,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J488">
-        <v>18.83116888999939</v>
+        <v>60.08140420913696</v>
       </c>
       <c r="K488">
         <v>-12</v>
@@ -21848,7 +21848,7 @@
         <v>-6</v>
       </c>
       <c r="J489">
-        <v>18.91239237785339</v>
+        <v>64.46266603469849</v>
       </c>
       <c r="K489">
         <v>-12</v>
@@ -21889,7 +21889,7 @@
         <v>-6</v>
       </c>
       <c r="J490">
-        <v>20.25763416290283</v>
+        <v>63.66627621650696</v>
       </c>
       <c r="K490">
         <v>-12</v>
@@ -21930,7 +21930,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J491">
-        <v>19.30535984039307</v>
+        <v>61.93857908248901</v>
       </c>
       <c r="K491">
         <v>-12</v>
@@ -21971,7 +21971,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J492">
-        <v>19.11026215553284</v>
+        <v>60.8286759853363</v>
       </c>
       <c r="K492">
         <v>-12</v>
@@ -22012,7 +22012,7 @@
         <v>-6</v>
       </c>
       <c r="J493">
-        <v>19.33955526351929</v>
+        <v>61.80173897743225</v>
       </c>
       <c r="K493">
         <v>-12</v>
@@ -22053,7 +22053,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J494">
-        <v>19.57288193702698</v>
+        <v>63.84606885910034</v>
       </c>
       <c r="K494">
         <v>-12</v>
@@ -22094,7 +22094,7 @@
         <v>-1.999997998314681</v>
       </c>
       <c r="J495">
-        <v>18.97211074829102</v>
+        <v>62.76979875564575</v>
       </c>
       <c r="K495">
         <v>-7.999997998314681</v>
@@ -22135,7 +22135,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J496">
-        <v>19.33540630340576</v>
+        <v>64.86748123168945</v>
       </c>
       <c r="K496">
         <v>-12</v>
@@ -22176,7 +22176,7 @@
         <v>-1.999999956617023</v>
       </c>
       <c r="J497">
-        <v>19.04455184936523</v>
+        <v>63.57868576049805</v>
       </c>
       <c r="K497">
         <v>-7.999999956617023</v>
@@ -22217,7 +22217,7 @@
         <v>-6</v>
       </c>
       <c r="J498">
-        <v>18.93698811531067</v>
+        <v>64.86628293991089</v>
       </c>
       <c r="K498">
         <v>-12</v>
@@ -22258,7 +22258,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J499">
-        <v>18.83630895614624</v>
+        <v>60.79829502105713</v>
       </c>
       <c r="K499">
         <v>-12</v>
@@ -22299,7 +22299,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J500">
-        <v>19.22981715202332</v>
+        <v>64.57269716262817</v>
       </c>
       <c r="K500">
         <v>-12</v>
@@ -22340,7 +22340,7 @@
         <v>-2.999999903254414</v>
       </c>
       <c r="J501">
-        <v>19.46005177497864</v>
+        <v>63.80556297302246</v>
       </c>
       <c r="K501">
         <v>-8.999999903254414</v>
@@ -22381,7 +22381,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J502">
-        <v>18.91674304008484</v>
+        <v>64.40051198005676</v>
       </c>
       <c r="K502">
         <v>-12</v>
@@ -22422,7 +22422,7 @@
         <v>-6</v>
       </c>
       <c r="J503">
-        <v>19.03214430809021</v>
+        <v>63.53161287307739</v>
       </c>
       <c r="K503">
         <v>-12</v>
@@ -22463,7 +22463,7 @@
         <v>-6</v>
       </c>
       <c r="J504">
-        <v>19.11129999160767</v>
+        <v>62.77192091941833</v>
       </c>
       <c r="K504">
         <v>-12</v>
@@ -22504,7 +22504,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J505">
-        <v>18.91554713249207</v>
+        <v>64.79001498222351</v>
       </c>
       <c r="K505">
         <v>-12</v>
@@ -22545,7 +22545,7 @@
         <v>-2.999999774946471</v>
       </c>
       <c r="J506">
-        <v>18.80212879180908</v>
+        <v>63.88979506492615</v>
       </c>
       <c r="K506">
         <v>-8.99999977494647</v>
@@ -22586,7 +22586,7 @@
         <v>-2.999998655161449</v>
       </c>
       <c r="J507">
-        <v>19.47411012649536</v>
+        <v>64.5321798324585</v>
       </c>
       <c r="K507">
         <v>-8.999998655161448</v>
@@ -22627,7 +22627,7 @@
         <v>-1.999999906283447</v>
       </c>
       <c r="J508">
-        <v>19.42886924743652</v>
+        <v>63.42320394515991</v>
       </c>
       <c r="K508">
         <v>-7.999999906283446</v>
@@ -22668,7 +22668,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J509">
-        <v>20.44554305076599</v>
+        <v>64.59702301025391</v>
       </c>
       <c r="K509">
         <v>-12</v>
@@ -22709,7 +22709,7 @@
         <v>-6</v>
       </c>
       <c r="J510">
-        <v>19.8865020275116</v>
+        <v>61.10363388061523</v>
       </c>
       <c r="K510">
         <v>-12</v>
@@ -22750,7 +22750,7 @@
         <v>-2.999999938695082</v>
       </c>
       <c r="J511">
-        <v>18.94511103630066</v>
+        <v>64.18895387649536</v>
       </c>
       <c r="K511">
         <v>-8.999999938695082</v>
@@ -22791,7 +22791,7 @@
         <v>-6</v>
       </c>
       <c r="J512">
-        <v>21.4089469909668</v>
+        <v>64.73086595535278</v>
       </c>
       <c r="K512">
         <v>-12</v>
@@ -22832,7 +22832,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J513">
-        <v>19.525545835495</v>
+        <v>63.72137498855591</v>
       </c>
       <c r="K513">
         <v>-12</v>
@@ -22873,7 +22873,7 @@
         <v>-6</v>
       </c>
       <c r="J514">
-        <v>19.29131507873535</v>
+        <v>63.88092494010925</v>
       </c>
       <c r="K514">
         <v>-12</v>
@@ -22914,7 +22914,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J515">
-        <v>19.0225682258606</v>
+        <v>59.61505794525146</v>
       </c>
       <c r="K515">
         <v>-12</v>
@@ -22955,7 +22955,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J516">
-        <v>19.15398502349854</v>
+        <v>63.49472618103027</v>
       </c>
       <c r="K516">
         <v>-12</v>
@@ -22996,7 +22996,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J517">
-        <v>19.11204099655151</v>
+        <v>63.68893003463745</v>
       </c>
       <c r="K517">
         <v>-12</v>
@@ -23037,7 +23037,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J518">
-        <v>19.46489930152893</v>
+        <v>64.10029220581055</v>
       </c>
       <c r="K518">
         <v>-12</v>
@@ -23078,7 +23078,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J519">
-        <v>19.14688420295715</v>
+        <v>65.00517296791077</v>
       </c>
       <c r="K519">
         <v>-12</v>
@@ -23119,7 +23119,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J520">
-        <v>19.24059009552002</v>
+        <v>64.12246012687683</v>
       </c>
       <c r="K520">
         <v>-12</v>
@@ -23160,7 +23160,7 @@
         <v>-5.999999999999994</v>
       </c>
       <c r="J521">
-        <v>20.80551719665527</v>
+        <v>64.43864822387695</v>
       </c>
       <c r="K521">
         <v>-11.99999999999999</v>
@@ -23201,7 +23201,7 @@
         <v>-1.99999732155973</v>
       </c>
       <c r="J522">
-        <v>19.40042805671692</v>
+        <v>63.94814205169678</v>
       </c>
       <c r="K522">
         <v>-7.99999732155973</v>
@@ -23242,7 +23242,7 @@
         <v>-2.99999998786523</v>
       </c>
       <c r="J523">
-        <v>19.48718905448914</v>
+        <v>64.55718326568604</v>
       </c>
       <c r="K523">
         <v>-8.99999998786523</v>
@@ -23283,7 +23283,7 @@
         <v>-2.999991006226221</v>
       </c>
       <c r="J524">
-        <v>19.18677306175232</v>
+        <v>59.82213020324707</v>
       </c>
       <c r="K524">
         <v>-8.999991006226221</v>
@@ -23324,7 +23324,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J525">
-        <v>19.24227690696716</v>
+        <v>64.40042877197266</v>
       </c>
       <c r="K525">
         <v>-12</v>
@@ -23365,7 +23365,7 @@
         <v>-6</v>
       </c>
       <c r="J526">
-        <v>19.71347403526306</v>
+        <v>64.86563801765442</v>
       </c>
       <c r="K526">
         <v>-12</v>
@@ -23406,7 +23406,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J527">
-        <v>21.85997700691223</v>
+        <v>63.54589223861694</v>
       </c>
       <c r="K527">
         <v>-12</v>
@@ -23447,7 +23447,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J528">
-        <v>19.50793409347534</v>
+        <v>62.89745473861694</v>
       </c>
       <c r="K528">
         <v>-12</v>
@@ -23488,7 +23488,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J529">
-        <v>15.82259202003479</v>
+        <v>63.93587708473206</v>
       </c>
       <c r="K529">
         <v>-12</v>
@@ -23529,7 +23529,7 @@
         <v>-6</v>
       </c>
       <c r="J530">
-        <v>19.17267036437988</v>
+        <v>64.06351280212402</v>
       </c>
       <c r="K530">
         <v>-12</v>
@@ -23570,7 +23570,7 @@
         <v>-6</v>
       </c>
       <c r="J531">
-        <v>19.68805027008057</v>
+        <v>64.07983064651489</v>
       </c>
       <c r="K531">
         <v>-12</v>
@@ -23611,7 +23611,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J532">
-        <v>18.94129419326782</v>
+        <v>64.09029078483582</v>
       </c>
       <c r="K532">
         <v>-12</v>
@@ -23652,7 +23652,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J533">
-        <v>19.12636995315552</v>
+        <v>63.39215302467346</v>
       </c>
       <c r="K533">
         <v>-12</v>
@@ -23693,7 +23693,7 @@
         <v>-1.999999639514141</v>
       </c>
       <c r="J534">
-        <v>19.26798224449158</v>
+        <v>59.35104417800903</v>
       </c>
       <c r="K534">
         <v>-7.999999639514141</v>
@@ -23734,7 +23734,7 @@
         <v>-2.9999994015625</v>
       </c>
       <c r="J535">
-        <v>19.34075593948364</v>
+        <v>63.25088500976562</v>
       </c>
       <c r="K535">
         <v>-8.9999994015625</v>
@@ -23775,7 +23775,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J536">
-        <v>19.11631178855896</v>
+        <v>63.86616778373718</v>
       </c>
       <c r="K536">
         <v>-11.99999999999999</v>
@@ -23816,7 +23816,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J537">
-        <v>19.11189818382263</v>
+        <v>62.94762706756592</v>
       </c>
       <c r="K537">
         <v>-12</v>
@@ -23857,7 +23857,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J538">
-        <v>19.14036297798157</v>
+        <v>64.12852716445923</v>
       </c>
       <c r="K538">
         <v>-12</v>
@@ -23898,7 +23898,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J539">
-        <v>19.32360434532166</v>
+        <v>62.9971010684967</v>
       </c>
       <c r="K539">
         <v>-12</v>
@@ -23939,7 +23939,7 @@
         <v>-6</v>
       </c>
       <c r="J540">
-        <v>19.29490995407104</v>
+        <v>63.78386521339417</v>
       </c>
       <c r="K540">
         <v>-12</v>
@@ -23980,7 +23980,7 @@
         <v>-2.999999903281782</v>
       </c>
       <c r="J541">
-        <v>18.78781175613403</v>
+        <v>63.94610929489136</v>
       </c>
       <c r="K541">
         <v>-8.999999903281783</v>
@@ -24021,7 +24021,7 @@
         <v>-2.99999974496852</v>
       </c>
       <c r="J542">
-        <v>18.97948598861694</v>
+        <v>61.41042995452881</v>
       </c>
       <c r="K542">
         <v>-8.99999974496852</v>
@@ -24062,7 +24062,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J543">
-        <v>19.05732679367065</v>
+        <v>63.82904410362244</v>
       </c>
       <c r="K543">
         <v>-12</v>
@@ -24103,7 +24103,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J544">
-        <v>18.95970606803894</v>
+        <v>58.84660387039185</v>
       </c>
       <c r="K544">
         <v>-12</v>
@@ -24144,7 +24144,7 @@
         <v>-2.999996532041366</v>
       </c>
       <c r="J545">
-        <v>18.78097081184387</v>
+        <v>60.64525079727173</v>
       </c>
       <c r="K545">
         <v>-8.999996532041365</v>
@@ -24185,7 +24185,7 @@
         <v>-6</v>
       </c>
       <c r="J546">
-        <v>19.35063695907593</v>
+        <v>64.43941283226013</v>
       </c>
       <c r="K546">
         <v>-12</v>
@@ -24226,7 +24226,7 @@
         <v>-2.999999961587788</v>
       </c>
       <c r="J547">
-        <v>19.0060760974884</v>
+        <v>64.22790813446045</v>
       </c>
       <c r="K547">
         <v>-8.999999961587788</v>
@@ -24267,7 +24267,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J548">
-        <v>19.1013970375061</v>
+        <v>64.21854901313782</v>
       </c>
       <c r="K548">
         <v>-12</v>
@@ -24308,7 +24308,7 @@
         <v>-2.999999861291323</v>
       </c>
       <c r="J549">
-        <v>18.77782297134399</v>
+        <v>64.45733189582825</v>
       </c>
       <c r="K549">
         <v>-8.999999861291322</v>
@@ -24349,7 +24349,7 @@
         <v>-1.999998570711281</v>
       </c>
       <c r="J550">
-        <v>18.8885612487793</v>
+        <v>63.84465408325195</v>
       </c>
       <c r="K550">
         <v>-7.999998570711281</v>
@@ -24390,7 +24390,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J551">
-        <v>18.34046292304993</v>
+        <v>58.20563387870789</v>
       </c>
       <c r="K551">
         <v>-12</v>
@@ -24431,7 +24431,7 @@
         <v>-6</v>
       </c>
       <c r="J552">
-        <v>25.75949907302856</v>
+        <v>63.79982900619507</v>
       </c>
       <c r="K552">
         <v>-12</v>
@@ -24472,7 +24472,7 @@
         <v>-6</v>
       </c>
       <c r="J553">
-        <v>31.8027708530426</v>
+        <v>64.69526410102844</v>
       </c>
       <c r="K553">
         <v>-12</v>
@@ -24513,7 +24513,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J554">
-        <v>31.12232494354248</v>
+        <v>58.65513229370117</v>
       </c>
       <c r="K554">
         <v>-12</v>
@@ -24554,7 +24554,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J555">
-        <v>18.61870813369751</v>
+        <v>64.59350299835205</v>
       </c>
       <c r="K555">
         <v>-12</v>
@@ -24595,7 +24595,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J556">
-        <v>18.26883101463318</v>
+        <v>64.52690410614014</v>
       </c>
       <c r="K556">
         <v>-12</v>
@@ -24636,7 +24636,7 @@
         <v>-2.999999981712062</v>
       </c>
       <c r="J557">
-        <v>18.63293504714966</v>
+        <v>59.41858386993408</v>
       </c>
       <c r="K557">
         <v>-8.999999981712062</v>
@@ -24677,7 +24677,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J558">
-        <v>18.97170972824097</v>
+        <v>64.69222688674927</v>
       </c>
       <c r="K558">
         <v>-12</v>
@@ -24718,7 +24718,7 @@
         <v>-6</v>
       </c>
       <c r="J559">
-        <v>18.57383298873901</v>
+        <v>62.47980785369873</v>
       </c>
       <c r="K559">
         <v>-12</v>
@@ -24759,7 +24759,7 @@
         <v>-6</v>
       </c>
       <c r="J560">
-        <v>18.84993600845337</v>
+        <v>63.99809384346008</v>
       </c>
       <c r="K560">
         <v>-12</v>
@@ -24800,7 +24800,7 @@
         <v>-5.997908963751692</v>
       </c>
       <c r="J561">
-        <v>18.73182511329651</v>
+        <v>63.76512789726257</v>
       </c>
       <c r="K561">
         <v>-11.99790896375169</v>
@@ -24841,7 +24841,7 @@
         <v>-2.999999396160967</v>
       </c>
       <c r="J562">
-        <v>19.22021007537842</v>
+        <v>64.79088473320007</v>
       </c>
       <c r="K562">
         <v>-8.999999396160966</v>
@@ -24882,7 +24882,7 @@
         <v>-6</v>
       </c>
       <c r="J563">
-        <v>19.01416397094727</v>
+        <v>63.8409628868103</v>
       </c>
       <c r="K563">
         <v>-12</v>
@@ -24923,7 +24923,7 @@
         <v>-1.999999353474684</v>
       </c>
       <c r="J564">
-        <v>18.78051018714905</v>
+        <v>62.52363610267639</v>
       </c>
       <c r="K564">
         <v>-7.999999353474683</v>
@@ -24964,7 +24964,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J565">
-        <v>18.78034567832947</v>
+        <v>64.50849890708923</v>
       </c>
       <c r="K565">
         <v>-12</v>
@@ -25005,7 +25005,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J566">
-        <v>18.95116806030273</v>
+        <v>63.91719317436218</v>
       </c>
       <c r="K566">
         <v>-12</v>
@@ -25046,7 +25046,7 @@
         <v>-6</v>
       </c>
       <c r="J567">
-        <v>19.16400408744812</v>
+        <v>58.64406204223633</v>
       </c>
       <c r="K567">
         <v>-12</v>
@@ -25087,7 +25087,7 @@
         <v>-2.999999985328586</v>
       </c>
       <c r="J568">
-        <v>19.75465869903564</v>
+        <v>63.68409705162048</v>
       </c>
       <c r="K568">
         <v>-8.999999985328586</v>
@@ -25128,7 +25128,7 @@
         <v>-2.999999738310787</v>
       </c>
       <c r="J569">
-        <v>18.93215322494507</v>
+        <v>63.86886191368103</v>
       </c>
       <c r="K569">
         <v>-8.999999738310787</v>
@@ -25169,7 +25169,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J570">
-        <v>18.80712890625</v>
+        <v>62.76953315734863</v>
       </c>
       <c r="K570">
         <v>-12</v>
@@ -25210,7 +25210,7 @@
         <v>-2.999999644377694</v>
       </c>
       <c r="J571">
-        <v>18.71910190582275</v>
+        <v>63.84494996070862</v>
       </c>
       <c r="K571">
         <v>-8.999999644377693</v>
@@ -25251,7 +25251,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J572">
-        <v>19.54053807258606</v>
+        <v>60.51013016700745</v>
       </c>
       <c r="K572">
         <v>-12</v>
@@ -25292,7 +25292,7 @@
         <v>-2.999999635194473</v>
       </c>
       <c r="J573">
-        <v>19.04960012435913</v>
+        <v>62.75940489768982</v>
       </c>
       <c r="K573">
         <v>-8.999999635194474</v>
@@ -25333,7 +25333,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J574">
-        <v>18.80329394340515</v>
+        <v>64.71657609939575</v>
       </c>
       <c r="K574">
         <v>-12</v>
@@ -25374,7 +25374,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J575">
-        <v>19.23525094985962</v>
+        <v>53.02686381340027</v>
       </c>
       <c r="K575">
         <v>-11.99999999999999</v>
@@ -25415,7 +25415,7 @@
         <v>-3.016721614392127</v>
       </c>
       <c r="J576">
-        <v>19.4813539981842</v>
+        <v>62.51349091529846</v>
       </c>
       <c r="K576">
         <v>-9.016721614392127</v>
@@ -25456,7 +25456,7 @@
         <v>-6</v>
       </c>
       <c r="J577">
-        <v>18.97373723983765</v>
+        <v>63.84296202659607</v>
       </c>
       <c r="K577">
         <v>-12</v>
@@ -25497,7 +25497,7 @@
         <v>-2.999976662820716</v>
       </c>
       <c r="J578">
-        <v>19.12114906311035</v>
+        <v>64.59328413009644</v>
       </c>
       <c r="K578">
         <v>-8.999976662820716</v>
@@ -25538,7 +25538,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J579">
-        <v>19.16182231903076</v>
+        <v>63.76346278190613</v>
       </c>
       <c r="K579">
         <v>-12</v>
@@ -25579,7 +25579,7 @@
         <v>-2.999997975104174</v>
       </c>
       <c r="J580">
-        <v>18.9228310585022</v>
+        <v>60.96380996704102</v>
       </c>
       <c r="K580">
         <v>-8.999997975104174</v>
@@ -25620,7 +25620,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J581">
-        <v>19.54237079620361</v>
+        <v>61.93049788475037</v>
       </c>
       <c r="K581">
         <v>-12</v>
@@ -25661,7 +25661,7 @@
         <v>-2.999999854187877</v>
       </c>
       <c r="J582">
-        <v>20.16910719871521</v>
+        <v>60.39868593215942</v>
       </c>
       <c r="K582">
         <v>-8.999999854187877</v>
@@ -25702,7 +25702,7 @@
         <v>-2.999999664731988</v>
       </c>
       <c r="J583">
-        <v>19.67835688591003</v>
+        <v>64.43977499008179</v>
       </c>
       <c r="K583">
         <v>-8.999999664731988</v>
@@ -25743,7 +25743,7 @@
         <v>-6</v>
       </c>
       <c r="J584">
-        <v>19.20790338516235</v>
+        <v>63.41823792457581</v>
       </c>
       <c r="K584">
         <v>-12</v>
@@ -25784,7 +25784,7 @@
         <v>-2.999999860502132</v>
       </c>
       <c r="J585">
-        <v>19.0280659198761</v>
+        <v>64.57906675338745</v>
       </c>
       <c r="K585">
         <v>-8.999999860502133</v>
@@ -25825,7 +25825,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J586">
-        <v>19.34510207176208</v>
+        <v>63.8065881729126</v>
       </c>
       <c r="K586">
         <v>-12</v>
@@ -25866,7 +25866,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J587">
-        <v>19.51840209960938</v>
+        <v>60.71132707595825</v>
       </c>
       <c r="K587">
         <v>-12</v>
@@ -25907,7 +25907,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J588">
-        <v>19.27799797058105</v>
+        <v>63.83919882774353</v>
       </c>
       <c r="K588">
         <v>-12</v>
@@ -25948,7 +25948,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J589">
-        <v>19.33056306838989</v>
+        <v>64.39036393165588</v>
       </c>
       <c r="K589">
         <v>-12</v>
@@ -25989,7 +25989,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J590">
-        <v>18.97862505912781</v>
+        <v>64.58290100097656</v>
       </c>
       <c r="K590">
         <v>-12</v>
@@ -26030,7 +26030,7 @@
         <v>-6</v>
       </c>
       <c r="J591">
-        <v>19.11080598831177</v>
+        <v>64.00040197372437</v>
       </c>
       <c r="K591">
         <v>-12</v>
@@ -26071,7 +26071,7 @@
         <v>-6</v>
       </c>
       <c r="J592">
-        <v>19.14189219474792</v>
+        <v>64.39599514007568</v>
       </c>
       <c r="K592">
         <v>-12</v>
@@ -26112,7 +26112,7 @@
         <v>-2.999999898539163</v>
       </c>
       <c r="J593">
-        <v>19.73528981208801</v>
+        <v>60.63907408714294</v>
       </c>
       <c r="K593">
         <v>-8.999999898539162</v>
@@ -26153,7 +26153,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J594">
-        <v>18.80573797225952</v>
+        <v>64.49151730537415</v>
       </c>
       <c r="K594">
         <v>-12</v>
@@ -26194,7 +26194,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J595">
-        <v>19.02241325378418</v>
+        <v>62.79775285720825</v>
       </c>
       <c r="K595">
         <v>-11.99999999999999</v>
@@ -26235,7 +26235,7 @@
         <v>-6</v>
       </c>
       <c r="J596">
-        <v>18.81169104576111</v>
+        <v>64.29178190231323</v>
       </c>
       <c r="K596">
         <v>-12</v>
@@ -26276,7 +26276,7 @@
         <v>-6</v>
       </c>
       <c r="J597">
-        <v>19.75123000144958</v>
+        <v>64.18098902702332</v>
       </c>
       <c r="K597">
         <v>-12</v>
@@ -26317,7 +26317,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J598">
-        <v>19.2662889957428</v>
+        <v>63.98062086105347</v>
       </c>
       <c r="K598">
         <v>-12</v>
@@ -26358,7 +26358,7 @@
         <v>-6</v>
       </c>
       <c r="J599">
-        <v>18.85296893119812</v>
+        <v>64.54797601699829</v>
       </c>
       <c r="K599">
         <v>-12</v>
@@ -26399,7 +26399,7 @@
         <v>-6</v>
       </c>
       <c r="J600">
-        <v>18.830806016922</v>
+        <v>63.63561534881592</v>
       </c>
       <c r="K600">
         <v>-12</v>
@@ -26440,7 +26440,7 @@
         <v>-6</v>
       </c>
       <c r="J601">
-        <v>19.03605890274048</v>
+        <v>64.33960390090942</v>
       </c>
       <c r="K601">
         <v>-12</v>
@@ -26481,7 +26481,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J602">
-        <v>18.83590602874756</v>
+        <v>63.53717565536499</v>
       </c>
       <c r="K602">
         <v>-12</v>
@@ -26522,7 +26522,7 @@
         <v>-6</v>
       </c>
       <c r="J603">
-        <v>19.02134013175964</v>
+        <v>64.0930962562561</v>
       </c>
       <c r="K603">
         <v>-12</v>
@@ -26563,7 +26563,7 @@
         <v>-1.999997836673039</v>
       </c>
       <c r="J604">
-        <v>18.80430221557617</v>
+        <v>64.9002640247345</v>
       </c>
       <c r="K604">
         <v>-7.999997836673039</v>
@@ -26604,7 +26604,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J605">
-        <v>18.91496586799622</v>
+        <v>64.07719016075134</v>
       </c>
       <c r="K605">
         <v>-12</v>
@@ -26645,7 +26645,7 @@
         <v>-2.999999394883487</v>
       </c>
       <c r="J606">
-        <v>18.77944922447205</v>
+        <v>62.83489799499512</v>
       </c>
       <c r="K606">
         <v>-8.999999394883487</v>
@@ -26686,7 +26686,7 @@
         <v>-6</v>
       </c>
       <c r="J607">
-        <v>19.46022295951843</v>
+        <v>63.59441113471985</v>
       </c>
       <c r="K607">
         <v>-12</v>
@@ -26727,7 +26727,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J608">
-        <v>19.03586506843567</v>
+        <v>63.42073106765747</v>
       </c>
       <c r="K608">
         <v>-12</v>
@@ -26768,7 +26768,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J609">
-        <v>18.62985491752625</v>
+        <v>63.9160430431366</v>
       </c>
       <c r="K609">
         <v>-12</v>
@@ -26809,7 +26809,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J610">
-        <v>18.99323797225952</v>
+        <v>62.60461902618408</v>
       </c>
       <c r="K610">
         <v>-12</v>
@@ -26850,7 +26850,7 @@
         <v>-6</v>
       </c>
       <c r="J611">
-        <v>18.9511821269989</v>
+        <v>64.27638816833496</v>
       </c>
       <c r="K611">
         <v>-12</v>
@@ -26891,7 +26891,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J612">
-        <v>19.89154005050659</v>
+        <v>60.52269816398621</v>
       </c>
       <c r="K612">
         <v>-12</v>
@@ -26932,7 +26932,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J613">
-        <v>20.20614790916443</v>
+        <v>64.58669304847717</v>
       </c>
       <c r="K613">
         <v>-12</v>
@@ -26973,7 +26973,7 @@
         <v>-6</v>
       </c>
       <c r="J614">
-        <v>19.32510805130005</v>
+        <v>62.76196885108948</v>
       </c>
       <c r="K614">
         <v>-12</v>
@@ -27014,7 +27014,7 @@
         <v>-6</v>
       </c>
       <c r="J615">
-        <v>19.78136110305786</v>
+        <v>62.32128214836121</v>
       </c>
       <c r="K615">
         <v>-12</v>
@@ -27055,7 +27055,7 @@
         <v>-6</v>
       </c>
       <c r="J616">
-        <v>19.10470700263977</v>
+        <v>63.74895906448364</v>
       </c>
       <c r="K616">
         <v>-12</v>
@@ -27096,7 +27096,7 @@
         <v>-6</v>
       </c>
       <c r="J617">
-        <v>18.72668218612671</v>
+        <v>64.73306703567505</v>
       </c>
       <c r="K617">
         <v>-12</v>
@@ -27137,7 +27137,7 @@
         <v>-6</v>
       </c>
       <c r="J618">
-        <v>18.78715872764587</v>
+        <v>63.12545990943909</v>
       </c>
       <c r="K618">
         <v>-12</v>
@@ -27178,7 +27178,7 @@
         <v>-6</v>
       </c>
       <c r="J619">
-        <v>19.0416100025177</v>
+        <v>64.96305894851685</v>
       </c>
       <c r="K619">
         <v>-12</v>
@@ -27219,7 +27219,7 @@
         <v>-6</v>
       </c>
       <c r="J620">
-        <v>18.89757490158081</v>
+        <v>64.91173219680786</v>
       </c>
       <c r="K620">
         <v>-12</v>
@@ -27260,7 +27260,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J621">
-        <v>19.16960787773132</v>
+        <v>62.92269492149353</v>
       </c>
       <c r="K621">
         <v>-12</v>
@@ -27301,7 +27301,7 @@
         <v>-6</v>
       </c>
       <c r="J622">
-        <v>18.95256686210632</v>
+        <v>65.06273508071899</v>
       </c>
       <c r="K622">
         <v>-12</v>
@@ -27342,7 +27342,7 @@
         <v>-2.999999835874874</v>
       </c>
       <c r="J623">
-        <v>19.01455521583557</v>
+        <v>63.90678882598877</v>
       </c>
       <c r="K623">
         <v>-8.999999835874874</v>
@@ -27383,7 +27383,7 @@
         <v>-6</v>
       </c>
       <c r="J624">
-        <v>19.43993020057678</v>
+        <v>64.71048212051392</v>
       </c>
       <c r="K624">
         <v>-12</v>
@@ -27424,7 +27424,7 @@
         <v>-2.999999813861971</v>
       </c>
       <c r="J625">
-        <v>19.17210602760315</v>
+        <v>62.53516221046448</v>
       </c>
       <c r="K625">
         <v>-8.999999813861971</v>
@@ -27465,7 +27465,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J626">
-        <v>19.4227728843689</v>
+        <v>64.62901401519775</v>
       </c>
       <c r="K626">
         <v>-11.99999999999999</v>
@@ -27506,7 +27506,7 @@
         <v>-6</v>
       </c>
       <c r="J627">
-        <v>18.80006718635559</v>
+        <v>65.18121480941772</v>
       </c>
       <c r="K627">
         <v>-12</v>
@@ -27547,7 +27547,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J628">
-        <v>18.93510580062866</v>
+        <v>64.08931803703308</v>
       </c>
       <c r="K628">
         <v>-11.99999999999999</v>
@@ -27588,7 +27588,7 @@
         <v>-2.999998417853698</v>
       </c>
       <c r="J629">
-        <v>18.95242881774902</v>
+        <v>63.51221299171448</v>
       </c>
       <c r="K629">
         <v>-8.999998417853698</v>
@@ -27629,7 +27629,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J630">
-        <v>19.13645124435425</v>
+        <v>60.7648720741272</v>
       </c>
       <c r="K630">
         <v>-12</v>
@@ -27670,7 +27670,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J631">
-        <v>19.07393002510071</v>
+        <v>64.98783493041992</v>
       </c>
       <c r="K631">
         <v>-12</v>
@@ -27711,7 +27711,7 @@
         <v>-6</v>
       </c>
       <c r="J632">
-        <v>16.01841711997986</v>
+        <v>64.70104885101318</v>
       </c>
       <c r="K632">
         <v>-12</v>
@@ -27752,7 +27752,7 @@
         <v>-1.999999815168899</v>
       </c>
       <c r="J633">
-        <v>16.94775700569153</v>
+        <v>65.40535497665405</v>
       </c>
       <c r="K633">
         <v>-7.999999815168899</v>
@@ -27793,7 +27793,7 @@
         <v>-2.999999112603645</v>
       </c>
       <c r="J634">
-        <v>18.98315596580505</v>
+        <v>65.34124398231506</v>
       </c>
       <c r="K634">
         <v>-8.999999112603644</v>
@@ -27834,7 +27834,7 @@
         <v>-5.999999999356759</v>
       </c>
       <c r="J635">
-        <v>19.15284419059753</v>
+        <v>64.44776487350464</v>
       </c>
       <c r="K635">
         <v>-11.99999999935676</v>
@@ -27875,7 +27875,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J636">
-        <v>18.82978296279907</v>
+        <v>64.45994091033936</v>
       </c>
       <c r="K636">
         <v>-12</v>
@@ -27916,7 +27916,7 @@
         <v>-6</v>
       </c>
       <c r="J637">
-        <v>18.77502202987671</v>
+        <v>60.71420311927795</v>
       </c>
       <c r="K637">
         <v>-12</v>
@@ -27957,7 +27957,7 @@
         <v>-6</v>
       </c>
       <c r="J638">
-        <v>18.90500807762146</v>
+        <v>65.14342403411865</v>
       </c>
       <c r="K638">
         <v>-12</v>
@@ -27998,7 +27998,7 @@
         <v>-6</v>
       </c>
       <c r="J639">
-        <v>18.82351684570312</v>
+        <v>61.21083426475525</v>
       </c>
       <c r="K639">
         <v>-12</v>
@@ -28039,7 +28039,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J640">
-        <v>19.10980486869812</v>
+        <v>63.60624670982361</v>
       </c>
       <c r="K640">
         <v>-12</v>
@@ -28080,7 +28080,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J641">
-        <v>18.91832804679871</v>
+        <v>65.15962815284729</v>
       </c>
       <c r="K641">
         <v>-12</v>
@@ -28121,7 +28121,7 @@
         <v>-6</v>
       </c>
       <c r="J642">
-        <v>18.91339993476868</v>
+        <v>60.73156929016113</v>
       </c>
       <c r="K642">
         <v>-12</v>
@@ -28162,7 +28162,7 @@
         <v>-2.999999536140714</v>
       </c>
       <c r="J643">
-        <v>18.85897088050842</v>
+        <v>60.48210096359253</v>
       </c>
       <c r="K643">
         <v>-8.999999536140713</v>
@@ -28203,7 +28203,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J644">
-        <v>18.87572407722473</v>
+        <v>58.93701481819153</v>
       </c>
       <c r="K644">
         <v>-12</v>
@@ -28244,7 +28244,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J645">
-        <v>21.887610912323</v>
+        <v>64.96429991722107</v>
       </c>
       <c r="K645">
         <v>-12</v>
@@ -28285,7 +28285,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J646">
-        <v>18.97814702987671</v>
+        <v>64.10037708282471</v>
       </c>
       <c r="K646">
         <v>-12</v>
@@ -28326,7 +28326,7 @@
         <v>-2.999999968624983</v>
       </c>
       <c r="J647">
-        <v>18.74143409729004</v>
+        <v>60.80306696891785</v>
       </c>
       <c r="K647">
         <v>-8.999999968624984</v>
@@ -28367,7 +28367,7 @@
         <v>-6</v>
       </c>
       <c r="J648">
-        <v>19.13077306747437</v>
+        <v>64.81992197036743</v>
       </c>
       <c r="K648">
         <v>-12</v>
@@ -28408,7 +28408,7 @@
         <v>-6</v>
       </c>
       <c r="J649">
-        <v>18.21976661682129</v>
+        <v>64.34983277320862</v>
       </c>
       <c r="K649">
         <v>-12</v>
@@ -28449,7 +28449,7 @@
         <v>-5.999999999999991</v>
       </c>
       <c r="J650">
-        <v>17.41546416282654</v>
+        <v>64.95142102241516</v>
       </c>
       <c r="K650">
         <v>-11.99999999999999</v>
@@ -28490,7 +28490,7 @@
         <v>-6</v>
       </c>
       <c r="J651">
-        <v>18.04270601272583</v>
+        <v>60.60864686965942</v>
       </c>
       <c r="K651">
         <v>-12</v>
@@ -28531,7 +28531,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J652">
-        <v>17.63733124732971</v>
+        <v>65.13111138343811</v>
       </c>
       <c r="K652">
         <v>-12</v>
@@ -28572,7 +28572,7 @@
         <v>-5.999999999963308</v>
       </c>
       <c r="J653">
-        <v>17.9527428150177</v>
+        <v>64.12491178512573</v>
       </c>
       <c r="K653">
         <v>-11.99999999996331</v>
@@ -28613,7 +28613,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J654">
-        <v>17.40273880958557</v>
+        <v>62.46773195266724</v>
       </c>
       <c r="K654">
         <v>-12</v>
@@ -28654,7 +28654,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J655">
-        <v>17.61085104942322</v>
+        <v>60.18863415718079</v>
       </c>
       <c r="K655">
         <v>-12</v>
@@ -28695,7 +28695,7 @@
         <v>-2.999999621876644</v>
       </c>
       <c r="J656">
-        <v>18.18970203399658</v>
+        <v>63.42862415313721</v>
       </c>
       <c r="K656">
         <v>-8.999999621876643</v>
@@ -28736,7 +28736,7 @@
         <v>-6</v>
       </c>
       <c r="J657">
-        <v>18.82591485977173</v>
+        <v>61.06041121482849</v>
       </c>
       <c r="K657">
         <v>-12</v>
@@ -28777,7 +28777,7 @@
         <v>-6</v>
       </c>
       <c r="J658">
-        <v>19.01984310150146</v>
+        <v>61.84931921958923</v>
       </c>
       <c r="K658">
         <v>-12</v>
@@ -28818,7 +28818,7 @@
         <v>-6</v>
       </c>
       <c r="J659">
-        <v>18.67928290367126</v>
+        <v>65.15331888198853</v>
       </c>
       <c r="K659">
         <v>-12</v>
@@ -28859,7 +28859,7 @@
         <v>-6</v>
       </c>
       <c r="J660">
-        <v>18.87441301345825</v>
+        <v>61.79716873168945</v>
       </c>
       <c r="K660">
         <v>-12</v>
@@ -28900,7 +28900,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J661">
-        <v>19.08196115493774</v>
+        <v>64.268150806427</v>
       </c>
       <c r="K661">
         <v>-12.00000000000001</v>
@@ -28941,7 +28941,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J662">
-        <v>18.87545704841614</v>
+        <v>62.447505235672</v>
       </c>
       <c r="K662">
         <v>-12</v>
@@ -28982,7 +28982,7 @@
         <v>-6</v>
       </c>
       <c r="J663">
-        <v>18.80871391296387</v>
+        <v>65.03820896148682</v>
       </c>
       <c r="K663">
         <v>-12</v>
@@ -29023,7 +29023,7 @@
         <v>-6</v>
       </c>
       <c r="J664">
-        <v>19.34398293495178</v>
+        <v>64.01658821105957</v>
       </c>
       <c r="K664">
         <v>-12</v>
@@ -29064,7 +29064,7 @@
         <v>-6</v>
       </c>
       <c r="J665">
-        <v>18.78335285186768</v>
+        <v>61.5096869468689</v>
       </c>
       <c r="K665">
         <v>-12</v>
@@ -29105,7 +29105,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J666">
-        <v>18.93901109695435</v>
+        <v>64.58220100402832</v>
       </c>
       <c r="K666">
         <v>-12</v>
@@ -29146,7 +29146,7 @@
         <v>-2.999999976285117</v>
       </c>
       <c r="J667">
-        <v>18.83211207389832</v>
+        <v>64.2222216129303</v>
       </c>
       <c r="K667">
         <v>-8.999999976285117</v>
@@ -29187,7 +29187,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J668">
-        <v>18.67409610748291</v>
+        <v>61.1272828578949</v>
       </c>
       <c r="K668">
         <v>-11.99999999999999</v>
@@ -29228,7 +29228,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J669">
-        <v>18.83543992042542</v>
+        <v>64.37272906303406</v>
       </c>
       <c r="K669">
         <v>-12</v>
@@ -29269,7 +29269,7 @@
         <v>-2.999999975902966</v>
       </c>
       <c r="J670">
-        <v>18.77083516120911</v>
+        <v>62.18579411506653</v>
       </c>
       <c r="K670">
         <v>-8.999999975902966</v>
@@ -29310,7 +29310,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J671">
-        <v>18.83437705039978</v>
+        <v>64.89502477645874</v>
       </c>
       <c r="K671">
         <v>-12.00000000000001</v>
@@ -29351,7 +29351,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J672">
-        <v>18.75037693977356</v>
+        <v>60.61673307418823</v>
       </c>
       <c r="K672">
         <v>-12</v>
@@ -29392,7 +29392,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J673">
-        <v>18.91585874557495</v>
+        <v>64.88714694976807</v>
       </c>
       <c r="K673">
         <v>-12</v>
@@ -29433,7 +29433,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J674">
-        <v>18.73339438438416</v>
+        <v>64.13976669311523</v>
       </c>
       <c r="K674">
         <v>-12</v>
@@ -29474,7 +29474,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J675">
-        <v>19.03204703330994</v>
+        <v>64.73213481903076</v>
       </c>
       <c r="K675">
         <v>-12</v>
@@ -29515,7 +29515,7 @@
         <v>-6</v>
       </c>
       <c r="J676">
-        <v>18.75781607627869</v>
+        <v>63.91558599472046</v>
       </c>
       <c r="K676">
         <v>-12</v>
@@ -29556,7 +29556,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J677">
-        <v>20.58966016769409</v>
+        <v>64.09095883369446</v>
       </c>
       <c r="K677">
         <v>-12</v>
@@ -29597,7 +29597,7 @@
         <v>-6</v>
       </c>
       <c r="J678">
-        <v>18.7725203037262</v>
+        <v>62.62342715263367</v>
       </c>
       <c r="K678">
         <v>-12</v>
@@ -29638,7 +29638,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J679">
-        <v>18.83422112464905</v>
+        <v>64.40897798538208</v>
       </c>
       <c r="K679">
         <v>-11.99999999999999</v>
@@ -29679,7 +29679,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J680">
-        <v>18.94377112388611</v>
+        <v>65.00005888938904</v>
       </c>
       <c r="K680">
         <v>-12</v>
@@ -29720,7 +29720,7 @@
         <v>-6</v>
       </c>
       <c r="J681">
-        <v>18.6889967918396</v>
+        <v>64.01763510704041</v>
       </c>
       <c r="K681">
         <v>-12</v>
@@ -29761,7 +29761,7 @@
         <v>-6</v>
       </c>
       <c r="J682">
-        <v>18.71919989585876</v>
+        <v>64.76909685134888</v>
       </c>
       <c r="K682">
         <v>-12</v>
@@ -29802,7 +29802,7 @@
         <v>-2.999999037045589</v>
       </c>
       <c r="J683">
-        <v>19.27015495300293</v>
+        <v>62.37065720558167</v>
       </c>
       <c r="K683">
         <v>-8.999999037045589</v>
@@ -29843,7 +29843,7 @@
         <v>-6</v>
       </c>
       <c r="J684">
-        <v>18.90411806106567</v>
+        <v>64.8619122505188</v>
       </c>
       <c r="K684">
         <v>-12</v>
@@ -29884,7 +29884,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J685">
-        <v>18.74408912658691</v>
+        <v>63.64072704315186</v>
       </c>
       <c r="K685">
         <v>-11.99999999999999</v>
@@ -29925,7 +29925,7 @@
         <v>-6</v>
       </c>
       <c r="J686">
-        <v>18.10585594177246</v>
+        <v>59.87706613540649</v>
       </c>
       <c r="K686">
         <v>-12</v>
@@ -29966,7 +29966,7 @@
         <v>-6</v>
       </c>
       <c r="J687">
-        <v>16.6499171257019</v>
+        <v>64.77003598213196</v>
       </c>
       <c r="K687">
         <v>-12</v>
@@ -30007,7 +30007,7 @@
         <v>-6</v>
       </c>
       <c r="J688">
-        <v>24.91761827468872</v>
+        <v>64.30096197128296</v>
       </c>
       <c r="K688">
         <v>-12</v>
@@ -30048,7 +30048,7 @@
         <v>-3.000004463765615</v>
       </c>
       <c r="J689">
-        <v>23.49465394020081</v>
+        <v>65.26169395446777</v>
       </c>
       <c r="K689">
         <v>-9.000004463765615</v>
@@ -30089,7 +30089,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J690">
-        <v>18.37416815757751</v>
+        <v>62.758633852005</v>
       </c>
       <c r="K690">
         <v>-12</v>
@@ -30130,7 +30130,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J691">
-        <v>24.03780603408813</v>
+        <v>65.20084309577942</v>
       </c>
       <c r="K691">
         <v>-12</v>
@@ -30171,7 +30171,7 @@
         <v>-6</v>
       </c>
       <c r="J692">
-        <v>19.90850377082825</v>
+        <v>65.15592122077942</v>
       </c>
       <c r="K692">
         <v>-12</v>
@@ -30212,7 +30212,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J693">
-        <v>18.98255586624146</v>
+        <v>62.73583579063416</v>
       </c>
       <c r="K693">
         <v>-12</v>
@@ -30253,7 +30253,7 @@
         <v>-6</v>
       </c>
       <c r="J694">
-        <v>18.64441108703613</v>
+        <v>64.92154812812805</v>
       </c>
       <c r="K694">
         <v>-12</v>
@@ -30294,7 +30294,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J695">
-        <v>18.68343901634216</v>
+        <v>60.69262528419495</v>
       </c>
       <c r="K695">
         <v>-12</v>
@@ -30335,7 +30335,7 @@
         <v>-2.999999938214823</v>
       </c>
       <c r="J696">
-        <v>18.79904103279114</v>
+        <v>65.07519721984863</v>
       </c>
       <c r="K696">
         <v>-8.999999938214824</v>
@@ -30376,7 +30376,7 @@
         <v>-6</v>
       </c>
       <c r="J697">
-        <v>18.91165089607239</v>
+        <v>62.70813798904419</v>
       </c>
       <c r="K697">
         <v>-12</v>
@@ -30417,7 +30417,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J698">
-        <v>19.05616402626038</v>
+        <v>64.85366988182068</v>
       </c>
       <c r="K698">
         <v>-12</v>
@@ -30458,7 +30458,7 @@
         <v>-6</v>
       </c>
       <c r="J699">
-        <v>18.77286696434021</v>
+        <v>64.80589413642883</v>
       </c>
       <c r="K699">
         <v>-12</v>
@@ -30499,7 +30499,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J700">
-        <v>18.9893491268158</v>
+        <v>63.97156524658203</v>
       </c>
       <c r="K700">
         <v>-12</v>
@@ -30540,7 +30540,7 @@
         <v>-6</v>
       </c>
       <c r="J701">
-        <v>19.02083015441895</v>
+        <v>63.34744000434875</v>
       </c>
       <c r="K701">
         <v>-12</v>
@@ -30581,7 +30581,7 @@
         <v>-6</v>
       </c>
       <c r="J702">
-        <v>18.93387126922607</v>
+        <v>64.0704939365387</v>
       </c>
       <c r="K702">
         <v>-12</v>
@@ -30622,7 +30622,7 @@
         <v>-2.999999444291955</v>
       </c>
       <c r="J703">
-        <v>18.9385998249054</v>
+        <v>64.93242979049683</v>
       </c>
       <c r="K703">
         <v>-8.999999444291955</v>
@@ -30663,7 +30663,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J704">
-        <v>18.79540491104126</v>
+        <v>64.13091516494751</v>
       </c>
       <c r="K704">
         <v>-12</v>
@@ -30704,7 +30704,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J705">
-        <v>19.07817006111145</v>
+        <v>64.74840688705444</v>
       </c>
       <c r="K705">
         <v>-12</v>
@@ -30745,7 +30745,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J706">
-        <v>18.93052577972412</v>
+        <v>64.9729208946228</v>
       </c>
       <c r="K706">
         <v>-12</v>
@@ -30786,7 +30786,7 @@
         <v>-6</v>
       </c>
       <c r="J707">
-        <v>18.79854083061218</v>
+        <v>64.28371596336365</v>
       </c>
       <c r="K707">
         <v>-12</v>
@@ -30827,7 +30827,7 @@
         <v>-2.999999997749244</v>
       </c>
       <c r="J708">
-        <v>20.44971418380737</v>
+        <v>64.79517197608948</v>
       </c>
       <c r="K708">
         <v>-8.999999997749244</v>
@@ -30868,7 +30868,7 @@
         <v>-2.99996859441535</v>
       </c>
       <c r="J709">
-        <v>19.67878198623657</v>
+        <v>64.01035380363464</v>
       </c>
       <c r="K709">
         <v>-8.99996859441535</v>
@@ -30909,7 +30909,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J710">
-        <v>18.91027283668518</v>
+        <v>64.86509799957275</v>
       </c>
       <c r="K710">
         <v>-12</v>
@@ -30950,7 +30950,7 @@
         <v>-2.99999513246501</v>
       </c>
       <c r="J711">
-        <v>19.75743508338928</v>
+        <v>63.20505309104919</v>
       </c>
       <c r="K711">
         <v>-8.99999513246501</v>
@@ -30991,7 +30991,7 @@
         <v>-6</v>
       </c>
       <c r="J712">
-        <v>21.12605476379395</v>
+        <v>63.93924283981323</v>
       </c>
       <c r="K712">
         <v>-12</v>
@@ -31032,7 +31032,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J713">
-        <v>22.22734403610229</v>
+        <v>65.30245232582092</v>
       </c>
       <c r="K713">
         <v>-12</v>
@@ -31073,7 +31073,7 @@
         <v>-6</v>
       </c>
       <c r="J714">
-        <v>19.61268997192383</v>
+        <v>56.91655492782593</v>
       </c>
       <c r="K714">
         <v>-12</v>
@@ -31114,7 +31114,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J715">
-        <v>19.66942405700684</v>
+        <v>62.97248101234436</v>
       </c>
       <c r="K715">
         <v>-12</v>
@@ -31155,7 +31155,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J716">
-        <v>28.07461786270142</v>
+        <v>64.04723787307739</v>
       </c>
       <c r="K716">
         <v>-12</v>
@@ -31196,7 +31196,7 @@
         <v>-2.999999925253121</v>
       </c>
       <c r="J717">
-        <v>18.64096713066101</v>
+        <v>65.14829111099243</v>
       </c>
       <c r="K717">
         <v>-8.999999925253121</v>
@@ -31237,7 +31237,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J718">
-        <v>18.81095910072327</v>
+        <v>64.32791590690613</v>
       </c>
       <c r="K718">
         <v>-12</v>
@@ -31278,7 +31278,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J719">
-        <v>18.87114500999451</v>
+        <v>58.52373623847961</v>
       </c>
       <c r="K719">
         <v>-12</v>
@@ -31319,7 +31319,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J720">
-        <v>18.90661907196045</v>
+        <v>65.09539079666138</v>
       </c>
       <c r="K720">
         <v>-12</v>
@@ -31360,7 +31360,7 @@
         <v>-2.999999541328967</v>
       </c>
       <c r="J721">
-        <v>18.64689826965332</v>
+        <v>60.11601209640503</v>
       </c>
       <c r="K721">
         <v>-8.999999541328966</v>
@@ -31401,7 +31401,7 @@
         <v>-6</v>
       </c>
       <c r="J722">
-        <v>18.94478106498718</v>
+        <v>65.07032203674316</v>
       </c>
       <c r="K722">
         <v>-12</v>
@@ -31442,7 +31442,7 @@
         <v>-6</v>
       </c>
       <c r="J723">
-        <v>19.24929404258728</v>
+        <v>63.51834511756897</v>
       </c>
       <c r="K723">
         <v>-12</v>
@@ -31483,7 +31483,7 @@
         <v>-6</v>
       </c>
       <c r="J724">
-        <v>19.05367684364319</v>
+        <v>62.01809287071228</v>
       </c>
       <c r="K724">
         <v>-12</v>
@@ -31524,7 +31524,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J725">
-        <v>19.74374079704285</v>
+        <v>64.1969358921051</v>
       </c>
       <c r="K725">
         <v>-12</v>
@@ -31565,7 +31565,7 @@
         <v>-6</v>
       </c>
       <c r="J726">
-        <v>18.7375590801239</v>
+        <v>63.30051922798157</v>
       </c>
       <c r="K726">
         <v>-12</v>
@@ -31606,7 +31606,7 @@
         <v>-2.999999568479557</v>
       </c>
       <c r="J727">
-        <v>18.88181591033936</v>
+        <v>64.17971992492676</v>
       </c>
       <c r="K727">
         <v>-8.999999568479556</v>
@@ -31647,7 +31647,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J728">
-        <v>18.80043792724609</v>
+        <v>64.79898977279663</v>
       </c>
       <c r="K728">
         <v>-12</v>
@@ -31688,7 +31688,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J729">
-        <v>18.65994381904602</v>
+        <v>59.4302659034729</v>
       </c>
       <c r="K729">
         <v>-12</v>
@@ -31729,7 +31729,7 @@
         <v>-1.999999410685923</v>
       </c>
       <c r="J730">
-        <v>18.74139881134033</v>
+        <v>62.8486430644989</v>
       </c>
       <c r="K730">
         <v>-7.999999410685923</v>
@@ -31770,7 +31770,7 @@
         <v>-6</v>
       </c>
       <c r="J731">
-        <v>18.84194111824036</v>
+        <v>64.90026497840881</v>
       </c>
       <c r="K731">
         <v>-12</v>
@@ -31811,7 +31811,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J732">
-        <v>18.64575004577637</v>
+        <v>61.12736797332764</v>
       </c>
       <c r="K732">
         <v>-11.99999999999999</v>
@@ -31852,7 +31852,7 @@
         <v>-6</v>
       </c>
       <c r="J733">
-        <v>18.76602911949158</v>
+        <v>64.74729585647583</v>
       </c>
       <c r="K733">
         <v>-12</v>
@@ -31893,7 +31893,7 @@
         <v>-6</v>
       </c>
       <c r="J734">
-        <v>18.92763090133667</v>
+        <v>61.37204718589783</v>
       </c>
       <c r="K734">
         <v>-12</v>
@@ -31934,7 +31934,7 @@
         <v>-1.999999494597488</v>
       </c>
       <c r="J735">
-        <v>18.79038500785828</v>
+        <v>64.86919689178467</v>
       </c>
       <c r="K735">
         <v>-7.999999494597488</v>
@@ -31975,7 +31975,7 @@
         <v>-6</v>
       </c>
       <c r="J736">
-        <v>18.81208825111389</v>
+        <v>58.87225794792175</v>
       </c>
       <c r="K736">
         <v>-12</v>
@@ -32016,7 +32016,7 @@
         <v>-6</v>
       </c>
       <c r="J737">
-        <v>18.7958869934082</v>
+        <v>64.85131406784058</v>
       </c>
       <c r="K737">
         <v>-12</v>
@@ -32057,7 +32057,7 @@
         <v>-6</v>
       </c>
       <c r="J738">
-        <v>19.32482981681824</v>
+        <v>62.87891006469727</v>
       </c>
       <c r="K738">
         <v>-12</v>
@@ -32098,7 +32098,7 @@
         <v>-6</v>
       </c>
       <c r="J739">
-        <v>20.79950523376465</v>
+        <v>60.52612781524658</v>
       </c>
       <c r="K739">
         <v>-12</v>
@@ -32139,7 +32139,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J740">
-        <v>19.33335399627686</v>
+        <v>64.60966682434082</v>
       </c>
       <c r="K740">
         <v>-12</v>
@@ -32180,7 +32180,7 @@
         <v>-6</v>
       </c>
       <c r="J741">
-        <v>18.87091684341431</v>
+        <v>63.89301919937134</v>
       </c>
       <c r="K741">
         <v>-12</v>
@@ -32221,7 +32221,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J742">
-        <v>18.78591203689575</v>
+        <v>64.71487593650818</v>
       </c>
       <c r="K742">
         <v>-12</v>
@@ -32262,7 +32262,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J743">
-        <v>26.16538596153259</v>
+        <v>63.90902185440063</v>
       </c>
       <c r="K743">
         <v>-12</v>
@@ -32303,7 +32303,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J744">
-        <v>18.96172881126404</v>
+        <v>63.15018177032471</v>
       </c>
       <c r="K744">
         <v>-12</v>
@@ -32344,7 +32344,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J745">
-        <v>18.7869701385498</v>
+        <v>64.15184688568115</v>
       </c>
       <c r="K745">
         <v>-12</v>
@@ -32385,7 +32385,7 @@
         <v>-2.999999856733651</v>
       </c>
       <c r="J746">
-        <v>18.6973888874054</v>
+        <v>64.43099617958069</v>
       </c>
       <c r="K746">
         <v>-8.99999985673365</v>
@@ -32426,7 +32426,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J747">
-        <v>19.02596092224121</v>
+        <v>64.94567394256592</v>
       </c>
       <c r="K747">
         <v>-11.99999999999999</v>
@@ -32467,7 +32467,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J748">
-        <v>18.97052407264709</v>
+        <v>63.79545593261719</v>
       </c>
       <c r="K748">
         <v>-12</v>
@@ -32508,7 +32508,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J749">
-        <v>18.91515111923218</v>
+        <v>64.09925484657288</v>
       </c>
       <c r="K749">
         <v>-11.99999999999999</v>
@@ -32549,7 +32549,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J750">
-        <v>18.91392803192139</v>
+        <v>64.86326885223389</v>
       </c>
       <c r="K750">
         <v>-12</v>
@@ -32590,7 +32590,7 @@
         <v>-2.999999962273923</v>
       </c>
       <c r="J751">
-        <v>19.2573938369751</v>
+        <v>64.47896313667297</v>
       </c>
       <c r="K751">
         <v>-8.999999962273922</v>
@@ -32631,7 +32631,7 @@
         <v>-2.999999474962086</v>
       </c>
       <c r="J752">
-        <v>18.80988025665283</v>
+        <v>63.69969487190247</v>
       </c>
       <c r="K752">
         <v>-8.999999474962086</v>
@@ -32672,7 +32672,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J753">
-        <v>18.91210317611694</v>
+        <v>64.12453722953796</v>
       </c>
       <c r="K753">
         <v>-11.99999999999999</v>
@@ -32713,7 +32713,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J754">
-        <v>18.91132593154907</v>
+        <v>63.35867595672607</v>
       </c>
       <c r="K754">
         <v>-12</v>
@@ -32754,7 +32754,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J755">
-        <v>19.99700498580933</v>
+        <v>64.0389199256897</v>
       </c>
       <c r="K755">
         <v>-12</v>
@@ -32795,7 +32795,7 @@
         <v>-6</v>
       </c>
       <c r="J756">
-        <v>19.15345621109009</v>
+        <v>64.78747701644897</v>
       </c>
       <c r="K756">
         <v>-12</v>
@@ -32836,7 +32836,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J757">
-        <v>18.8786461353302</v>
+        <v>63.66673874855042</v>
       </c>
       <c r="K757">
         <v>-12</v>
@@ -32877,7 +32877,7 @@
         <v>-2.999999736321198</v>
       </c>
       <c r="J758">
-        <v>18.83315920829773</v>
+        <v>64.05646991729736</v>
       </c>
       <c r="K758">
         <v>-8.999999736321197</v>
@@ -32918,7 +32918,7 @@
         <v>-6</v>
       </c>
       <c r="J759">
-        <v>18.75171089172363</v>
+        <v>64.74613094329834</v>
       </c>
       <c r="K759">
         <v>-12</v>
@@ -32959,7 +32959,7 @@
         <v>-6</v>
       </c>
       <c r="J760">
-        <v>19.30956602096558</v>
+        <v>64.18651008605957</v>
       </c>
       <c r="K760">
         <v>-12</v>
@@ -33000,7 +33000,7 @@
         <v>-2.999999793187509</v>
       </c>
       <c r="J761">
-        <v>18.79219102859497</v>
+        <v>64.57370805740356</v>
       </c>
       <c r="K761">
         <v>-8.999999793187509</v>
@@ -33041,7 +33041,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J762">
-        <v>18.79861092567444</v>
+        <v>64.05211281776428</v>
       </c>
       <c r="K762">
         <v>-12</v>
@@ -33082,7 +33082,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J763">
-        <v>19.02328276634216</v>
+        <v>64.75442814826965</v>
       </c>
       <c r="K763">
         <v>-12</v>
@@ -33123,7 +33123,7 @@
         <v>-6</v>
       </c>
       <c r="J764">
-        <v>19.23700404167175</v>
+        <v>65.91449499130249</v>
       </c>
       <c r="K764">
         <v>-12</v>
@@ -33164,7 +33164,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J765">
-        <v>18.82523989677429</v>
+        <v>64.06145000457764</v>
       </c>
       <c r="K765">
         <v>-12</v>
@@ -33205,7 +33205,7 @@
         <v>-2.999999647462775</v>
       </c>
       <c r="J766">
-        <v>18.90893888473511</v>
+        <v>65.05235505104065</v>
       </c>
       <c r="K766">
         <v>-8.999999647462776</v>
@@ -33246,7 +33246,7 @@
         <v>-6</v>
       </c>
       <c r="J767">
-        <v>18.76373219490051</v>
+        <v>61.94480323791504</v>
       </c>
       <c r="K767">
         <v>-12</v>
@@ -33287,7 +33287,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J768">
-        <v>19.22652411460876</v>
+        <v>65.11828088760376</v>
       </c>
       <c r="K768">
         <v>-12</v>
@@ -33328,7 +33328,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J769">
-        <v>22.7621910572052</v>
+        <v>64.26279401779175</v>
       </c>
       <c r="K769">
         <v>-12</v>
@@ -33369,7 +33369,7 @@
         <v>-6</v>
       </c>
       <c r="J770">
-        <v>23.89470195770264</v>
+        <v>64.71763920783997</v>
       </c>
       <c r="K770">
         <v>-12</v>
@@ -33410,7 +33410,7 @@
         <v>-1.999999205563604</v>
       </c>
       <c r="J771">
-        <v>18.92746591567993</v>
+        <v>61.99680519104004</v>
       </c>
       <c r="K771">
         <v>-7.999999205563604</v>
@@ -33451,7 +33451,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J772">
-        <v>18.90262126922607</v>
+        <v>63.93344187736511</v>
       </c>
       <c r="K772">
         <v>-12</v>
@@ -33492,7 +33492,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J773">
-        <v>19.54066395759583</v>
+        <v>63.00281500816345</v>
       </c>
       <c r="K773">
         <v>-12</v>
@@ -33533,7 +33533,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J774">
-        <v>18.9459400177002</v>
+        <v>64.57108807563782</v>
       </c>
       <c r="K774">
         <v>-12</v>
@@ -33574,7 +33574,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J775">
-        <v>18.99373698234558</v>
+        <v>65.02743291854858</v>
       </c>
       <c r="K775">
         <v>-12</v>
@@ -33615,7 +33615,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J776">
-        <v>18.79762482643127</v>
+        <v>61.25267505645752</v>
       </c>
       <c r="K776">
         <v>-12</v>
@@ -33656,7 +33656,7 @@
         <v>-1.999998558310303</v>
       </c>
       <c r="J777">
-        <v>19.18072915077209</v>
+        <v>56.6349241733551</v>
       </c>
       <c r="K777">
         <v>-7.999998558310303</v>
@@ -33697,7 +33697,7 @@
         <v>-6</v>
       </c>
       <c r="J778">
-        <v>18.7964448928833</v>
+        <v>65.61443519592285</v>
       </c>
       <c r="K778">
         <v>-12</v>
@@ -33738,7 +33738,7 @@
         <v>-6</v>
       </c>
       <c r="J779">
-        <v>18.83108019828796</v>
+        <v>62.57615113258362</v>
       </c>
       <c r="K779">
         <v>-12</v>
@@ -33779,7 +33779,7 @@
         <v>-2.99999999908279</v>
       </c>
       <c r="J780">
-        <v>20.15901207923889</v>
+        <v>65.15528130531311</v>
       </c>
       <c r="K780">
         <v>-8.999999999082789</v>
@@ -33820,7 +33820,7 @@
         <v>-6</v>
       </c>
       <c r="J781">
-        <v>21.12890887260437</v>
+        <v>64.3445508480072</v>
       </c>
       <c r="K781">
         <v>-12</v>
@@ -33861,7 +33861,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J782">
-        <v>18.91643023490906</v>
+        <v>65.09058308601379</v>
       </c>
       <c r="K782">
         <v>-12.00000000000001</v>
@@ -33902,7 +33902,7 @@
         <v>-6</v>
       </c>
       <c r="J783">
-        <v>18.97095990180969</v>
+        <v>58.19338178634644</v>
       </c>
       <c r="K783">
         <v>-12</v>
@@ -33943,7 +33943,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J784">
-        <v>18.87167906761169</v>
+        <v>64.783047914505</v>
       </c>
       <c r="K784">
         <v>-12</v>
@@ -33984,7 +33984,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J785">
-        <v>19.17644572257996</v>
+        <v>60.92158389091492</v>
       </c>
       <c r="K785">
         <v>-12</v>
@@ -34025,7 +34025,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J786">
-        <v>18.77097272872925</v>
+        <v>64.20677781105042</v>
       </c>
       <c r="K786">
         <v>-12</v>
@@ -34066,7 +34066,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J787">
-        <v>18.77822494506836</v>
+        <v>65.13750004768372</v>
       </c>
       <c r="K787">
         <v>-12</v>
@@ -34107,7 +34107,7 @@
         <v>-6</v>
       </c>
       <c r="J788">
-        <v>18.82695603370667</v>
+        <v>63.22998595237732</v>
       </c>
       <c r="K788">
         <v>-12</v>
@@ -34148,7 +34148,7 @@
         <v>-6</v>
       </c>
       <c r="J789">
-        <v>18.89340424537659</v>
+        <v>64.92785096168518</v>
       </c>
       <c r="K789">
         <v>-12</v>
@@ -34189,7 +34189,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J790">
-        <v>19.14744710922241</v>
+        <v>64.29194116592407</v>
       </c>
       <c r="K790">
         <v>-11.99999999999999</v>
@@ -34230,7 +34230,7 @@
         <v>-2.999755093402241</v>
       </c>
       <c r="J791">
-        <v>18.90313792228699</v>
+        <v>63.10014224052429</v>
       </c>
       <c r="K791">
         <v>-8.999755093402241</v>
@@ -34271,7 +34271,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J792">
-        <v>18.85867500305176</v>
+        <v>65.50229096412659</v>
       </c>
       <c r="K792">
         <v>-12</v>
@@ -34312,7 +34312,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J793">
-        <v>18.97920799255371</v>
+        <v>60.94028091430664</v>
       </c>
       <c r="K793">
         <v>-12</v>
@@ -34353,7 +34353,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J794">
-        <v>18.57361602783203</v>
+        <v>64.71466517448425</v>
       </c>
       <c r="K794">
         <v>-12.00000000000001</v>
@@ -34394,7 +34394,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J795">
-        <v>19.10501885414124</v>
+        <v>61.62310123443604</v>
       </c>
       <c r="K795">
         <v>-12</v>
@@ -34435,7 +34435,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J796">
-        <v>18.90310573577881</v>
+        <v>59.28426694869995</v>
       </c>
       <c r="K796">
         <v>-12.00000000000001</v>
@@ -34476,7 +34476,7 @@
         <v>-5.999999999999975</v>
       </c>
       <c r="J797">
-        <v>18.85593104362488</v>
+        <v>63.98125696182251</v>
       </c>
       <c r="K797">
         <v>-11.99999999999998</v>
@@ -34517,7 +34517,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J798">
-        <v>18.70808506011963</v>
+        <v>65.04226016998291</v>
       </c>
       <c r="K798">
         <v>-12</v>
@@ -34558,7 +34558,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J799">
-        <v>17.42857027053833</v>
+        <v>63.82380270957947</v>
       </c>
       <c r="K799">
         <v>-12</v>
@@ -34599,7 +34599,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J800">
-        <v>16.87457895278931</v>
+        <v>58.38407516479492</v>
       </c>
       <c r="K800">
         <v>-12</v>
@@ -34640,7 +34640,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J801">
-        <v>18.12382507324219</v>
+        <v>53.11310005187988</v>
       </c>
       <c r="K801">
         <v>-12</v>
@@ -34681,7 +34681,7 @@
         <v>-6</v>
       </c>
       <c r="J802">
-        <v>16.65519595146179</v>
+        <v>53.02946281433105</v>
       </c>
       <c r="K802">
         <v>-12</v>
@@ -34722,7 +34722,7 @@
         <v>-6</v>
       </c>
       <c r="J803">
-        <v>16.34341716766357</v>
+        <v>51.90590310096741</v>
       </c>
       <c r="K803">
         <v>-12</v>
@@ -34763,7 +34763,7 @@
         <v>-6</v>
       </c>
       <c r="J804">
-        <v>16.70152401924133</v>
+        <v>52.7439489364624</v>
       </c>
       <c r="K804">
         <v>-12</v>
@@ -34804,7 +34804,7 @@
         <v>-2.999999757259601</v>
       </c>
       <c r="J805">
-        <v>16.3755509853363</v>
+        <v>51.66260814666748</v>
       </c>
       <c r="K805">
         <v>-8.999999757259602</v>
@@ -34845,7 +34845,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J806">
-        <v>18.16940498352051</v>
+        <v>52.21147394180298</v>
       </c>
       <c r="K806">
         <v>-11.99999999999999</v>
@@ -34886,7 +34886,7 @@
         <v>-6</v>
       </c>
       <c r="J807">
-        <v>18.30645203590393</v>
+        <v>51.83818411827087</v>
       </c>
       <c r="K807">
         <v>-12</v>
@@ -34927,7 +34927,7 @@
         <v>-2.999999070486238</v>
       </c>
       <c r="J808">
-        <v>16.84142827987671</v>
+        <v>52.38466095924377</v>
       </c>
       <c r="K808">
         <v>-8.999999070486238</v>
@@ -34968,7 +34968,7 @@
         <v>-6</v>
       </c>
       <c r="J809">
-        <v>16.51938509941101</v>
+        <v>52.04340767860413</v>
       </c>
       <c r="K809">
         <v>-12</v>
@@ -35009,7 +35009,7 @@
         <v>-2.999999955561841</v>
       </c>
       <c r="J810">
-        <v>16.9940333366394</v>
+        <v>52.20785784721375</v>
       </c>
       <c r="K810">
         <v>-8.99999995556184</v>
@@ -35050,7 +35050,7 @@
         <v>-6</v>
       </c>
       <c r="J811">
-        <v>16.50248289108276</v>
+        <v>52.23009514808655</v>
       </c>
       <c r="K811">
         <v>-12</v>
@@ -35091,7 +35091,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J812">
-        <v>16.37748098373413</v>
+        <v>51.76427221298218</v>
       </c>
       <c r="K812">
         <v>-12</v>
@@ -35132,7 +35132,7 @@
         <v>-2.999998810535738</v>
       </c>
       <c r="J813">
-        <v>16.60894989967346</v>
+        <v>52.55844807624817</v>
       </c>
       <c r="K813">
         <v>-8.999998810535738</v>
@@ -35173,7 +35173,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J814">
-        <v>17.27223992347717</v>
+        <v>51.79825401306152</v>
       </c>
       <c r="K814">
         <v>-12</v>
@@ -35214,7 +35214,7 @@
         <v>-2.999998144770973</v>
       </c>
       <c r="J815">
-        <v>16.53986477851868</v>
+        <v>52.45520401000977</v>
       </c>
       <c r="K815">
         <v>-8.999998144770974</v>
@@ -35255,7 +35255,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J816">
-        <v>16.417316198349</v>
+        <v>51.95969104766846</v>
       </c>
       <c r="K816">
         <v>-12</v>
@@ -35296,7 +35296,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J817">
-        <v>18.36394786834717</v>
+        <v>52.61178398132324</v>
       </c>
       <c r="K817">
         <v>-12</v>
@@ -35337,7 +35337,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J818">
-        <v>18.35439991950989</v>
+        <v>51.15866303443909</v>
       </c>
       <c r="K818">
         <v>-12</v>
@@ -35378,7 +35378,7 @@
         <v>-6</v>
       </c>
       <c r="J819">
-        <v>16.39504194259644</v>
+        <v>52.65463709831238</v>
       </c>
       <c r="K819">
         <v>-12</v>
@@ -35419,7 +35419,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J820">
-        <v>16.46954083442688</v>
+        <v>51.91075301170349</v>
       </c>
       <c r="K820">
         <v>-12</v>
@@ -35460,7 +35460,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J821">
-        <v>16.40754818916321</v>
+        <v>52.06039977073669</v>
       </c>
       <c r="K821">
         <v>-12</v>
@@ -35501,7 +35501,7 @@
         <v>-6</v>
       </c>
       <c r="J822">
-        <v>16.47782874107361</v>
+        <v>51.86445593833923</v>
       </c>
       <c r="K822">
         <v>-12</v>
@@ -35542,7 +35542,7 @@
         <v>-2.99999816568091</v>
       </c>
       <c r="J823">
-        <v>16.34218502044678</v>
+        <v>48.18767309188843</v>
       </c>
       <c r="K823">
         <v>-8.99999816568091</v>
@@ -35583,7 +35583,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J824">
-        <v>16.41737008094788</v>
+        <v>52.34311890602112</v>
       </c>
       <c r="K824">
         <v>-11.99999999999999</v>
@@ -35624,7 +35624,7 @@
         <v>-6</v>
       </c>
       <c r="J825">
-        <v>16.55679607391357</v>
+        <v>51.81269693374634</v>
       </c>
       <c r="K825">
         <v>-12</v>
@@ -35665,7 +35665,7 @@
         <v>-6</v>
       </c>
       <c r="J826">
-        <v>16.4402289390564</v>
+        <v>52.3432149887085</v>
       </c>
       <c r="K826">
         <v>-12</v>
@@ -35706,7 +35706,7 @@
         <v>-2.999999848093421</v>
       </c>
       <c r="J827">
-        <v>16.39745259284973</v>
+        <v>51.87515878677368</v>
       </c>
       <c r="K827">
         <v>-8.99999984809342</v>
@@ -35747,7 +35747,7 @@
         <v>-6</v>
       </c>
       <c r="J828">
-        <v>16.96314406394958</v>
+        <v>52.62566828727722</v>
       </c>
       <c r="K828">
         <v>-12</v>
@@ -35788,7 +35788,7 @@
         <v>-6</v>
       </c>
       <c r="J829">
-        <v>16.34569692611694</v>
+        <v>51.89515471458435</v>
       </c>
       <c r="K829">
         <v>-12</v>
@@ -35829,7 +35829,7 @@
         <v>-2.999999994246343</v>
       </c>
       <c r="J830">
-        <v>16.75303602218628</v>
+        <v>50.37663602828979</v>
       </c>
       <c r="K830">
         <v>-8.999999994246343</v>
@@ -35870,7 +35870,7 @@
         <v>-6</v>
       </c>
       <c r="J831">
-        <v>16.64924192428589</v>
+        <v>49.85692596435547</v>
       </c>
       <c r="K831">
         <v>-12</v>
@@ -35911,7 +35911,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J832">
-        <v>16.29269623756409</v>
+        <v>51.05526089668274</v>
       </c>
       <c r="K832">
         <v>-12</v>
@@ -35952,7 +35952,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J833">
-        <v>16.33858299255371</v>
+        <v>51.85012888908386</v>
       </c>
       <c r="K833">
         <v>-12</v>
@@ -35993,7 +35993,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J834">
-        <v>16.63064980506897</v>
+        <v>52.30091118812561</v>
       </c>
       <c r="K834">
         <v>-12</v>
@@ -36034,7 +36034,7 @@
         <v>-6</v>
       </c>
       <c r="J835">
-        <v>17.25751280784607</v>
+        <v>51.88919305801392</v>
       </c>
       <c r="K835">
         <v>-12</v>
@@ -36075,7 +36075,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J836">
-        <v>21.42353796958923</v>
+        <v>52.77751421928406</v>
       </c>
       <c r="K836">
         <v>-12</v>
@@ -36116,7 +36116,7 @@
         <v>-6</v>
       </c>
       <c r="J837">
-        <v>17.93155264854431</v>
+        <v>51.11321377754211</v>
       </c>
       <c r="K837">
         <v>-12</v>
@@ -36157,7 +36157,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J838">
-        <v>17.5460159778595</v>
+        <v>51.79875421524048</v>
       </c>
       <c r="K838">
         <v>-12</v>
@@ -36198,7 +36198,7 @@
         <v>-2.999999853393762</v>
       </c>
       <c r="J839">
-        <v>21.75379586219788</v>
+        <v>49.00526475906372</v>
       </c>
       <c r="K839">
         <v>-8.999999853393762</v>
@@ -36239,7 +36239,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J840">
-        <v>18.87858605384827</v>
+        <v>51.87514686584473</v>
       </c>
       <c r="K840">
         <v>-12</v>
@@ -36280,7 +36280,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J841">
-        <v>19.39219307899475</v>
+        <v>52.77969694137573</v>
       </c>
       <c r="K841">
         <v>-12</v>
@@ -36321,7 +36321,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J842">
-        <v>23.24666213989258</v>
+        <v>51.4851062297821</v>
       </c>
       <c r="K842">
         <v>-12</v>
@@ -36362,7 +36362,7 @@
         <v>-2.999999315180068</v>
       </c>
       <c r="J843">
-        <v>18.66075110435486</v>
+        <v>48.79059910774231</v>
       </c>
       <c r="K843">
         <v>-8.999999315180068</v>
@@ -36403,7 +36403,7 @@
         <v>-6</v>
       </c>
       <c r="J844">
-        <v>16.55863213539124</v>
+        <v>53.47881722450256</v>
       </c>
       <c r="K844">
         <v>-12</v>
@@ -36444,7 +36444,7 @@
         <v>-2.999999845986862</v>
       </c>
       <c r="J845">
-        <v>16.47263097763062</v>
+        <v>57.00665020942688</v>
       </c>
       <c r="K845">
         <v>-8.999999845986862</v>
@@ -36485,7 +36485,7 @@
         <v>-2.999999441420549</v>
       </c>
       <c r="J846">
-        <v>16.46434998512268</v>
+        <v>53.18826508522034</v>
       </c>
       <c r="K846">
         <v>-8.999999441420549</v>
@@ -36526,7 +36526,7 @@
         <v>-6</v>
       </c>
       <c r="J847">
-        <v>16.81666207313538</v>
+        <v>54.84923028945923</v>
       </c>
       <c r="K847">
         <v>-12</v>
@@ -36567,7 +36567,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J848">
-        <v>19.20796990394592</v>
+        <v>55.08990597724915</v>
       </c>
       <c r="K848">
         <v>-12</v>
@@ -36608,7 +36608,7 @@
         <v>-6</v>
       </c>
       <c r="J849">
-        <v>19.6728048324585</v>
+        <v>56.28693294525146</v>
       </c>
       <c r="K849">
         <v>-12</v>
@@ -36649,7 +36649,7 @@
         <v>-6</v>
       </c>
       <c r="J850">
-        <v>18.91007590293884</v>
+        <v>55.51082706451416</v>
       </c>
       <c r="K850">
         <v>-12</v>
@@ -36690,7 +36690,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J851">
-        <v>20.27998614311218</v>
+        <v>56.65197110176086</v>
       </c>
       <c r="K851">
         <v>-12</v>
@@ -36731,7 +36731,7 @@
         <v>-5.999999999999979</v>
       </c>
       <c r="J852">
-        <v>17.7127251625061</v>
+        <v>58.394455909729</v>
       </c>
       <c r="K852">
         <v>-11.99999999999998</v>
@@ -36772,7 +36772,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J853">
-        <v>18.40972590446472</v>
+        <v>58.67505836486816</v>
       </c>
       <c r="K853">
         <v>-11.99999999999999</v>
@@ -36813,7 +36813,7 @@
         <v>-2.999999635046642</v>
       </c>
       <c r="J854">
-        <v>19.90116715431213</v>
+        <v>58.08587598800659</v>
       </c>
       <c r="K854">
         <v>-8.999999635046642</v>
@@ -36854,7 +36854,7 @@
         <v>-6</v>
       </c>
       <c r="J855">
-        <v>18.52618384361267</v>
+        <v>57.08522176742554</v>
       </c>
       <c r="K855">
         <v>-12</v>
@@ -36895,7 +36895,7 @@
         <v>-6</v>
       </c>
       <c r="J856">
-        <v>18.72841811180115</v>
+        <v>53.410799741745</v>
       </c>
       <c r="K856">
         <v>-12</v>
@@ -36936,7 +36936,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J857">
-        <v>17.7929208278656</v>
+        <v>56.27247595787048</v>
       </c>
       <c r="K857">
         <v>-12</v>
@@ -36977,7 +36977,7 @@
         <v>-6</v>
       </c>
       <c r="J858">
-        <v>16.51588463783264</v>
+        <v>54.57797384262085</v>
       </c>
       <c r="K858">
         <v>-12</v>
@@ -37018,7 +37018,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J859">
-        <v>19.31687808036804</v>
+        <v>53.50963306427002</v>
       </c>
       <c r="K859">
         <v>-12</v>
@@ -37059,7 +37059,7 @@
         <v>-2.999999704678202</v>
       </c>
       <c r="J860">
-        <v>19.312420129776</v>
+        <v>54.64708042144775</v>
       </c>
       <c r="K860">
         <v>-8.999999704678203</v>
@@ -37100,7 +37100,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J861">
-        <v>17.31081914901733</v>
+        <v>55.23802495002747</v>
       </c>
       <c r="K861">
         <v>-12</v>
@@ -37141,7 +37141,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J862">
-        <v>16.4589786529541</v>
+        <v>52.65616679191589</v>
       </c>
       <c r="K862">
         <v>-12</v>
@@ -37182,7 +37182,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J863">
-        <v>16.46547293663025</v>
+        <v>56.96261310577393</v>
       </c>
       <c r="K863">
         <v>-12</v>
@@ -37223,7 +37223,7 @@
         <v>-6</v>
       </c>
       <c r="J864">
-        <v>16.77677369117737</v>
+        <v>55.97820210456848</v>
       </c>
       <c r="K864">
         <v>-12</v>
@@ -37264,7 +37264,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J865">
-        <v>16.65301418304443</v>
+        <v>52.37740325927734</v>
       </c>
       <c r="K865">
         <v>-12</v>
@@ -37305,7 +37305,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J866">
-        <v>16.67375493049622</v>
+        <v>54.07909107208252</v>
       </c>
       <c r="K866">
         <v>-12</v>
@@ -37346,7 +37346,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J867">
-        <v>16.64245676994324</v>
+        <v>55.12813687324524</v>
       </c>
       <c r="K867">
         <v>-12</v>
@@ -37387,7 +37387,7 @@
         <v>-6</v>
       </c>
       <c r="J868">
-        <v>16.67059087753296</v>
+        <v>52.75122308731079</v>
       </c>
       <c r="K868">
         <v>-12</v>
@@ -37428,7 +37428,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J869">
-        <v>17.87799286842346</v>
+        <v>56.22013711929321</v>
       </c>
       <c r="K869">
         <v>-11.99999999999999</v>
@@ -37469,7 +37469,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J870">
-        <v>16.6510181427002</v>
+        <v>54.79958295822144</v>
       </c>
       <c r="K870">
         <v>-12</v>
@@ -37510,7 +37510,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J871">
-        <v>16.85838603973389</v>
+        <v>55.43244504928589</v>
       </c>
       <c r="K871">
         <v>-12</v>
@@ -37551,7 +37551,7 @@
         <v>-6</v>
       </c>
       <c r="J872">
-        <v>16.51612305641174</v>
+        <v>54.76999306678772</v>
       </c>
       <c r="K872">
         <v>-12</v>
@@ -37592,7 +37592,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J873">
-        <v>16.77286887168884</v>
+        <v>56.36647391319275</v>
       </c>
       <c r="K873">
         <v>-12</v>
@@ -37633,7 +37633,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J874">
-        <v>18.58067893981934</v>
+        <v>57.70487499237061</v>
       </c>
       <c r="K874">
         <v>-12</v>
@@ -37674,7 +37674,7 @@
         <v>-6</v>
       </c>
       <c r="J875">
-        <v>16.55370497703552</v>
+        <v>55.69310808181763</v>
       </c>
       <c r="K875">
         <v>-12</v>
@@ -37715,7 +37715,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J876">
-        <v>16.46979308128357</v>
+        <v>55.02453780174255</v>
       </c>
       <c r="K876">
         <v>-12</v>
@@ -37756,7 +37756,7 @@
         <v>-2.999993774781892</v>
       </c>
       <c r="J877">
-        <v>18.16487789154053</v>
+        <v>56.06959795951843</v>
       </c>
       <c r="K877">
         <v>-8.999993774781892</v>
@@ -37797,7 +37797,7 @@
         <v>-6</v>
       </c>
       <c r="J878">
-        <v>16.73488593101501</v>
+        <v>55.56231212615967</v>
       </c>
       <c r="K878">
         <v>-12</v>
@@ -37838,7 +37838,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J879">
-        <v>16.65349411964417</v>
+        <v>54.07496190071106</v>
       </c>
       <c r="K879">
         <v>-12</v>
@@ -37879,7 +37879,7 @@
         <v>-6</v>
       </c>
       <c r="J880">
-        <v>16.53333306312561</v>
+        <v>58.27856492996216</v>
       </c>
       <c r="K880">
         <v>-12</v>
@@ -37920,7 +37920,7 @@
         <v>-2.99999973487149</v>
       </c>
       <c r="J881">
-        <v>16.40768480300903</v>
+        <v>54.64472508430481</v>
       </c>
       <c r="K881">
         <v>-8.999999734871491</v>
@@ -37961,7 +37961,7 @@
         <v>-2.99999979779966</v>
       </c>
       <c r="J882">
-        <v>16.79905486106873</v>
+        <v>55.47862124443054</v>
       </c>
       <c r="K882">
         <v>-8.99999979779966</v>
@@ -38002,7 +38002,7 @@
         <v>-6</v>
       </c>
       <c r="J883">
-        <v>16.40192103385925</v>
+        <v>57.35903000831604</v>
       </c>
       <c r="K883">
         <v>-12</v>
@@ -38043,7 +38043,7 @@
         <v>-6</v>
       </c>
       <c r="J884">
-        <v>16.45067811012268</v>
+        <v>57.96697092056274</v>
       </c>
       <c r="K884">
         <v>-12</v>
@@ -38084,7 +38084,7 @@
         <v>-6</v>
       </c>
       <c r="J885">
-        <v>17.37960886955261</v>
+        <v>54.80860900878906</v>
       </c>
       <c r="K885">
         <v>-12</v>
@@ -38125,7 +38125,7 @@
         <v>-2.99999963214439</v>
       </c>
       <c r="J886">
-        <v>16.72846078872681</v>
+        <v>56.0047881603241</v>
       </c>
       <c r="K886">
         <v>-8.999999632144391</v>
@@ -38166,7 +38166,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J887">
-        <v>16.86344885826111</v>
+        <v>57.15124702453613</v>
       </c>
       <c r="K887">
         <v>-12</v>
@@ -38207,7 +38207,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J888">
-        <v>17.0087878704071</v>
+        <v>57.75805807113647</v>
       </c>
       <c r="K888">
         <v>-12</v>
@@ -38248,7 +38248,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J889">
-        <v>16.41881704330444</v>
+        <v>56.8442759513855</v>
       </c>
       <c r="K889">
         <v>-12</v>
@@ -38289,7 +38289,7 @@
         <v>-6</v>
       </c>
       <c r="J890">
-        <v>16.50448179244995</v>
+        <v>54.31655025482178</v>
       </c>
       <c r="K890">
         <v>-12</v>
@@ -38330,7 +38330,7 @@
         <v>-2.99999992353513</v>
       </c>
       <c r="J891">
-        <v>16.60545516014099</v>
+        <v>54.28829002380371</v>
       </c>
       <c r="K891">
         <v>-8.99999992353513</v>
@@ -38371,7 +38371,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J892">
-        <v>16.73318696022034</v>
+        <v>54.92697310447693</v>
       </c>
       <c r="K892">
         <v>-11.99999999999999</v>
@@ -38412,7 +38412,7 @@
         <v>-6</v>
       </c>
       <c r="J893">
-        <v>17.03783106803894</v>
+        <v>56.811448097229</v>
       </c>
       <c r="K893">
         <v>-12</v>
@@ -38453,7 +38453,7 @@
         <v>-1.999966224002495</v>
       </c>
       <c r="J894">
-        <v>17.0050528049469</v>
+        <v>52.05072093009949</v>
       </c>
       <c r="K894">
         <v>-7.999966224002495</v>
@@ -38494,7 +38494,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J895">
-        <v>16.74988293647766</v>
+        <v>55.03316879272461</v>
       </c>
       <c r="K895">
         <v>-11.99999999999999</v>
@@ -38535,7 +38535,7 @@
         <v>-6</v>
       </c>
       <c r="J896">
-        <v>16.55584812164307</v>
+        <v>58.31607699394226</v>
       </c>
       <c r="K896">
         <v>-12</v>
@@ -38576,7 +38576,7 @@
         <v>-6</v>
       </c>
       <c r="J897">
-        <v>17.27497100830078</v>
+        <v>51.70614814758301</v>
       </c>
       <c r="K897">
         <v>-12</v>
@@ -38617,7 +38617,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J898">
-        <v>16.54889392852783</v>
+        <v>56.99030184745789</v>
       </c>
       <c r="K898">
         <v>-12</v>
@@ -38658,7 +38658,7 @@
         <v>-6</v>
       </c>
       <c r="J899">
-        <v>17.47572493553162</v>
+        <v>47.85639190673828</v>
       </c>
       <c r="K899">
         <v>-12</v>
@@ -38699,7 +38699,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J900">
-        <v>20.09934902191162</v>
+        <v>55.29601192474365</v>
       </c>
       <c r="K900">
         <v>-12</v>
@@ -38740,7 +38740,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J901">
-        <v>18.44029808044434</v>
+        <v>55.73894810676575</v>
       </c>
       <c r="K901">
         <v>-11.99999999999999</v>
@@ -38781,7 +38781,7 @@
         <v>-2.999999610893712</v>
       </c>
       <c r="J902">
-        <v>17.97517895698547</v>
+        <v>55.96000576019287</v>
       </c>
       <c r="K902">
         <v>-8.999999610893711</v>
@@ -38822,7 +38822,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J903">
-        <v>17.02829217910767</v>
+        <v>54.29880094528198</v>
       </c>
       <c r="K903">
         <v>-12</v>
@@ -38863,7 +38863,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J904">
-        <v>18.25803709030151</v>
+        <v>56.86810421943665</v>
       </c>
       <c r="K904">
         <v>-11.99999999999999</v>
@@ -38904,7 +38904,7 @@
         <v>-6</v>
       </c>
       <c r="J905">
-        <v>17.12919187545776</v>
+        <v>55.79591512680054</v>
       </c>
       <c r="K905">
         <v>-12</v>
@@ -38945,7 +38945,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J906">
-        <v>17.0771381855011</v>
+        <v>56.32705998420715</v>
       </c>
       <c r="K906">
         <v>-12</v>
@@ -38986,7 +38986,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J907">
-        <v>17.21445202827454</v>
+        <v>55.63739395141602</v>
       </c>
       <c r="K907">
         <v>-12</v>
@@ -39027,7 +39027,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J908">
-        <v>16.87672185897827</v>
+        <v>55.49690198898315</v>
       </c>
       <c r="K908">
         <v>-12</v>
@@ -39068,7 +39068,7 @@
         <v>-6</v>
       </c>
       <c r="J909">
-        <v>17.57001900672913</v>
+        <v>54.9195728302002</v>
       </c>
       <c r="K909">
         <v>-12</v>
@@ -39109,7 +39109,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J910">
-        <v>17.13661479949951</v>
+        <v>57.48096799850464</v>
       </c>
       <c r="K910">
         <v>-12</v>
@@ -39150,7 +39150,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J911">
-        <v>17.85316276550293</v>
+        <v>56.53094291687012</v>
       </c>
       <c r="K911">
         <v>-12</v>
@@ -39191,7 +39191,7 @@
         <v>-6</v>
       </c>
       <c r="J912">
-        <v>17.08068132400513</v>
+        <v>53.50032806396484</v>
       </c>
       <c r="K912">
         <v>-12</v>
@@ -39232,7 +39232,7 @@
         <v>-6</v>
       </c>
       <c r="J913">
-        <v>17.61751389503479</v>
+        <v>55.18411803245544</v>
       </c>
       <c r="K913">
         <v>-12</v>
@@ -39273,7 +39273,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J914">
-        <v>16.87950801849365</v>
+        <v>56.44612908363342</v>
       </c>
       <c r="K914">
         <v>-12</v>
@@ -39314,7 +39314,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J915">
-        <v>17.538813829422</v>
+        <v>52.28949999809265</v>
       </c>
       <c r="K915">
         <v>-12</v>
@@ -39355,7 +39355,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J916">
-        <v>19.5595691204071</v>
+        <v>52.36190700531006</v>
       </c>
       <c r="K916">
         <v>-11.99999999999999</v>
@@ -39396,7 +39396,7 @@
         <v>-1.999998994484127</v>
       </c>
       <c r="J917">
-        <v>17.50119519233704</v>
+        <v>53.604984998703</v>
       </c>
       <c r="K917">
         <v>-7.999998994484127</v>
@@ -39437,7 +39437,7 @@
         <v>-1.999999157151883</v>
       </c>
       <c r="J918">
-        <v>16.59049487113953</v>
+        <v>57.43687605857849</v>
       </c>
       <c r="K918">
         <v>-7.999999157151882</v>
@@ -39478,7 +39478,7 @@
         <v>-6</v>
       </c>
       <c r="J919">
-        <v>16.72912096977234</v>
+        <v>56.87246227264404</v>
       </c>
       <c r="K919">
         <v>-12</v>
@@ -39519,7 +39519,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J920">
-        <v>16.82925009727478</v>
+        <v>56.54398989677429</v>
       </c>
       <c r="K920">
         <v>-12</v>
@@ -39560,7 +39560,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J921">
-        <v>16.8336923122406</v>
+        <v>57.41902589797974</v>
       </c>
       <c r="K921">
         <v>-12</v>
@@ -39601,7 +39601,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J922">
-        <v>16.71655511856079</v>
+        <v>53.26000618934631</v>
       </c>
       <c r="K922">
         <v>-12</v>
@@ -39642,7 +39642,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J923">
-        <v>20.87809991836548</v>
+        <v>58.12298607826233</v>
       </c>
       <c r="K923">
         <v>-12</v>
@@ -39683,7 +39683,7 @@
         <v>-2.999999870863781</v>
       </c>
       <c r="J924">
-        <v>18.84258413314819</v>
+        <v>61.26945900917053</v>
       </c>
       <c r="K924">
         <v>-8.999999870863782</v>
@@ -39724,7 +39724,7 @@
         <v>-6</v>
       </c>
       <c r="J925">
-        <v>17.91997694969177</v>
+        <v>61.45935201644897</v>
       </c>
       <c r="K925">
         <v>-12</v>
@@ -39765,7 +39765,7 @@
         <v>-6</v>
       </c>
       <c r="J926">
-        <v>18.66327691078186</v>
+        <v>57.88419890403748</v>
       </c>
       <c r="K926">
         <v>-12</v>
@@ -39806,7 +39806,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J927">
-        <v>17.94817399978638</v>
+        <v>58.49248218536377</v>
       </c>
       <c r="K927">
         <v>-11.99999999999999</v>
@@ -39847,7 +39847,7 @@
         <v>-2.999999871631145</v>
       </c>
       <c r="J928">
-        <v>16.93474698066711</v>
+        <v>63.26307511329651</v>
       </c>
       <c r="K928">
         <v>-8.999999871631145</v>
@@ -39888,7 +39888,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J929">
-        <v>16.65129899978638</v>
+        <v>61.40707302093506</v>
       </c>
       <c r="K929">
         <v>-11.99999999999999</v>
@@ -39929,7 +39929,7 @@
         <v>-6</v>
       </c>
       <c r="J930">
-        <v>16.65118193626404</v>
+        <v>60.57392907142639</v>
       </c>
       <c r="K930">
         <v>-12</v>
@@ -39970,7 +39970,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J931">
-        <v>16.84920287132263</v>
+        <v>56.23995113372803</v>
       </c>
       <c r="K931">
         <v>-12</v>
@@ -40011,7 +40011,7 @@
         <v>-2.999999705477153</v>
       </c>
       <c r="J932">
-        <v>19.06371402740479</v>
+        <v>58.8876359462738</v>
       </c>
       <c r="K932">
         <v>-8.999999705477153</v>
@@ -40052,7 +40052,7 @@
         <v>-2.999999332055117</v>
       </c>
       <c r="J933">
-        <v>18.62003827095032</v>
+        <v>51.33697104454041</v>
       </c>
       <c r="K933">
         <v>-8.999999332055117</v>
@@ -40093,7 +40093,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J934">
-        <v>18.94567012786865</v>
+        <v>58.7270028591156</v>
       </c>
       <c r="K934">
         <v>-11.99999999999999</v>
@@ -40134,7 +40134,7 @@
         <v>-6</v>
       </c>
       <c r="J935">
-        <v>17.01718592643738</v>
+        <v>60.19921588897705</v>
       </c>
       <c r="K935">
         <v>-12</v>
@@ -40175,7 +40175,7 @@
         <v>-6</v>
       </c>
       <c r="J936">
-        <v>16.94372487068176</v>
+        <v>57.86784887313843</v>
       </c>
       <c r="K936">
         <v>-12</v>
@@ -40216,7 +40216,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J937">
-        <v>22.02384400367737</v>
+        <v>54.40827965736389</v>
       </c>
       <c r="K937">
         <v>-12</v>
@@ -40257,7 +40257,7 @@
         <v>-6</v>
       </c>
       <c r="J938">
-        <v>20.94243192672729</v>
+        <v>55.08762907981873</v>
       </c>
       <c r="K938">
         <v>-12</v>
@@ -40298,7 +40298,7 @@
         <v>-6</v>
       </c>
       <c r="J939">
-        <v>16.86919975280762</v>
+        <v>59.91869187355042</v>
       </c>
       <c r="K939">
         <v>-12</v>
@@ -40339,7 +40339,7 @@
         <v>-6</v>
       </c>
       <c r="J940">
-        <v>16.65435981750488</v>
+        <v>56.48986101150513</v>
       </c>
       <c r="K940">
         <v>-12</v>
@@ -40380,7 +40380,7 @@
         <v>-6</v>
       </c>
       <c r="J941">
-        <v>16.98205518722534</v>
+        <v>61.79471325874329</v>
       </c>
       <c r="K941">
         <v>-12</v>
@@ -40421,7 +40421,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J942">
-        <v>16.61383891105652</v>
+        <v>56.43271398544312</v>
       </c>
       <c r="K942">
         <v>-12</v>
@@ -40462,7 +40462,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J943">
-        <v>17.22757697105408</v>
+        <v>57.68125104904175</v>
       </c>
       <c r="K943">
         <v>-12</v>
@@ -40503,7 +40503,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J944">
-        <v>20.77909708023071</v>
+        <v>55.01420283317566</v>
       </c>
       <c r="K944">
         <v>-12</v>
@@ -40544,7 +40544,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J945">
-        <v>23.84985184669495</v>
+        <v>54.26091289520264</v>
       </c>
       <c r="K945">
         <v>-12</v>
@@ -40585,7 +40585,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J946">
-        <v>17.66631484031677</v>
+        <v>60.11864113807678</v>
       </c>
       <c r="K946">
         <v>-12</v>
@@ -40626,7 +40626,7 @@
         <v>-2.99999977421834</v>
       </c>
       <c r="J947">
-        <v>17.4308500289917</v>
+        <v>54.5289318561554</v>
       </c>
       <c r="K947">
         <v>-8.99999977421834</v>
@@ -40667,7 +40667,7 @@
         <v>-6</v>
       </c>
       <c r="J948">
-        <v>17.81976509094238</v>
+        <v>57.73108005523682</v>
       </c>
       <c r="K948">
         <v>-12</v>
@@ -40708,7 +40708,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J949">
-        <v>18.38631129264832</v>
+        <v>52.69416618347168</v>
       </c>
       <c r="K949">
         <v>-12</v>
@@ -40749,7 +40749,7 @@
         <v>-2.999998498356301</v>
       </c>
       <c r="J950">
-        <v>17.27057099342346</v>
+        <v>50.74921894073486</v>
       </c>
       <c r="K950">
         <v>-8.999998498356302</v>
@@ -40790,7 +40790,7 @@
         <v>-6</v>
       </c>
       <c r="J951">
-        <v>18.15137505531311</v>
+        <v>46.25314021110535</v>
       </c>
       <c r="K951">
         <v>-12</v>
@@ -40831,7 +40831,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J952">
-        <v>17.37912702560425</v>
+        <v>55.08944892883301</v>
       </c>
       <c r="K952">
         <v>-11.99999999999999</v>
@@ -40872,7 +40872,7 @@
         <v>-6</v>
       </c>
       <c r="J953">
-        <v>17.1766619682312</v>
+        <v>55.80972599983215</v>
       </c>
       <c r="K953">
         <v>-12</v>
@@ -40913,7 +40913,7 @@
         <v>-6</v>
       </c>
       <c r="J954">
-        <v>17.5333399772644</v>
+        <v>57.94990682601929</v>
       </c>
       <c r="K954">
         <v>-12</v>
@@ -40954,7 +40954,7 @@
         <v>-5.999999999648131</v>
       </c>
       <c r="J955">
-        <v>17.3756537437439</v>
+        <v>56.7688410282135</v>
       </c>
       <c r="K955">
         <v>-11.99999999964813</v>
@@ -40995,7 +40995,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J956">
-        <v>17.66588091850281</v>
+        <v>57.06809520721436</v>
       </c>
       <c r="K956">
         <v>-12</v>
@@ -41036,7 +41036,7 @@
         <v>-1.999995188943204</v>
       </c>
       <c r="J957">
-        <v>17.37537097930908</v>
+        <v>56.41081500053406</v>
       </c>
       <c r="K957">
         <v>-7.999995188943204</v>
@@ -41077,7 +41077,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J958">
-        <v>17.34660601615906</v>
+        <v>58.52411389350891</v>
       </c>
       <c r="K958">
         <v>-12</v>
@@ -41118,7 +41118,7 @@
         <v>-6</v>
       </c>
       <c r="J959">
-        <v>19.22332906723022</v>
+        <v>55.94619297981262</v>
       </c>
       <c r="K959">
         <v>-12</v>
@@ -41159,7 +41159,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J960">
-        <v>18.63006711006165</v>
+        <v>58.51728677749634</v>
       </c>
       <c r="K960">
         <v>-12</v>
@@ -41200,7 +41200,7 @@
         <v>-3.018227486288925</v>
       </c>
       <c r="J961">
-        <v>18.07831311225891</v>
+        <v>57.51274704933167</v>
       </c>
       <c r="K961">
         <v>-9.018227486288925</v>
@@ -41241,7 +41241,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J962">
-        <v>20.26665902137756</v>
+        <v>56.88796901702881</v>
       </c>
       <c r="K962">
         <v>-12</v>
@@ -41282,7 +41282,7 @@
         <v>-6</v>
       </c>
       <c r="J963">
-        <v>19.19926595687866</v>
+        <v>56.15527391433716</v>
       </c>
       <c r="K963">
         <v>-12</v>
@@ -41323,7 +41323,7 @@
         <v>-6</v>
       </c>
       <c r="J964">
-        <v>17.98406195640564</v>
+        <v>55.8227379322052</v>
       </c>
       <c r="K964">
         <v>-12</v>
@@ -41364,7 +41364,7 @@
         <v>-2.999999774372256</v>
       </c>
       <c r="J965">
-        <v>18.46746206283569</v>
+        <v>56.70165705680847</v>
       </c>
       <c r="K965">
         <v>-8.999999774372256</v>
@@ -41405,7 +41405,7 @@
         <v>-6</v>
       </c>
       <c r="J966">
-        <v>19.49686694145203</v>
+        <v>59.022216796875</v>
       </c>
       <c r="K966">
         <v>-12</v>
@@ -41446,7 +41446,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J967">
-        <v>18.0621190071106</v>
+        <v>57.85062026977539</v>
       </c>
       <c r="K967">
         <v>-12</v>
@@ -41487,7 +41487,7 @@
         <v>-6</v>
       </c>
       <c r="J968">
-        <v>20.03293514251709</v>
+        <v>58.81801295280457</v>
       </c>
       <c r="K968">
         <v>-12</v>
@@ -41528,7 +41528,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J969">
-        <v>17.46916580200195</v>
+        <v>59.20055818557739</v>
       </c>
       <c r="K969">
         <v>-12</v>
@@ -41569,7 +41569,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J970">
-        <v>17.50315594673157</v>
+        <v>58.01374220848083</v>
       </c>
       <c r="K970">
         <v>-11.99999999999999</v>
@@ -41610,7 +41610,7 @@
         <v>-6</v>
       </c>
       <c r="J971">
-        <v>17.58614206314087</v>
+        <v>56.87816071510315</v>
       </c>
       <c r="K971">
         <v>-12</v>
@@ -41651,7 +41651,7 @@
         <v>-2.999999973661806</v>
       </c>
       <c r="J972">
-        <v>16.76784205436707</v>
+        <v>56.20182323455811</v>
       </c>
       <c r="K972">
         <v>-8.999999973661806</v>
@@ -41692,7 +41692,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J973">
-        <v>16.37018418312073</v>
+        <v>55.55596399307251</v>
       </c>
       <c r="K973">
         <v>-12</v>
@@ -41733,7 +41733,7 @@
         <v>-2.999999879917511</v>
       </c>
       <c r="J974">
-        <v>16.43211698532104</v>
+        <v>57.53882694244385</v>
       </c>
       <c r="K974">
         <v>-8.99999987991751</v>
@@ -41774,7 +41774,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J975">
-        <v>16.74984979629517</v>
+        <v>54.35563921928406</v>
       </c>
       <c r="K975">
         <v>-12</v>
@@ -41815,7 +41815,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J976">
-        <v>16.81666612625122</v>
+        <v>52.94380211830139</v>
       </c>
       <c r="K976">
         <v>-12</v>
@@ -41856,7 +41856,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J977">
-        <v>16.45402312278748</v>
+        <v>53.97268509864807</v>
       </c>
       <c r="K977">
         <v>-12</v>
@@ -41897,7 +41897,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J978">
-        <v>16.5063898563385</v>
+        <v>54.28251814842224</v>
       </c>
       <c r="K978">
         <v>-12</v>
@@ -41938,7 +41938,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J979">
-        <v>16.64931511878967</v>
+        <v>54.49781179428101</v>
       </c>
       <c r="K979">
         <v>-12</v>
@@ -41979,7 +41979,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J980">
-        <v>16.39844608306885</v>
+        <v>52.16307711601257</v>
       </c>
       <c r="K980">
         <v>-12</v>
@@ -42020,7 +42020,7 @@
         <v>-6</v>
       </c>
       <c r="J981">
-        <v>16.39763617515564</v>
+        <v>50.91711902618408</v>
       </c>
       <c r="K981">
         <v>-12</v>
@@ -42061,7 +42061,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J982">
-        <v>16.77599620819092</v>
+        <v>53.50654411315918</v>
       </c>
       <c r="K982">
         <v>-12</v>
@@ -42102,7 +42102,7 @@
         <v>-6</v>
       </c>
       <c r="J983">
-        <v>16.70621919631958</v>
+        <v>55.60727572441101</v>
       </c>
       <c r="K983">
         <v>-12</v>
@@ -42143,7 +42143,7 @@
         <v>-6</v>
       </c>
       <c r="J984">
-        <v>16.47626614570618</v>
+        <v>60.31267905235291</v>
       </c>
       <c r="K984">
         <v>-12</v>
@@ -42184,7 +42184,7 @@
         <v>-6</v>
       </c>
       <c r="J985">
-        <v>16.22209000587463</v>
+        <v>56.08603596687317</v>
       </c>
       <c r="K985">
         <v>-12</v>
@@ -42225,7 +42225,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J986">
-        <v>16.46736097335815</v>
+        <v>59.15515303611755</v>
       </c>
       <c r="K986">
         <v>-12</v>
@@ -42266,7 +42266,7 @@
         <v>-2.999999824905138</v>
       </c>
       <c r="J987">
-        <v>16.27419590950012</v>
+        <v>54.84274935722351</v>
       </c>
       <c r="K987">
         <v>-8.999999824905139</v>
@@ -42307,7 +42307,7 @@
         <v>-6</v>
       </c>
       <c r="J988">
-        <v>16.45710730552673</v>
+        <v>54.96721935272217</v>
       </c>
       <c r="K988">
         <v>-12</v>
@@ -42348,7 +42348,7 @@
         <v>-6</v>
       </c>
       <c r="J989">
-        <v>16.66650223731995</v>
+        <v>54.09464287757874</v>
       </c>
       <c r="K989">
         <v>-12</v>
@@ -42389,7 +42389,7 @@
         <v>-6</v>
       </c>
       <c r="J990">
-        <v>16.62609100341797</v>
+        <v>55.37946009635925</v>
       </c>
       <c r="K990">
         <v>-12</v>
@@ -42430,7 +42430,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J991">
-        <v>16.33476996421814</v>
+        <v>59.25137734413147</v>
       </c>
       <c r="K991">
         <v>-12</v>
@@ -42471,7 +42471,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J992">
-        <v>17.16306734085083</v>
+        <v>58.24452257156372</v>
       </c>
       <c r="K992">
         <v>-12</v>
@@ -42512,7 +42512,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J993">
-        <v>18.68718481063843</v>
+        <v>55.62280225753784</v>
       </c>
       <c r="K993">
         <v>-12</v>
@@ -42553,7 +42553,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J994">
-        <v>18.67366099357605</v>
+        <v>57.66280293464661</v>
       </c>
       <c r="K994">
         <v>-12</v>
@@ -42594,7 +42594,7 @@
         <v>-6</v>
       </c>
       <c r="J995">
-        <v>17.59637784957886</v>
+        <v>54.69250202178955</v>
       </c>
       <c r="K995">
         <v>-12</v>
@@ -42635,7 +42635,7 @@
         <v>-6</v>
       </c>
       <c r="J996">
-        <v>17.35790514945984</v>
+        <v>56.5919201374054</v>
       </c>
       <c r="K996">
         <v>-12</v>
@@ -42676,7 +42676,7 @@
         <v>-6</v>
       </c>
       <c r="J997">
-        <v>17.08278679847717</v>
+        <v>53.99579191207886</v>
       </c>
       <c r="K997">
         <v>-12</v>
@@ -42717,7 +42717,7 @@
         <v>-6</v>
       </c>
       <c r="J998">
-        <v>17.14820599555969</v>
+        <v>55.9034571647644</v>
       </c>
       <c r="K998">
         <v>-12</v>
@@ -42758,7 +42758,7 @@
         <v>-6</v>
       </c>
       <c r="J999">
-        <v>17.53002333641052</v>
+        <v>52.90774583816528</v>
       </c>
       <c r="K999">
         <v>-12</v>
@@ -42799,7 +42799,7 @@
         <v>-2.999998796727846</v>
       </c>
       <c r="J1000">
-        <v>18.55803489685059</v>
+        <v>33.7637050151825</v>
       </c>
       <c r="K1000">
         <v>-8.999998796727846</v>
@@ -42840,7 +42840,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J1001">
-        <v>19.51986885070801</v>
+        <v>20.49498701095581</v>
       </c>
       <c r="K1001">
         <v>-12</v>
